--- a/BMP/data_BMP/BMP_batch_JMOR.xlsx
+++ b/BMP/data_BMP/BMP_batch_JMOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15300" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="90">
   <si>
     <t>Date:</t>
   </si>
@@ -318,6 +318,9 @@
   <si>
     <t>JMOR Fertigro ISR experiment</t>
   </si>
+  <si>
+    <t>Water</t>
+  </si>
 </sst>
 </file>
 
@@ -541,7 +544,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -597,8 +600,170 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -687,8 +852,20 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="217">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
@@ -716,6 +893,87 @@
     <cellStyle name="Besøgt link" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -743,6 +1001,87 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1072,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2361,6 +2700,116 @@
       </c>
       <c r="R22" s="9"/>
     </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="19">
+        <v>7102019</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1200</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="19">
+        <v>326.99</v>
+      </c>
+      <c r="F23" s="19">
+        <f>E23</f>
+        <v>326.99</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="19">
+        <v>527.22</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="36">
+        <v>0</v>
+      </c>
+      <c r="K23" s="37">
+        <v>0</v>
+      </c>
+      <c r="L23" s="31">
+        <v>0</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="22">
+        <v>300</v>
+      </c>
+      <c r="O23" s="19">
+        <v>16</v>
+      </c>
+      <c r="P23" s="19">
+        <v>1013.6</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>52.5</v>
+      </c>
+      <c r="R23" s="15"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="19">
+        <v>7102019</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1200</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="19">
+        <v>326.41000000000003</v>
+      </c>
+      <c r="F24" s="19">
+        <f>E24</f>
+        <v>326.41000000000003</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="19">
+        <v>528.15</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="36">
+        <v>0</v>
+      </c>
+      <c r="K24" s="37">
+        <v>0</v>
+      </c>
+      <c r="L24" s="31">
+        <v>0</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="22">
+        <v>300</v>
+      </c>
+      <c r="O24" s="19">
+        <v>16</v>
+      </c>
+      <c r="P24" s="19">
+        <v>1013.6</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>52.5</v>
+      </c>
+      <c r="R24" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2374,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N164"/>
+  <dimension ref="A1:N224"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="J165" sqref="J165"/>
+    <sheetView topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203:N204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2629,7 +3078,7 @@
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="15">
-        <f t="shared" ref="L7:L70" si="5">$L$5</f>
+        <f t="shared" ref="L7:L64" si="5">$L$5</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M7" s="15">
@@ -2687,7 +3136,7 @@
         <v>0.68299999999999994</v>
       </c>
       <c r="N8" s="15">
-        <f t="shared" ref="N8:N71" si="7">H8-(M8-L8)*98</f>
+        <f t="shared" ref="N8:N62" si="7">H8-(M8-L8)*98</f>
         <v>930.52600000000007</v>
       </c>
     </row>
@@ -7389,7 +7838,7 @@
         <v>0.77074999999999994</v>
       </c>
       <c r="N108" s="15">
-        <f t="shared" ref="N108:N124" si="28">H108-(M108-L108)*98</f>
+        <f t="shared" ref="N108:N122" si="28">H108-(M108-L108)*98</f>
         <v>933.62649999999996</v>
       </c>
     </row>
@@ -8379,7 +8828,7 @@
         <v>0.83899999999999997</v>
       </c>
       <c r="N128" s="15">
-        <f t="shared" ref="N128:N144" si="36">H128-(M128-L128)*98</f>
+        <f t="shared" ref="N128:N142" si="36">H128-(M128-L128)*98</f>
         <v>920.82800000000009</v>
       </c>
     </row>
@@ -9369,7 +9818,7 @@
         <v>0.83249999999999991</v>
       </c>
       <c r="N148" s="15">
-        <f t="shared" ref="N148:N164" si="44">H148-(M148-L148)*98</f>
+        <f t="shared" ref="N148:N162" si="44">H148-(M148-L148)*98</f>
         <v>939.875</v>
       </c>
     </row>
@@ -10166,6 +10615,2975 @@
         <v>18</v>
       </c>
       <c r="N164" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="9">
+        <v>28102019</v>
+      </c>
+      <c r="C165" s="9">
+        <v>1202</v>
+      </c>
+      <c r="D165" s="9">
+        <v>524.26</v>
+      </c>
+      <c r="E165" s="9">
+        <v>100</v>
+      </c>
+      <c r="F165" s="9">
+        <v>524.14</v>
+      </c>
+      <c r="G165" s="9">
+        <v>17</v>
+      </c>
+      <c r="H165" s="9">
+        <v>1009.31</v>
+      </c>
+      <c r="I165" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J165" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K165" s="9"/>
+      <c r="L165" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M165" s="15">
+        <f>(1-L165)-((E165/100)*'Water column'!$B$26)</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="N165" s="15">
+        <f t="shared" ref="N165:N166" si="45">H165-(M165-L165)*98</f>
+        <v>931.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" s="9">
+        <f>$B$165</f>
+        <v>28102019</v>
+      </c>
+      <c r="C166" s="9">
+        <v>1202</v>
+      </c>
+      <c r="D166" s="9">
+        <v>523.41</v>
+      </c>
+      <c r="E166" s="9">
+        <v>90</v>
+      </c>
+      <c r="F166" s="9">
+        <v>523.29</v>
+      </c>
+      <c r="G166" s="9">
+        <f>$G$165</f>
+        <v>17</v>
+      </c>
+      <c r="H166" s="9">
+        <f>$H$165</f>
+        <v>1009.31</v>
+      </c>
+      <c r="I166" s="9">
+        <f>$I$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="J166" s="9">
+        <f>$J$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="K166" s="9"/>
+      <c r="L166" s="15">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M166" s="15">
+        <f>(1-L166)-((E166/100)*'Water column'!$B$26)</f>
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="N166" s="15">
+        <f t="shared" si="45"/>
+        <v>930.76299999999992</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B167" s="9">
+        <f t="shared" ref="B167:B184" si="46">$B$165</f>
+        <v>28102019</v>
+      </c>
+      <c r="C167" s="9">
+        <v>1202</v>
+      </c>
+      <c r="D167" s="9">
+        <v>524.62</v>
+      </c>
+      <c r="E167" s="9">
+        <v>90</v>
+      </c>
+      <c r="F167" s="9">
+        <v>524.49</v>
+      </c>
+      <c r="G167" s="9">
+        <f t="shared" ref="G167:G184" si="47">$G$165</f>
+        <v>17</v>
+      </c>
+      <c r="H167" s="9">
+        <f t="shared" ref="H167:H184" si="48">$H$165</f>
+        <v>1009.31</v>
+      </c>
+      <c r="I167" s="9">
+        <f t="shared" ref="I167:I184" si="49">$I$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="J167" s="9">
+        <f t="shared" ref="J167:J184" si="50">$J$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="K167" s="9"/>
+      <c r="L167" s="15">
+        <f t="shared" ref="L167:L184" si="51">$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M167" s="15">
+        <f>(1-L167)-((E167/100)*'Water column'!$B$26)</f>
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="N167" s="15">
+        <f>H167-(M167-L167)*98</f>
+        <v>930.76299999999992</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C168" s="9">
+        <v>1206</v>
+      </c>
+      <c r="D168" s="9">
+        <v>526</v>
+      </c>
+      <c r="E168" s="9">
+        <v>130</v>
+      </c>
+      <c r="F168" s="9">
+        <v>525.91999999999996</v>
+      </c>
+      <c r="G168" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H168" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I168" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J168" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K168" s="9"/>
+      <c r="L168" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M168" s="15">
+        <f>(1-L168)-((E168/100)*'Water column'!$B$26)</f>
+        <v>0.84549999999999992</v>
+      </c>
+      <c r="N168" s="15">
+        <f t="shared" ref="N168:N182" si="52">H168-(M168-L168)*98</f>
+        <v>933.31099999999992</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C169" s="9">
+        <v>1206</v>
+      </c>
+      <c r="D169" s="9">
+        <v>521.79</v>
+      </c>
+      <c r="E169" s="9">
+        <v>120</v>
+      </c>
+      <c r="F169" s="9">
+        <v>521.66999999999996</v>
+      </c>
+      <c r="G169" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H169" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I169" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J169" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K169" s="9"/>
+      <c r="L169" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M169" s="15">
+        <f>(1-L169)-((E169/100)*'Water column'!$B$26)</f>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="N169" s="15">
+        <f t="shared" si="52"/>
+        <v>932.67399999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B170" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C170" s="9">
+        <v>1206</v>
+      </c>
+      <c r="D170" s="9">
+        <v>523.42999999999995</v>
+      </c>
+      <c r="E170" s="9">
+        <v>110</v>
+      </c>
+      <c r="F170" s="9">
+        <v>523.35</v>
+      </c>
+      <c r="G170" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H170" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I170" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J170" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K170" s="9"/>
+      <c r="L170" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M170" s="15">
+        <f>(1-L170)-((E170/100)*'Water column'!$B$26)</f>
+        <v>0.85849999999999993</v>
+      </c>
+      <c r="N170" s="15">
+        <f t="shared" si="52"/>
+        <v>932.03699999999992</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B171" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C171" s="9">
+        <v>1155</v>
+      </c>
+      <c r="D171" s="9">
+        <v>529.66999999999996</v>
+      </c>
+      <c r="E171" s="9">
+        <v>80</v>
+      </c>
+      <c r="F171" s="9">
+        <v>529.58000000000004</v>
+      </c>
+      <c r="G171" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H171" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I171" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J171" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K171" s="9"/>
+      <c r="L171" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M171" s="15">
+        <f>(1-L171)-((E171/100)*'Water column'!$B$26)</f>
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="N171" s="15">
+        <f t="shared" si="52"/>
+        <v>930.12599999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C172" s="9">
+        <v>1155</v>
+      </c>
+      <c r="D172" s="9">
+        <v>526.52</v>
+      </c>
+      <c r="E172" s="9">
+        <v>110</v>
+      </c>
+      <c r="F172" s="9">
+        <v>526.39</v>
+      </c>
+      <c r="G172" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H172" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I172" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J172" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K172" s="9"/>
+      <c r="L172" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M172" s="15">
+        <f>(1-L172)-((E172/100)*'Water column'!$B$26)</f>
+        <v>0.85849999999999993</v>
+      </c>
+      <c r="N172" s="15">
+        <f t="shared" si="52"/>
+        <v>932.03699999999992</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B173" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C173" s="9">
+        <v>1155</v>
+      </c>
+      <c r="D173" s="9">
+        <v>525.19000000000005</v>
+      </c>
+      <c r="E173" s="9">
+        <v>110</v>
+      </c>
+      <c r="F173" s="9">
+        <v>525.08000000000004</v>
+      </c>
+      <c r="G173" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H173" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I173" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J173" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K173" s="9"/>
+      <c r="L173" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M173" s="15">
+        <f>(1-L173)-((E173/100)*'Water column'!$B$26)</f>
+        <v>0.85849999999999993</v>
+      </c>
+      <c r="N173" s="15">
+        <f t="shared" si="52"/>
+        <v>932.03699999999992</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B174" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C174" s="9">
+        <v>1105</v>
+      </c>
+      <c r="D174" s="9">
+        <v>536.73</v>
+      </c>
+      <c r="E174" s="9">
+        <v>470</v>
+      </c>
+      <c r="F174" s="9">
+        <v>536.37</v>
+      </c>
+      <c r="G174" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H174" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I174" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J174" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K174" s="9"/>
+      <c r="L174" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M174" s="15">
+        <f>(1-L174)-((E174/100)*'Water column'!$B$26)</f>
+        <v>0.62449999999999983</v>
+      </c>
+      <c r="N174" s="15">
+        <f t="shared" si="52"/>
+        <v>954.96899999999994</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B175" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C175" s="9">
+        <v>1105</v>
+      </c>
+      <c r="D175" s="9">
+        <v>530.86</v>
+      </c>
+      <c r="E175" s="9">
+        <v>470</v>
+      </c>
+      <c r="F175" s="9">
+        <v>530.44000000000005</v>
+      </c>
+      <c r="G175" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H175" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I175" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J175" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K175" s="9"/>
+      <c r="L175" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M175" s="15">
+        <f>(1-L175)-((E175/100)*'Water column'!$B$26)</f>
+        <v>0.62449999999999983</v>
+      </c>
+      <c r="N175" s="15">
+        <f t="shared" si="52"/>
+        <v>954.96899999999994</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B176" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C176" s="9">
+        <v>1105</v>
+      </c>
+      <c r="D176" s="9">
+        <v>524.66999999999996</v>
+      </c>
+      <c r="E176" s="9">
+        <v>540</v>
+      </c>
+      <c r="F176" s="9">
+        <v>524.20000000000005</v>
+      </c>
+      <c r="G176" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H176" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I176" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J176" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K176" s="9"/>
+      <c r="L176" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M176" s="15">
+        <f>(1-L176)-((E176/100)*'Water column'!$B$26)</f>
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="N176" s="15">
+        <f t="shared" si="52"/>
+        <v>959.428</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B177" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C177" s="9">
+        <v>1119</v>
+      </c>
+      <c r="D177" s="9">
+        <v>519.53</v>
+      </c>
+      <c r="E177" s="9">
+        <v>25</v>
+      </c>
+      <c r="F177" s="9">
+        <v>519.49</v>
+      </c>
+      <c r="G177" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H177" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I177" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J177" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K177" s="9"/>
+      <c r="L177" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M177" s="15">
+        <f>(1-L177)-((E177/100)*'Water column'!$B$26)</f>
+        <v>0.91374999999999995</v>
+      </c>
+      <c r="N177" s="15">
+        <f t="shared" si="52"/>
+        <v>926.62249999999995</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B178" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C178" s="9">
+        <v>1119</v>
+      </c>
+      <c r="D178" s="9">
+        <v>524.9</v>
+      </c>
+      <c r="E178" s="9">
+        <v>30</v>
+      </c>
+      <c r="F178" s="9">
+        <v>524.84</v>
+      </c>
+      <c r="G178" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H178" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I178" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J178" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K178" s="9"/>
+      <c r="L178" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M178" s="15">
+        <f>(1-L178)-((E178/100)*'Water column'!$B$26)</f>
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="N178" s="15">
+        <f t="shared" si="52"/>
+        <v>926.94099999999992</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C179" s="9">
+        <v>1119</v>
+      </c>
+      <c r="D179" s="9">
+        <v>523.20000000000005</v>
+      </c>
+      <c r="E179" s="9">
+        <v>30</v>
+      </c>
+      <c r="F179" s="9">
+        <v>523.15</v>
+      </c>
+      <c r="G179" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H179" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I179" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J179" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K179" s="9"/>
+      <c r="L179" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M179" s="15">
+        <f>(1-L179)-((E179/100)*'Water column'!$B$26)</f>
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="N179" s="15">
+        <f t="shared" si="52"/>
+        <v>926.94099999999992</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B180" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C180" s="9">
+        <v>1211</v>
+      </c>
+      <c r="D180" s="9">
+        <v>522.58000000000004</v>
+      </c>
+      <c r="E180" s="9">
+        <v>25</v>
+      </c>
+      <c r="F180" s="9">
+        <v>522.57000000000005</v>
+      </c>
+      <c r="G180" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H180" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I180" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J180" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K180" s="9"/>
+      <c r="L180" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M180" s="15">
+        <f>(1-L180)-((E180/100)*'Water column'!$B$26)</f>
+        <v>0.91374999999999995</v>
+      </c>
+      <c r="N180" s="15">
+        <f t="shared" si="52"/>
+        <v>926.62249999999995</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B181" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C181" s="9">
+        <v>1211</v>
+      </c>
+      <c r="D181" s="9">
+        <v>522.11</v>
+      </c>
+      <c r="E181" s="9">
+        <v>35</v>
+      </c>
+      <c r="F181" s="9">
+        <v>522.09</v>
+      </c>
+      <c r="G181" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H181" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I181" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J181" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K181" s="9"/>
+      <c r="L181" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M181" s="15">
+        <f>(1-L181)-((E181/100)*'Water column'!$B$26)</f>
+        <v>0.90724999999999989</v>
+      </c>
+      <c r="N181" s="15">
+        <f t="shared" si="52"/>
+        <v>927.2595</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="A182" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B182" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C182" s="9">
+        <v>1211</v>
+      </c>
+      <c r="D182" s="9">
+        <v>522.76</v>
+      </c>
+      <c r="E182" s="9">
+        <v>30</v>
+      </c>
+      <c r="F182" s="9">
+        <v>522.74</v>
+      </c>
+      <c r="G182" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H182" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I182" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J182" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K182" s="9"/>
+      <c r="L182" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M182" s="15">
+        <f>(1-L182)-((E182/100)*'Water column'!$B$26)</f>
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="N182" s="15">
+        <f t="shared" si="52"/>
+        <v>926.94099999999992</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="A183" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B183" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C183" s="19">
+        <v>1100</v>
+      </c>
+      <c r="D183" s="19">
+        <v>527.16999999999996</v>
+      </c>
+      <c r="E183" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F183" s="19">
+        <v>527.20000000000005</v>
+      </c>
+      <c r="G183" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H183" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I183" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J183" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K183" s="15"/>
+      <c r="L183" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M183" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N183" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B184" s="9">
+        <f t="shared" si="46"/>
+        <v>28102019</v>
+      </c>
+      <c r="C184" s="19">
+        <v>1100</v>
+      </c>
+      <c r="D184" s="19">
+        <v>528.07000000000005</v>
+      </c>
+      <c r="E184" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F184" s="19">
+        <v>528.09</v>
+      </c>
+      <c r="G184" s="9">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="H184" s="9">
+        <f t="shared" si="48"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I184" s="9">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="J184" s="9">
+        <f t="shared" si="50"/>
+        <v>52.5</v>
+      </c>
+      <c r="K184" s="15"/>
+      <c r="L184" s="15">
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M184" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N184" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B185" s="9">
+        <v>1112019</v>
+      </c>
+      <c r="C185" s="9">
+        <v>1451</v>
+      </c>
+      <c r="D185" s="9">
+        <v>524.14</v>
+      </c>
+      <c r="E185" s="9">
+        <v>80</v>
+      </c>
+      <c r="F185" s="9">
+        <v>524.04999999999995</v>
+      </c>
+      <c r="G185" s="9">
+        <v>16</v>
+      </c>
+      <c r="H185" s="9">
+        <v>1004.12</v>
+      </c>
+      <c r="I185" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J185" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K185" s="9"/>
+      <c r="L185" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M185" s="15">
+        <f>(1-L185)-((E185/100)*'Water column'!$B$26)</f>
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="N185" s="15">
+        <f t="shared" ref="N185:N186" si="53">H185-(M185-L185)*98</f>
+        <v>924.93600000000004</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" s="9">
+        <v>1112019</v>
+      </c>
+      <c r="C186" s="9">
+        <v>1451</v>
+      </c>
+      <c r="D186" s="9">
+        <v>523.29999999999995</v>
+      </c>
+      <c r="E186" s="9">
+        <v>75</v>
+      </c>
+      <c r="F186" s="9">
+        <v>523.22</v>
+      </c>
+      <c r="G186" s="9">
+        <f>$G$185</f>
+        <v>16</v>
+      </c>
+      <c r="H186" s="9">
+        <f>$H$185</f>
+        <v>1004.12</v>
+      </c>
+      <c r="I186" s="9">
+        <f>$I$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="J186" s="9">
+        <f>$J$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="K186" s="9"/>
+      <c r="L186" s="15">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M186" s="15">
+        <f>(1-L186)-((E186/100)*'Water column'!$B$26)</f>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="N186" s="15">
+        <f t="shared" si="53"/>
+        <v>924.61750000000006</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="A187" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B187" s="9">
+        <f>$B$186</f>
+        <v>1112019</v>
+      </c>
+      <c r="C187" s="9">
+        <v>1451</v>
+      </c>
+      <c r="D187" s="9">
+        <v>524.51</v>
+      </c>
+      <c r="E187" s="9">
+        <v>80</v>
+      </c>
+      <c r="F187" s="9">
+        <v>524.41</v>
+      </c>
+      <c r="G187" s="9">
+        <f t="shared" ref="G187:G204" si="54">$G$185</f>
+        <v>16</v>
+      </c>
+      <c r="H187" s="9">
+        <f t="shared" ref="H187:H204" si="55">$H$185</f>
+        <v>1004.12</v>
+      </c>
+      <c r="I187" s="9">
+        <f t="shared" ref="I187:I204" si="56">$I$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="J187" s="9">
+        <f t="shared" ref="J187:J204" si="57">$J$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="K187" s="9"/>
+      <c r="L187" s="15">
+        <f t="shared" ref="L187:L204" si="58">$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M187" s="15">
+        <f>(1-L187)-((E187/100)*'Water column'!$B$26)</f>
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="N187" s="15">
+        <f>H187-(M187-L187)*98</f>
+        <v>924.93600000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="9">
+        <f t="shared" ref="B188:B203" si="59">$B$186</f>
+        <v>1112019</v>
+      </c>
+      <c r="C188" s="9">
+        <v>1443</v>
+      </c>
+      <c r="D188" s="9">
+        <v>525.9</v>
+      </c>
+      <c r="E188" s="9">
+        <v>110</v>
+      </c>
+      <c r="F188" s="9">
+        <v>525.82000000000005</v>
+      </c>
+      <c r="G188" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H188" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I188" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J188" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K188" s="9"/>
+      <c r="L188" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M188" s="15">
+        <f>(1-L188)-((E188/100)*'Water column'!$B$26)</f>
+        <v>0.85849999999999993</v>
+      </c>
+      <c r="N188" s="15">
+        <f t="shared" ref="N188:N202" si="60">H188-(M188-L188)*98</f>
+        <v>926.84699999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B189" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C189" s="9">
+        <v>1443</v>
+      </c>
+      <c r="D189" s="9">
+        <v>521.66999999999996</v>
+      </c>
+      <c r="E189" s="9">
+        <v>80</v>
+      </c>
+      <c r="F189" s="9">
+        <v>521.58000000000004</v>
+      </c>
+      <c r="G189" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H189" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I189" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J189" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K189" s="9"/>
+      <c r="L189" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M189" s="15">
+        <f>(1-L189)-((E189/100)*'Water column'!$B$26)</f>
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="N189" s="15">
+        <f t="shared" si="60"/>
+        <v>924.93600000000004</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B190" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C190" s="9">
+        <v>1443</v>
+      </c>
+      <c r="D190" s="9">
+        <v>523.33000000000004</v>
+      </c>
+      <c r="E190" s="9">
+        <v>80</v>
+      </c>
+      <c r="F190" s="9">
+        <v>523.25</v>
+      </c>
+      <c r="G190" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H190" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I190" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J190" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K190" s="9"/>
+      <c r="L190" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M190" s="15">
+        <f>(1-L190)-((E190/100)*'Water column'!$B$26)</f>
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="N190" s="15">
+        <f t="shared" si="60"/>
+        <v>924.93600000000004</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="A191" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B191" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C191" s="9">
+        <v>1458</v>
+      </c>
+      <c r="D191" s="9">
+        <v>529.57000000000005</v>
+      </c>
+      <c r="E191" s="9">
+        <v>110</v>
+      </c>
+      <c r="F191" s="9">
+        <v>529.44000000000005</v>
+      </c>
+      <c r="G191" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H191" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I191" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J191" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K191" s="9"/>
+      <c r="L191" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M191" s="15">
+        <f>(1-L191)-((E191/100)*'Water column'!$B$26)</f>
+        <v>0.85849999999999993</v>
+      </c>
+      <c r="N191" s="15">
+        <f t="shared" si="60"/>
+        <v>926.84699999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B192" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C192" s="9">
+        <v>1458</v>
+      </c>
+      <c r="D192" s="9">
+        <v>526.38</v>
+      </c>
+      <c r="E192" s="9">
+        <v>90</v>
+      </c>
+      <c r="F192" s="9">
+        <v>526.27</v>
+      </c>
+      <c r="G192" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H192" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I192" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J192" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K192" s="9"/>
+      <c r="L192" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M192" s="15">
+        <f>(1-L192)-((E192/100)*'Water column'!$B$26)</f>
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="N192" s="15">
+        <f t="shared" si="60"/>
+        <v>925.57299999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="A193" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B193" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C193" s="9">
+        <v>1458</v>
+      </c>
+      <c r="D193" s="9">
+        <v>525.07000000000005</v>
+      </c>
+      <c r="E193" s="9">
+        <v>90</v>
+      </c>
+      <c r="F193" s="9">
+        <v>524.98</v>
+      </c>
+      <c r="G193" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H193" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I193" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J193" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K193" s="9"/>
+      <c r="L193" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M193" s="15">
+        <f>(1-L193)-((E193/100)*'Water column'!$B$26)</f>
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="N193" s="15">
+        <f t="shared" si="60"/>
+        <v>925.57299999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B194" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C194" s="9">
+        <v>1426</v>
+      </c>
+      <c r="D194" s="9">
+        <v>536.35</v>
+      </c>
+      <c r="E194" s="9">
+        <v>520</v>
+      </c>
+      <c r="F194" s="9">
+        <v>535.86</v>
+      </c>
+      <c r="G194" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H194" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I194" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J194" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K194" s="9"/>
+      <c r="L194" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M194" s="15">
+        <f>(1-L194)-((E194/100)*'Water column'!$B$26)</f>
+        <v>0.59199999999999986</v>
+      </c>
+      <c r="N194" s="15">
+        <f t="shared" si="60"/>
+        <v>952.96400000000006</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B195" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C195" s="9">
+        <v>1426</v>
+      </c>
+      <c r="D195" s="9">
+        <v>530.46</v>
+      </c>
+      <c r="E195" s="9">
+        <v>270</v>
+      </c>
+      <c r="F195" s="9">
+        <v>530.16</v>
+      </c>
+      <c r="G195" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H195" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I195" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J195" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K195" s="9"/>
+      <c r="L195" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M195" s="15">
+        <f>(1-L195)-((E195/100)*'Water column'!$B$26)</f>
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="N195" s="15">
+        <f t="shared" si="60"/>
+        <v>937.03899999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B196" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C196" s="9">
+        <v>1426</v>
+      </c>
+      <c r="D196" s="9">
+        <v>524.20000000000005</v>
+      </c>
+      <c r="E196" s="9">
+        <v>340</v>
+      </c>
+      <c r="F196" s="9">
+        <v>523.87</v>
+      </c>
+      <c r="G196" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H196" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I196" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J196" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K196" s="9"/>
+      <c r="L196" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M196" s="15">
+        <f>(1-L196)-((E196/100)*'Water column'!$B$26)</f>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="N196" s="15">
+        <f t="shared" si="60"/>
+        <v>941.49800000000005</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
+      <c r="A197" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C197" s="9">
+        <v>1409</v>
+      </c>
+      <c r="D197" s="9">
+        <v>519.49</v>
+      </c>
+      <c r="E197" s="9">
+        <v>80</v>
+      </c>
+      <c r="F197" s="9">
+        <v>519.4</v>
+      </c>
+      <c r="G197" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H197" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I197" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J197" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K197" s="9"/>
+      <c r="L197" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M197" s="15">
+        <f>(1-L197)-((E197/100)*'Water column'!$B$26)</f>
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="N197" s="15">
+        <f t="shared" si="60"/>
+        <v>924.93600000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B198" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C198" s="9">
+        <v>1409</v>
+      </c>
+      <c r="D198" s="9">
+        <v>524.84</v>
+      </c>
+      <c r="E198" s="9">
+        <v>70</v>
+      </c>
+      <c r="F198" s="9">
+        <v>524.78</v>
+      </c>
+      <c r="G198" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H198" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I198" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J198" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K198" s="9"/>
+      <c r="L198" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M198" s="15">
+        <f>(1-L198)-((E198/100)*'Water column'!$B$26)</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="N198" s="15">
+        <f t="shared" si="60"/>
+        <v>924.29899999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="A199" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B199" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C199" s="9">
+        <v>1409</v>
+      </c>
+      <c r="D199" s="9">
+        <v>523.14</v>
+      </c>
+      <c r="E199" s="9">
+        <v>70</v>
+      </c>
+      <c r="F199" s="9">
+        <v>523.09</v>
+      </c>
+      <c r="G199" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H199" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I199" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J199" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K199" s="9"/>
+      <c r="L199" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M199" s="15">
+        <f>(1-L199)-((E199/100)*'Water column'!$B$26)</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="N199" s="15">
+        <f t="shared" si="60"/>
+        <v>924.29899999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B200" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C200" s="9">
+        <v>1435</v>
+      </c>
+      <c r="D200" s="9">
+        <v>522.54999999999995</v>
+      </c>
+      <c r="E200" s="9">
+        <v>70</v>
+      </c>
+      <c r="F200" s="9">
+        <v>522.48</v>
+      </c>
+      <c r="G200" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H200" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I200" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J200" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K200" s="9"/>
+      <c r="L200" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M200" s="15">
+        <f>(1-L200)-((E200/100)*'Water column'!$B$26)</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="N200" s="15">
+        <f t="shared" si="60"/>
+        <v>924.29899999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="A201" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B201" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C201" s="9">
+        <v>1435</v>
+      </c>
+      <c r="D201" s="9">
+        <v>522.07000000000005</v>
+      </c>
+      <c r="E201" s="9">
+        <v>55</v>
+      </c>
+      <c r="F201" s="9">
+        <v>522.03</v>
+      </c>
+      <c r="G201" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H201" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I201" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J201" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K201" s="9"/>
+      <c r="L201" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M201" s="15">
+        <f>(1-L201)-((E201/100)*'Water column'!$B$26)</f>
+        <v>0.89424999999999999</v>
+      </c>
+      <c r="N201" s="15">
+        <f t="shared" si="60"/>
+        <v>923.34349999999995</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="A202" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B202" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C202" s="9">
+        <v>1435</v>
+      </c>
+      <c r="D202" s="9">
+        <v>522.72</v>
+      </c>
+      <c r="E202" s="9">
+        <v>60</v>
+      </c>
+      <c r="F202" s="9">
+        <v>522.66999999999996</v>
+      </c>
+      <c r="G202" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H202" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I202" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J202" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K202" s="9"/>
+      <c r="L202" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M202" s="15">
+        <f>(1-L202)-((E202/100)*'Water column'!$B$26)</f>
+        <v>0.8909999999999999</v>
+      </c>
+      <c r="N202" s="15">
+        <f t="shared" si="60"/>
+        <v>923.66200000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="A203" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B203" s="9">
+        <f t="shared" si="59"/>
+        <v>1112019</v>
+      </c>
+      <c r="C203" s="19">
+        <v>1350</v>
+      </c>
+      <c r="D203" s="19">
+        <v>527.17999999999995</v>
+      </c>
+      <c r="E203" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F203" s="19">
+        <v>527.19000000000005</v>
+      </c>
+      <c r="G203" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H203" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I203" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J203" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K203" s="15"/>
+      <c r="L203" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M203" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N203" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="A204" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B204" s="9">
+        <f>$B$186</f>
+        <v>1112019</v>
+      </c>
+      <c r="C204" s="19">
+        <v>1350</v>
+      </c>
+      <c r="D204" s="19">
+        <v>528.08000000000004</v>
+      </c>
+      <c r="E204" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204" s="19">
+        <v>528.08000000000004</v>
+      </c>
+      <c r="G204" s="9">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="H204" s="9">
+        <f t="shared" si="55"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I204" s="9">
+        <f t="shared" si="56"/>
+        <v>52.5</v>
+      </c>
+      <c r="J204" s="9">
+        <f t="shared" si="57"/>
+        <v>52.5</v>
+      </c>
+      <c r="K204" s="15"/>
+      <c r="L204" s="15">
+        <f t="shared" si="58"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M204" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N204" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="A205" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" s="9">
+        <v>6112019</v>
+      </c>
+      <c r="C205" s="9">
+        <v>1119</v>
+      </c>
+      <c r="D205" s="9">
+        <v>524.02</v>
+      </c>
+      <c r="E205" s="9">
+        <v>70</v>
+      </c>
+      <c r="F205" s="9">
+        <v>523.94000000000005</v>
+      </c>
+      <c r="G205" s="9">
+        <v>14</v>
+      </c>
+      <c r="H205" s="9">
+        <v>994.21</v>
+      </c>
+      <c r="I205" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J205" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K205" s="9"/>
+      <c r="L205" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M205" s="15">
+        <f>(1-L205)-((E205/100)*'Water column'!$B$26)</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="N205" s="15">
+        <f t="shared" ref="N205:N206" si="61">H205-(M205-L205)*98</f>
+        <v>914.38900000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="A206" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B206" s="9">
+        <f>$B$205</f>
+        <v>6112019</v>
+      </c>
+      <c r="C206" s="9">
+        <v>1119</v>
+      </c>
+      <c r="D206" s="9">
+        <v>523.17999999999995</v>
+      </c>
+      <c r="E206" s="9">
+        <v>70</v>
+      </c>
+      <c r="F206" s="9">
+        <v>523.11</v>
+      </c>
+      <c r="G206" s="9">
+        <f>$G$205</f>
+        <v>14</v>
+      </c>
+      <c r="H206" s="9">
+        <f>$H$205</f>
+        <v>994.21</v>
+      </c>
+      <c r="I206" s="9">
+        <f>$I$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="J206" s="9">
+        <f>$J$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="K206" s="9"/>
+      <c r="L206" s="15">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M206" s="15">
+        <f>(1-L206)-((E206/100)*'Water column'!$B$26)</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="N206" s="15">
+        <f t="shared" si="61"/>
+        <v>914.38900000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="A207" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B207" s="9">
+        <f t="shared" ref="B207:B224" si="62">$B$205</f>
+        <v>6112019</v>
+      </c>
+      <c r="C207" s="9">
+        <v>1119</v>
+      </c>
+      <c r="D207" s="9">
+        <v>524.39</v>
+      </c>
+      <c r="E207" s="9">
+        <v>80</v>
+      </c>
+      <c r="F207" s="9">
+        <v>524.30999999999995</v>
+      </c>
+      <c r="G207" s="9">
+        <f t="shared" ref="G207:G224" si="63">$G$205</f>
+        <v>14</v>
+      </c>
+      <c r="H207" s="9">
+        <f t="shared" ref="H207:H224" si="64">$H$205</f>
+        <v>994.21</v>
+      </c>
+      <c r="I207" s="9">
+        <f t="shared" ref="I207:I224" si="65">$I$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="J207" s="9">
+        <f t="shared" ref="J207:J224" si="66">$J$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="K207" s="9"/>
+      <c r="L207" s="15">
+        <f t="shared" ref="L207:L224" si="67">$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M207" s="15">
+        <f>(1-L207)-((E207/100)*'Water column'!$B$26)</f>
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="N207" s="15">
+        <f>H207-(M207-L207)*98</f>
+        <v>915.02600000000007</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="A208" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C208" s="9">
+        <v>1115</v>
+      </c>
+      <c r="D208" s="9">
+        <v>525.79</v>
+      </c>
+      <c r="E208" s="9">
+        <v>70</v>
+      </c>
+      <c r="F208" s="9">
+        <v>525.76</v>
+      </c>
+      <c r="G208" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H208" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I208" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J208" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K208" s="9"/>
+      <c r="L208" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M208" s="15">
+        <f>(1-L208)-((E208/100)*'Water column'!$B$26)</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="N208" s="15">
+        <f t="shared" ref="N208:N222" si="68">H208-(M208-L208)*98</f>
+        <v>914.38900000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
+      <c r="A209" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C209" s="9">
+        <v>1115</v>
+      </c>
+      <c r="D209" s="9">
+        <v>521.54999999999995</v>
+      </c>
+      <c r="E209" s="9">
+        <v>65</v>
+      </c>
+      <c r="F209" s="9">
+        <v>521.49</v>
+      </c>
+      <c r="G209" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H209" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I209" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J209" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K209" s="9"/>
+      <c r="L209" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M209" s="15">
+        <f>(1-L209)-((E209/100)*'Water column'!$B$26)</f>
+        <v>0.88774999999999993</v>
+      </c>
+      <c r="N209" s="15">
+        <f t="shared" si="68"/>
+        <v>914.07050000000004</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
+      <c r="A210" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B210" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C210" s="9">
+        <v>1115</v>
+      </c>
+      <c r="D210" s="9">
+        <v>523.23</v>
+      </c>
+      <c r="E210" s="9">
+        <v>70</v>
+      </c>
+      <c r="F210" s="9">
+        <v>523.16999999999996</v>
+      </c>
+      <c r="G210" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H210" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I210" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J210" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K210" s="9"/>
+      <c r="L210" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M210" s="15">
+        <f>(1-L210)-((E210/100)*'Water column'!$B$26)</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="N210" s="15">
+        <f t="shared" si="68"/>
+        <v>914.38900000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
+      <c r="A211" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B211" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C211" s="9">
+        <v>1047</v>
+      </c>
+      <c r="D211" s="9">
+        <v>529.41999999999996</v>
+      </c>
+      <c r="E211" s="9">
+        <v>70</v>
+      </c>
+      <c r="F211" s="9">
+        <v>529.35</v>
+      </c>
+      <c r="G211" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H211" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I211" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J211" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K211" s="9"/>
+      <c r="L211" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M211" s="15">
+        <f>(1-L211)-((E211/100)*'Water column'!$B$26)</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="N211" s="15">
+        <f t="shared" si="68"/>
+        <v>914.38900000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="A212" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B212" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C212" s="9">
+        <v>1047</v>
+      </c>
+      <c r="D212" s="9">
+        <v>526.26</v>
+      </c>
+      <c r="E212" s="9">
+        <v>70</v>
+      </c>
+      <c r="F212" s="9">
+        <v>526.20000000000005</v>
+      </c>
+      <c r="G212" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H212" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I212" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J212" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K212" s="9"/>
+      <c r="L212" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M212" s="15">
+        <f>(1-L212)-((E212/100)*'Water column'!$B$26)</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="N212" s="15">
+        <f t="shared" si="68"/>
+        <v>914.38900000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B213" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C213" s="9">
+        <v>1047</v>
+      </c>
+      <c r="D213" s="9">
+        <v>524.94000000000005</v>
+      </c>
+      <c r="E213" s="9">
+        <v>70</v>
+      </c>
+      <c r="F213" s="9">
+        <v>524.87</v>
+      </c>
+      <c r="G213" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H213" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I213" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J213" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K213" s="9"/>
+      <c r="L213" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M213" s="15">
+        <f>(1-L213)-((E213/100)*'Water column'!$B$26)</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="N213" s="15">
+        <f t="shared" si="68"/>
+        <v>914.38900000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
+      <c r="A214" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B214" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C214" s="9">
+        <v>1035</v>
+      </c>
+      <c r="D214" s="9">
+        <v>535.84</v>
+      </c>
+      <c r="E214" s="9">
+        <v>250</v>
+      </c>
+      <c r="F214" s="9">
+        <v>535.62</v>
+      </c>
+      <c r="G214" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H214" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I214" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J214" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K214" s="9"/>
+      <c r="L214" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M214" s="15">
+        <f>(1-L214)-((E214/100)*'Water column'!$B$26)</f>
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="N214" s="15">
+        <f t="shared" si="68"/>
+        <v>925.85500000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B215" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C215" s="9">
+        <v>1035</v>
+      </c>
+      <c r="D215" s="9">
+        <v>530.15</v>
+      </c>
+      <c r="E215" s="9">
+        <v>85</v>
+      </c>
+      <c r="F215" s="9">
+        <v>530.05999999999995</v>
+      </c>
+      <c r="G215" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H215" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I215" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J215" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K215" s="9"/>
+      <c r="L215" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M215" s="15">
+        <f>(1-L215)-((E215/100)*'Water column'!$B$26)</f>
+        <v>0.87474999999999992</v>
+      </c>
+      <c r="N215" s="15">
+        <f t="shared" si="68"/>
+        <v>915.34450000000004</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="A216" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B216" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C216" s="9">
+        <v>1035</v>
+      </c>
+      <c r="D216" s="9">
+        <v>523.84</v>
+      </c>
+      <c r="E216" s="9">
+        <v>105</v>
+      </c>
+      <c r="F216" s="9">
+        <v>523.75</v>
+      </c>
+      <c r="G216" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H216" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I216" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J216" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K216" s="9"/>
+      <c r="L216" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M216" s="15">
+        <f>(1-L216)-((E216/100)*'Water column'!$B$26)</f>
+        <v>0.8617499999999999</v>
+      </c>
+      <c r="N216" s="15">
+        <f t="shared" si="68"/>
+        <v>916.61850000000004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B217" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C217" s="9">
+        <v>1041</v>
+      </c>
+      <c r="D217" s="9">
+        <v>519.38</v>
+      </c>
+      <c r="E217" s="9">
+        <v>40</v>
+      </c>
+      <c r="F217" s="9">
+        <v>519.34</v>
+      </c>
+      <c r="G217" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H217" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I217" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J217" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K217" s="9"/>
+      <c r="L217" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M217" s="15">
+        <f>(1-L217)-((E217/100)*'Water column'!$B$26)</f>
+        <v>0.90399999999999991</v>
+      </c>
+      <c r="N217" s="15">
+        <f t="shared" si="68"/>
+        <v>912.47800000000007</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
+      <c r="A218" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B218" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C218" s="9">
+        <v>1041</v>
+      </c>
+      <c r="D218" s="9">
+        <v>524.74</v>
+      </c>
+      <c r="E218" s="9">
+        <v>35</v>
+      </c>
+      <c r="F218" s="9">
+        <v>524.66999999999996</v>
+      </c>
+      <c r="G218" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H218" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I218" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J218" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K218" s="9"/>
+      <c r="L218" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M218" s="15">
+        <f>(1-L218)-((E218/100)*'Water column'!$B$26)</f>
+        <v>0.90724999999999989</v>
+      </c>
+      <c r="N218" s="15">
+        <f t="shared" si="68"/>
+        <v>912.15950000000009</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="A219" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B219" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C219" s="9">
+        <v>1041</v>
+      </c>
+      <c r="D219" s="9">
+        <v>523.07000000000005</v>
+      </c>
+      <c r="E219" s="9">
+        <v>40</v>
+      </c>
+      <c r="F219" s="9">
+        <v>523.04</v>
+      </c>
+      <c r="G219" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H219" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I219" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J219" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K219" s="9"/>
+      <c r="L219" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M219" s="15">
+        <f>(1-L219)-((E219/100)*'Water column'!$B$26)</f>
+        <v>0.90399999999999991</v>
+      </c>
+      <c r="N219" s="15">
+        <f t="shared" si="68"/>
+        <v>912.47800000000007</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B220" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C220" s="9">
+        <v>1051</v>
+      </c>
+      <c r="D220" s="9">
+        <v>522.46</v>
+      </c>
+      <c r="E220" s="9">
+        <v>40</v>
+      </c>
+      <c r="F220" s="9">
+        <v>522.41</v>
+      </c>
+      <c r="G220" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H220" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I220" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J220" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K220" s="9"/>
+      <c r="L220" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M220" s="15">
+        <f>(1-L220)-((E220/100)*'Water column'!$B$26)</f>
+        <v>0.90399999999999991</v>
+      </c>
+      <c r="N220" s="15">
+        <f t="shared" si="68"/>
+        <v>912.47800000000007</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B221" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C221" s="9">
+        <v>1051</v>
+      </c>
+      <c r="D221" s="9">
+        <v>522.01</v>
+      </c>
+      <c r="E221" s="9">
+        <v>35</v>
+      </c>
+      <c r="F221" s="9">
+        <v>521.96</v>
+      </c>
+      <c r="G221" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H221" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I221" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J221" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K221" s="9"/>
+      <c r="L221" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M221" s="15">
+        <f>(1-L221)-((E221/100)*'Water column'!$B$26)</f>
+        <v>0.90724999999999989</v>
+      </c>
+      <c r="N221" s="15">
+        <f t="shared" si="68"/>
+        <v>912.15950000000009</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="A222" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B222" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C222" s="9">
+        <v>1051</v>
+      </c>
+      <c r="D222" s="9">
+        <v>522.66</v>
+      </c>
+      <c r="E222" s="9">
+        <v>35</v>
+      </c>
+      <c r="F222" s="9">
+        <v>522.61</v>
+      </c>
+      <c r="G222" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H222" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I222" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J222" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K222" s="9"/>
+      <c r="L222" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M222" s="15">
+        <f>(1-L222)-((E222/100)*'Water column'!$B$26)</f>
+        <v>0.90724999999999989</v>
+      </c>
+      <c r="N222" s="15">
+        <f t="shared" si="68"/>
+        <v>912.15950000000009</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B223" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C223" s="19">
+        <v>1033</v>
+      </c>
+      <c r="D223" s="19">
+        <v>527.17999999999995</v>
+      </c>
+      <c r="E223" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F223" s="19">
+        <v>527.17999999999995</v>
+      </c>
+      <c r="G223" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H223" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I223" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J223" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K223" s="15"/>
+      <c r="L223" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M223" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N223" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B224" s="9">
+        <f t="shared" si="62"/>
+        <v>6112019</v>
+      </c>
+      <c r="C224" s="19">
+        <v>1033</v>
+      </c>
+      <c r="D224" s="19">
+        <v>528.07000000000005</v>
+      </c>
+      <c r="E224" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F224" s="19">
+        <v>528.09</v>
+      </c>
+      <c r="G224" s="9">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="H224" s="9">
+        <f t="shared" si="64"/>
+        <v>994.21</v>
+      </c>
+      <c r="I224" s="9">
+        <f t="shared" si="65"/>
+        <v>52.5</v>
+      </c>
+      <c r="J224" s="9">
+        <f t="shared" si="66"/>
+        <v>52.5</v>
+      </c>
+      <c r="K224" s="15"/>
+      <c r="L224" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M224" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N224" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10182,10 +13600,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10791,7 +14209,7 @@
         <v>0.31163999999999997</v>
       </c>
       <c r="E33" s="20">
-        <f t="shared" ref="E33:E50" si="7">C33/(C33+D33)</f>
+        <f t="shared" ref="E33:E56" si="7">C33/(C33+D33)</f>
         <v>0.54411269913252103</v>
       </c>
     </row>
@@ -11114,6 +14532,340 @@
       <c r="E50" s="20">
         <f t="shared" si="7"/>
         <v>0.56069221260815827</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="19">
+        <v>28102019</v>
+      </c>
+      <c r="C51" s="26">
+        <v>0.19503999999999999</v>
+      </c>
+      <c r="D51" s="35">
+        <v>0.17327000000000001</v>
+      </c>
+      <c r="E51" s="20">
+        <f t="shared" si="7"/>
+        <v>0.52955390839238681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="19">
+        <v>28102019</v>
+      </c>
+      <c r="C52" s="26">
+        <v>0.28276000000000001</v>
+      </c>
+      <c r="D52" s="20">
+        <v>0.20838000000000001</v>
+      </c>
+      <c r="E52" s="20">
+        <f t="shared" si="7"/>
+        <v>0.57572179012094316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="19">
+        <v>28102019</v>
+      </c>
+      <c r="C53" s="26">
+        <v>0.26345000000000002</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0.22495999999999999</v>
+      </c>
+      <c r="E53" s="20">
+        <f t="shared" si="7"/>
+        <v>0.5394033701193669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="19">
+        <v>28102019</v>
+      </c>
+      <c r="C54" s="26">
+        <v>0.66908999999999996</v>
+      </c>
+      <c r="D54" s="20">
+        <v>0.22381000000000001</v>
+      </c>
+      <c r="E54" s="20">
+        <f t="shared" si="7"/>
+        <v>0.74934483144809039</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="19">
+        <v>28102019</v>
+      </c>
+      <c r="C55" s="26">
+        <v>0.34277000000000002</v>
+      </c>
+      <c r="D55" s="26">
+        <v>0.16491</v>
+      </c>
+      <c r="E55" s="20">
+        <f t="shared" si="7"/>
+        <v>0.67516939804601328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="19">
+        <v>28102019</v>
+      </c>
+      <c r="C56" s="26">
+        <v>0.30496000000000001</v>
+      </c>
+      <c r="D56" s="20">
+        <v>0.21418999999999999</v>
+      </c>
+      <c r="E56" s="20">
+        <f t="shared" si="7"/>
+        <v>0.5874217470865839</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="19">
+        <v>1112019</v>
+      </c>
+      <c r="C57" s="26">
+        <v>0.47878999999999999</v>
+      </c>
+      <c r="D57" s="35">
+        <v>0.36071999999999999</v>
+      </c>
+      <c r="E57" s="20">
+        <f t="shared" ref="E57:E62" si="11">C57/(C57+D57)</f>
+        <v>0.57032078236113926</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="19">
+        <f>B57</f>
+        <v>1112019</v>
+      </c>
+      <c r="C58" s="26">
+        <v>0.51327</v>
+      </c>
+      <c r="D58" s="20">
+        <v>0.34181</v>
+      </c>
+      <c r="E58" s="20">
+        <f t="shared" si="11"/>
+        <v>0.60025962483042516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="19">
+        <f t="shared" ref="B59:B62" si="12">B58</f>
+        <v>1112019</v>
+      </c>
+      <c r="C59" s="26">
+        <v>0.49332999999999999</v>
+      </c>
+      <c r="D59" s="20">
+        <v>0.35588999999999998</v>
+      </c>
+      <c r="E59" s="20">
+        <f t="shared" si="11"/>
+        <v>0.58092131603118158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="19">
+        <f t="shared" si="12"/>
+        <v>1112019</v>
+      </c>
+      <c r="C60" s="26">
+        <v>0.69196999999999997</v>
+      </c>
+      <c r="D60" s="20">
+        <v>0.19699</v>
+      </c>
+      <c r="E60" s="20">
+        <f t="shared" si="11"/>
+        <v>0.77840397768178549</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="19">
+        <f t="shared" si="12"/>
+        <v>1112019</v>
+      </c>
+      <c r="C61" s="26">
+        <v>0.49958999999999998</v>
+      </c>
+      <c r="D61" s="26">
+        <v>0.35132000000000002</v>
+      </c>
+      <c r="E61" s="20">
+        <f t="shared" si="11"/>
+        <v>0.58712437273037099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="19">
+        <f t="shared" si="12"/>
+        <v>1112019</v>
+      </c>
+      <c r="C62" s="26">
+        <v>0.35188000000000003</v>
+      </c>
+      <c r="D62" s="35">
+        <v>0.22217000000000001</v>
+      </c>
+      <c r="E62" s="20">
+        <f t="shared" si="11"/>
+        <v>0.61297796359202161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="19">
+        <v>6112019</v>
+      </c>
+      <c r="C63" s="26">
+        <v>0.48110999999999998</v>
+      </c>
+      <c r="D63" s="35">
+        <v>0.38607999999999998</v>
+      </c>
+      <c r="E63" s="20">
+        <f t="shared" ref="E63:E68" si="13">C63/(C63+D63)</f>
+        <v>0.55479191411340079</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="19">
+        <f>B63</f>
+        <v>6112019</v>
+      </c>
+      <c r="C64" s="26">
+        <v>0.48370999999999997</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0.35733999999999999</v>
+      </c>
+      <c r="E64" s="20">
+        <f t="shared" si="13"/>
+        <v>0.57512633018250992</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="19">
+        <f t="shared" ref="B65:B68" si="14">B64</f>
+        <v>6112019</v>
+      </c>
+      <c r="C65" s="26">
+        <v>0.47478999999999999</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0.37398999999999999</v>
+      </c>
+      <c r="E65" s="20">
+        <f t="shared" si="13"/>
+        <v>0.55937934447088766</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="19">
+        <f t="shared" si="14"/>
+        <v>6112019</v>
+      </c>
+      <c r="C66" s="26">
+        <v>0.64842</v>
+      </c>
+      <c r="D66" s="20">
+        <v>0.24643000000000001</v>
+      </c>
+      <c r="E66" s="20">
+        <f t="shared" si="13"/>
+        <v>0.72461306364195111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="19">
+        <f t="shared" si="14"/>
+        <v>6112019</v>
+      </c>
+      <c r="C67" s="26">
+        <v>0.44042999999999999</v>
+      </c>
+      <c r="D67" s="26">
+        <v>0.30384</v>
+      </c>
+      <c r="E67" s="20">
+        <f t="shared" si="13"/>
+        <v>0.59176105445604421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="19">
+        <f t="shared" si="14"/>
+        <v>6112019</v>
+      </c>
+      <c r="C68" s="26">
+        <v>0.35486000000000001</v>
+      </c>
+      <c r="D68" s="35">
+        <v>0.24462999999999999</v>
+      </c>
+      <c r="E68" s="20">
+        <f t="shared" si="13"/>
+        <v>0.59193647934077309</v>
       </c>
     </row>
   </sheetData>
@@ -11947,15 +15699,15 @@
         <v>199.62000000000006</v>
       </c>
       <c r="K5" s="20">
-        <f>I5*0.107</f>
+        <f t="shared" ref="K5:K10" si="0">I5*0.107</f>
         <v>0.95978999999999681</v>
       </c>
       <c r="L5" s="20">
-        <f>J5*0.026</f>
+        <f t="shared" ref="L5:L13" si="1">J5*0.026</f>
         <v>5.1901200000000012</v>
       </c>
       <c r="M5" s="21">
-        <f t="shared" ref="M5:M7" si="0">L5/K5</f>
+        <f t="shared" ref="M5:M7" si="2">L5/K5</f>
         <v>5.4075579032913641</v>
       </c>
       <c r="N5" s="9">
@@ -11997,38 +15749,38 @@
         <v>538.72</v>
       </c>
       <c r="H6" s="20">
-        <f t="shared" ref="H6:H13" si="1">G6</f>
+        <f t="shared" ref="H6:H13" si="3">G6</f>
         <v>538.72</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" ref="I6:J13" si="2">F6-E6</f>
+        <f t="shared" ref="I6:J13" si="4">F6-E6</f>
         <v>9.4200000000000159</v>
       </c>
       <c r="J6" s="20">
+        <f t="shared" si="4"/>
+        <v>202.84000000000003</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="0"/>
+        <v>1.0079400000000016</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="1"/>
+        <v>5.2738400000000007</v>
+      </c>
+      <c r="M6" s="21">
         <f t="shared" si="2"/>
-        <v>202.84000000000003</v>
-      </c>
-      <c r="K6" s="20">
-        <f>I6*0.107</f>
-        <v>1.0079400000000016</v>
-      </c>
-      <c r="L6" s="20">
-        <f>J6*0.026</f>
-        <v>5.2738400000000007</v>
-      </c>
-      <c r="M6" s="21">
-        <f t="shared" si="0"/>
         <v>5.2322955731491874</v>
       </c>
       <c r="N6" s="9">
         <v>300</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6:O13" si="3">$O$5</f>
+        <f t="shared" ref="O6:O13" si="5">$O$5</f>
         <v>18</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" ref="P6:P13" si="4">$P$5</f>
+        <f t="shared" ref="P6:P13" si="6">$P$5</f>
         <v>1002.15</v>
       </c>
       <c r="Q6" s="9">
@@ -12046,7 +15798,7 @@
         <v>14102019</v>
       </c>
       <c r="C7" s="9">
-        <f t="shared" ref="C7:C13" si="5">$C$5</f>
+        <f t="shared" ref="C7:C13" si="7">$C$5</f>
         <v>1315</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -12062,42 +15814,42 @@
         <v>533.87</v>
       </c>
       <c r="H7" s="20">
+        <f t="shared" si="3"/>
+        <v>533.87</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="4"/>
+        <v>9.2099999999999795</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="4"/>
+        <v>199.44</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.98546999999999774</v>
+      </c>
+      <c r="L7" s="20">
         <f t="shared" si="1"/>
-        <v>533.87</v>
-      </c>
-      <c r="I7" s="20">
+        <v>5.1854399999999998</v>
+      </c>
+      <c r="M7" s="21">
         <f t="shared" si="2"/>
-        <v>9.2099999999999795</v>
-      </c>
-      <c r="J7" s="20">
-        <f t="shared" si="2"/>
-        <v>199.44</v>
-      </c>
-      <c r="K7" s="20">
-        <f>I7*0.107</f>
-        <v>0.98546999999999774</v>
-      </c>
-      <c r="L7" s="20">
-        <f>J7*0.026</f>
-        <v>5.1854399999999998</v>
-      </c>
-      <c r="M7" s="21">
-        <f t="shared" si="0"/>
         <v>5.2618953392797465</v>
       </c>
       <c r="N7" s="9">
         <v>300</v>
       </c>
       <c r="O7" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="P7" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1002.15</v>
       </c>
       <c r="Q7" s="9">
-        <f t="shared" ref="Q7:Q13" si="6">$Q$5</f>
+        <f t="shared" ref="Q7:Q13" si="8">$Q$5</f>
         <v>52.5</v>
       </c>
       <c r="R7" s="9"/>
@@ -12107,11 +15859,11 @@
         <v>85</v>
       </c>
       <c r="B8" s="9">
-        <f t="shared" ref="B8:B13" si="7">$B$6</f>
+        <f t="shared" ref="B8:B13" si="9">$B$6</f>
         <v>14102019</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1315</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -12127,23 +15879,23 @@
         <v>528.66999999999996</v>
       </c>
       <c r="H8" s="20">
+        <f t="shared" si="3"/>
+        <v>528.66999999999996</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="4"/>
+        <v>4.9300000000000068</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="4"/>
+        <v>202.61999999999995</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5275100000000007</v>
+      </c>
+      <c r="L8" s="20">
         <f t="shared" si="1"/>
-        <v>528.66999999999996</v>
-      </c>
-      <c r="I8" s="20">
-        <f t="shared" si="2"/>
-        <v>4.9300000000000068</v>
-      </c>
-      <c r="J8" s="20">
-        <f t="shared" si="2"/>
-        <v>202.61999999999995</v>
-      </c>
-      <c r="K8" s="20">
-        <f>I8*0.107</f>
-        <v>0.5275100000000007</v>
-      </c>
-      <c r="L8" s="20">
-        <f>J8*0.026</f>
         <v>5.2681199999999988</v>
       </c>
       <c r="M8" s="21">
@@ -12154,15 +15906,15 @@
         <v>300</v>
       </c>
       <c r="O8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="P8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1002.15</v>
       </c>
       <c r="Q8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="R8" s="9"/>
@@ -12172,11 +15924,11 @@
         <v>86</v>
       </c>
       <c r="B9" s="9">
+        <f t="shared" si="9"/>
+        <v>14102019</v>
+      </c>
+      <c r="C9" s="9">
         <f t="shared" si="7"/>
-        <v>14102019</v>
-      </c>
-      <c r="C9" s="9">
-        <f t="shared" si="5"/>
         <v>1315</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -12192,42 +15944,42 @@
         <v>526.19000000000005</v>
       </c>
       <c r="H9" s="20">
+        <f t="shared" si="3"/>
+        <v>526.19000000000005</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="4"/>
+        <v>4.5699999999999932</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="4"/>
+        <v>200.10000000000008</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" si="0"/>
+        <v>0.48898999999999926</v>
+      </c>
+      <c r="L9" s="20">
         <f t="shared" si="1"/>
-        <v>526.19000000000005</v>
-      </c>
-      <c r="I9" s="20">
-        <f t="shared" si="2"/>
-        <v>4.5699999999999932</v>
-      </c>
-      <c r="J9" s="20">
-        <f t="shared" si="2"/>
-        <v>200.10000000000008</v>
-      </c>
-      <c r="K9" s="20">
-        <f>I9*0.107</f>
-        <v>0.48898999999999926</v>
-      </c>
-      <c r="L9" s="20">
-        <f>J9*0.026</f>
         <v>5.2026000000000021</v>
       </c>
       <c r="M9" s="21">
-        <f t="shared" ref="M9:M13" si="8">L9/K9</f>
+        <f t="shared" ref="M9:M13" si="10">L9/K9</f>
         <v>10.639481379987341</v>
       </c>
       <c r="N9" s="9">
         <v>300</v>
       </c>
       <c r="O9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1002.15</v>
       </c>
       <c r="Q9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="R9" s="9"/>
@@ -12237,11 +15989,11 @@
         <v>87</v>
       </c>
       <c r="B10" s="9">
+        <f t="shared" si="9"/>
+        <v>14102019</v>
+      </c>
+      <c r="C10" s="9">
         <f t="shared" si="7"/>
-        <v>14102019</v>
-      </c>
-      <c r="C10" s="9">
-        <f t="shared" si="5"/>
         <v>1315</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -12257,42 +16009,42 @@
         <v>531.69000000000005</v>
       </c>
       <c r="H10" s="20">
+        <f t="shared" si="3"/>
+        <v>531.69000000000005</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="4"/>
+        <v>5.0799999999999841</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="4"/>
+        <v>200.07000000000005</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="0"/>
+        <v>0.54355999999999827</v>
+      </c>
+      <c r="L10" s="20">
         <f t="shared" si="1"/>
-        <v>531.69000000000005</v>
-      </c>
-      <c r="I10" s="20">
-        <f t="shared" si="2"/>
-        <v>5.0799999999999841</v>
-      </c>
-      <c r="J10" s="20">
-        <f t="shared" si="2"/>
-        <v>200.07000000000005</v>
-      </c>
-      <c r="K10" s="20">
-        <f>I10*0.107</f>
-        <v>0.54355999999999827</v>
-      </c>
-      <c r="L10" s="20">
-        <f>J10*0.026</f>
         <v>5.2018200000000014</v>
       </c>
       <c r="M10" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.5699094856133975</v>
       </c>
       <c r="N10" s="9">
         <v>300</v>
       </c>
       <c r="O10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="P10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1002.15</v>
       </c>
       <c r="Q10" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="R10" s="9"/>
@@ -12302,11 +16054,11 @@
         <v>35</v>
       </c>
       <c r="B11" s="9">
+        <f t="shared" si="9"/>
+        <v>14102019</v>
+      </c>
+      <c r="C11" s="9">
         <f t="shared" si="7"/>
-        <v>14102019</v>
-      </c>
-      <c r="C11" s="9">
-        <f t="shared" si="5"/>
         <v>1315</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -12323,15 +16075,15 @@
         <v>528.76</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>528.76</v>
       </c>
       <c r="I11" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J11" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>204.03999999999996</v>
       </c>
       <c r="K11" s="20">
@@ -12339,26 +16091,26 @@
         <v>0</v>
       </c>
       <c r="L11" s="20">
-        <f>J11*0.026</f>
+        <f t="shared" si="1"/>
         <v>5.3050399999999991</v>
       </c>
       <c r="M11" s="21" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="9">
         <v>300</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1002.15</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="R11" s="9"/>
@@ -12368,11 +16120,11 @@
         <v>36</v>
       </c>
       <c r="B12" s="9">
+        <f t="shared" si="9"/>
+        <v>14102019</v>
+      </c>
+      <c r="C12" s="9">
         <f t="shared" si="7"/>
-        <v>14102019</v>
-      </c>
-      <c r="C12" s="9">
-        <f t="shared" si="5"/>
         <v>1315</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -12382,49 +16134,49 @@
         <v>321.07</v>
       </c>
       <c r="F12" s="19">
-        <f t="shared" ref="F12:F13" si="9">E12</f>
+        <f t="shared" ref="F12:F13" si="11">E12</f>
         <v>321.07</v>
       </c>
       <c r="G12" s="19">
         <v>530.33000000000004</v>
       </c>
       <c r="H12" s="20">
+        <f t="shared" si="3"/>
+        <v>530.33000000000004</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="4"/>
+        <v>209.26000000000005</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" ref="K12:K13" si="12">I12*0.774</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="20">
         <f t="shared" si="1"/>
-        <v>530.33000000000004</v>
-      </c>
-      <c r="I12" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
-        <f t="shared" si="2"/>
-        <v>209.26000000000005</v>
-      </c>
-      <c r="K12" s="20">
-        <f t="shared" ref="K12:K13" si="10">I12*0.774</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="20">
-        <f>J12*0.026</f>
         <v>5.4407600000000009</v>
       </c>
       <c r="M12" s="21" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="9">
         <v>300</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1002.15</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="R12" s="9"/>
@@ -12434,11 +16186,11 @@
         <v>37</v>
       </c>
       <c r="B13" s="9">
+        <f t="shared" si="9"/>
+        <v>14102019</v>
+      </c>
+      <c r="C13" s="9">
         <f t="shared" si="7"/>
-        <v>14102019</v>
-      </c>
-      <c r="C13" s="9">
-        <f t="shared" si="5"/>
         <v>1315</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -12448,49 +16200,49 @@
         <v>326.20999999999998</v>
       </c>
       <c r="F13" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>326.20999999999998</v>
       </c>
       <c r="G13" s="19">
         <v>527.35</v>
       </c>
       <c r="H13" s="20">
+        <f t="shared" si="3"/>
+        <v>527.35</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="4"/>
+        <v>201.14000000000004</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
         <f t="shared" si="1"/>
-        <v>527.35</v>
-      </c>
-      <c r="I13" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="20">
-        <f t="shared" si="2"/>
-        <v>201.14000000000004</v>
-      </c>
-      <c r="K13" s="20">
+        <v>5.2296400000000007</v>
+      </c>
+      <c r="M13" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="20">
-        <f>J13*0.026</f>
-        <v>5.2296400000000007</v>
-      </c>
-      <c r="M13" s="21" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N13" s="9">
         <v>300</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1002.15</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="R13" s="9"/>
@@ -12513,10 +16265,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12823,7 +16575,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="N8" s="15">
-        <f t="shared" ref="N8:N15" si="7">H8-(M8-L8)*98</f>
+        <f t="shared" ref="N8:N13" si="7">H8-(M8-L8)*98</f>
         <v>938.404</v>
       </c>
     </row>
@@ -13363,7 +17115,7 @@
         <v>0.7024999999999999</v>
       </c>
       <c r="N19" s="15">
-        <f t="shared" ref="N19:N26" si="15">H19-(M19-L19)*98</f>
+        <f t="shared" ref="N19:N24" si="15">H19-(M19-L19)*98</f>
         <v>934.20500000000004</v>
       </c>
     </row>
@@ -13739,11 +17491,11 @@
         <v>1012.04</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" ref="I27:I48" si="16">$I$5</f>
+        <f t="shared" ref="I27:I81" si="16">$I$5</f>
         <v>52.5</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" ref="J27:J48" si="17">$J$5</f>
+        <f t="shared" ref="J27:J81" si="17">$J$5</f>
         <v>52.5</v>
       </c>
       <c r="K27" s="9"/>
@@ -13878,11 +17630,11 @@
         <v>527.33000000000004</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" ref="G30:G37" si="21">$G$27</f>
+        <f t="shared" ref="G30" si="21">$G$27</f>
         <v>17</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" ref="H30:H37" si="22">$H$27</f>
+        <f t="shared" ref="H30" si="22">$H$27</f>
         <v>1012.04</v>
       </c>
       <c r="I30" s="9">
@@ -13903,7 +17655,7 @@
         <v>0.66024999999999989</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" ref="N30:N37" si="23">H30-(M30-L30)*98</f>
+        <f t="shared" ref="N30:N35" si="23">H30-(M30-L30)*98</f>
         <v>954.19549999999992</v>
       </c>
     </row>
@@ -13976,11 +17728,11 @@
         <v>530.36</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" ref="G32:G37" si="24">$G$27</f>
+        <f t="shared" ref="G32" si="24">$G$27</f>
         <v>17</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" ref="H32:H37" si="25">$H$27</f>
+        <f t="shared" ref="H32" si="25">$H$27</f>
         <v>1012.04</v>
       </c>
       <c r="I32" s="9">
@@ -14074,11 +17826,11 @@
         <v>528.99</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" ref="G34:G37" si="26">$G$27</f>
+        <f t="shared" ref="G34" si="26">$G$27</f>
         <v>17</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" ref="H34:H37" si="27">$H$27</f>
+        <f t="shared" ref="H34" si="27">$H$27</f>
         <v>1012.04</v>
       </c>
       <c r="I34" s="9">
@@ -14172,11 +17924,11 @@
         <v>527.19000000000005</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" ref="G36:G37" si="28">$G$27</f>
+        <f t="shared" ref="G36" si="28">$G$27</f>
         <v>17</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" ref="H36:H37" si="29">$H$27</f>
+        <f t="shared" ref="H36" si="29">$H$27</f>
         <v>1012.04</v>
       </c>
       <c r="I36" s="9">
@@ -14439,7 +18191,7 @@
         <v>0.81299999999999994</v>
       </c>
       <c r="N41" s="15">
-        <f t="shared" ref="N41:N48" si="35">H41-(M41-L41)*98</f>
+        <f t="shared" ref="N41:N46" si="35">H41-(M41-L41)*98</f>
         <v>941.78600000000006</v>
       </c>
     </row>
@@ -14784,6 +18536,1629 @@
         <v>18</v>
       </c>
       <c r="N48" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="9">
+        <v>28102019</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1127</v>
+      </c>
+      <c r="D49" s="9">
+        <v>532.96</v>
+      </c>
+      <c r="E49" s="9">
+        <v>355</v>
+      </c>
+      <c r="F49" s="9">
+        <v>532.54</v>
+      </c>
+      <c r="G49" s="9">
+        <v>17</v>
+      </c>
+      <c r="H49" s="9">
+        <v>1009.31</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M49" s="15">
+        <f>(1-L49)-((E49/100)*'Water column'!$B$26)</f>
+        <v>0.69924999999999993</v>
+      </c>
+      <c r="N49" s="15">
+        <f t="shared" ref="N49:N50" si="36">H49-(M49-L49)*98</f>
+        <v>947.6434999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="9">
+        <f>$B$49</f>
+        <v>28102019</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1127</v>
+      </c>
+      <c r="D50" s="9">
+        <v>537.59</v>
+      </c>
+      <c r="E50" s="9">
+        <v>335</v>
+      </c>
+      <c r="F50" s="9">
+        <v>537.24</v>
+      </c>
+      <c r="G50" s="9">
+        <f>$G$49</f>
+        <v>17</v>
+      </c>
+      <c r="H50" s="9">
+        <f>$H$49</f>
+        <v>1009.31</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="15">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M50" s="15">
+        <f>(1-L50)-((E50/100)*'Water column'!$B$26)</f>
+        <v>0.71224999999999994</v>
+      </c>
+      <c r="N50" s="15">
+        <f t="shared" si="36"/>
+        <v>946.3694999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="9">
+        <f t="shared" ref="B51:B59" si="37">$B$49</f>
+        <v>28102019</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1127</v>
+      </c>
+      <c r="D51" s="9">
+        <v>532.80999999999995</v>
+      </c>
+      <c r="E51" s="9">
+        <v>410</v>
+      </c>
+      <c r="F51" s="9">
+        <v>532.36</v>
+      </c>
+      <c r="G51" s="9">
+        <f t="shared" ref="G51:G59" si="38">$G$49</f>
+        <v>17</v>
+      </c>
+      <c r="H51" s="9">
+        <f t="shared" ref="H51:H59" si="39">$H$49</f>
+        <v>1009.31</v>
+      </c>
+      <c r="I51" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="15">
+        <f t="shared" ref="L51:L57" si="40">$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M51" s="15">
+        <f>(1-L51)-((E51/100)*'Water column'!$B$26)</f>
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="N51" s="15">
+        <f>H51-(M51-L51)*98</f>
+        <v>951.14699999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="9">
+        <f t="shared" si="37"/>
+        <v>28102019</v>
+      </c>
+      <c r="C52" s="9">
+        <v>1135</v>
+      </c>
+      <c r="D52" s="9">
+        <v>527.14</v>
+      </c>
+      <c r="E52" s="9">
+        <v>340</v>
+      </c>
+      <c r="F52" s="9">
+        <v>526.76</v>
+      </c>
+      <c r="G52" s="9">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="H52" s="9">
+        <f t="shared" si="39"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I52" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="15">
+        <f t="shared" si="40"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M52" s="15">
+        <f>(1-L52)-((E52/100)*'Water column'!$B$26)</f>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="N52" s="15">
+        <f t="shared" ref="N52:N57" si="41">H52-(M52-L52)*98</f>
+        <v>946.68799999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="9">
+        <f t="shared" si="37"/>
+        <v>28102019</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1135</v>
+      </c>
+      <c r="D53" s="9">
+        <v>524.54</v>
+      </c>
+      <c r="E53" s="9">
+        <v>270</v>
+      </c>
+      <c r="F53" s="9">
+        <v>524.29999999999995</v>
+      </c>
+      <c r="G53" s="9">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="H53" s="9">
+        <f t="shared" si="39"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I53" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J53" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="15">
+        <f t="shared" si="40"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M53" s="15">
+        <f>(1-L53)-((E53/100)*'Water column'!$B$26)</f>
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="N53" s="15">
+        <f t="shared" si="41"/>
+        <v>942.22899999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="9">
+        <f t="shared" si="37"/>
+        <v>28102019</v>
+      </c>
+      <c r="C54" s="9">
+        <v>1135</v>
+      </c>
+      <c r="D54" s="9">
+        <v>530.14</v>
+      </c>
+      <c r="E54" s="9">
+        <v>345</v>
+      </c>
+      <c r="F54" s="9">
+        <v>529.79999999999995</v>
+      </c>
+      <c r="G54" s="9">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="H54" s="9">
+        <f t="shared" si="39"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I54" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J54" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="15">
+        <f t="shared" si="40"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M54" s="15">
+        <f>(1-L54)-((E54/100)*'Water column'!$B$26)</f>
+        <v>0.70574999999999988</v>
+      </c>
+      <c r="N54" s="15">
+        <f t="shared" si="41"/>
+        <v>947.00649999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="9">
+        <f t="shared" si="37"/>
+        <v>28102019</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1145</v>
+      </c>
+      <c r="D55" s="9">
+        <v>525.84</v>
+      </c>
+      <c r="E55" s="9">
+        <v>170</v>
+      </c>
+      <c r="F55" s="9">
+        <v>525.63</v>
+      </c>
+      <c r="G55" s="9">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="H55" s="9">
+        <f t="shared" si="39"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I55" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J55" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="15">
+        <f t="shared" si="40"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M55" s="15">
+        <f>(1-L55)-((E55/100)*'Water column'!$B$26)</f>
+        <v>0.8194999999999999</v>
+      </c>
+      <c r="N55" s="15">
+        <f t="shared" si="41"/>
+        <v>935.85899999999992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="9">
+        <f t="shared" si="37"/>
+        <v>28102019</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1145</v>
+      </c>
+      <c r="D56" s="9">
+        <v>528.77</v>
+      </c>
+      <c r="E56" s="9">
+        <v>230</v>
+      </c>
+      <c r="F56" s="9">
+        <v>528.51</v>
+      </c>
+      <c r="G56" s="9">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="H56" s="9">
+        <f t="shared" si="39"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I56" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J56" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="15">
+        <f t="shared" si="40"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M56" s="15">
+        <f>(1-L56)-((E56/100)*'Water column'!$B$26)</f>
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="N56" s="15">
+        <f t="shared" si="41"/>
+        <v>939.68099999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="9">
+        <f t="shared" si="37"/>
+        <v>28102019</v>
+      </c>
+      <c r="C57" s="9">
+        <v>1145</v>
+      </c>
+      <c r="D57" s="9">
+        <v>527.21</v>
+      </c>
+      <c r="E57" s="9">
+        <v>210</v>
+      </c>
+      <c r="F57" s="9">
+        <v>526.99</v>
+      </c>
+      <c r="G57" s="9">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="H57" s="9">
+        <f t="shared" si="39"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I57" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J57" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="15">
+        <f t="shared" si="40"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M57" s="15">
+        <f>(1-L57)-((E57/100)*'Water column'!$B$26)</f>
+        <v>0.79349999999999987</v>
+      </c>
+      <c r="N57" s="15">
+        <f t="shared" si="41"/>
+        <v>938.40699999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="9">
+        <f t="shared" si="37"/>
+        <v>28102019</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1100</v>
+      </c>
+      <c r="D58" s="9">
+        <v>527.16999999999996</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="9">
+        <v>527.20000000000005</v>
+      </c>
+      <c r="G58" s="9">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="H58" s="9">
+        <f t="shared" si="39"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I58" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J58" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="15">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="9">
+        <f t="shared" si="37"/>
+        <v>28102019</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1100</v>
+      </c>
+      <c r="D59" s="9">
+        <v>528.07000000000005</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="9">
+        <v>528.09</v>
+      </c>
+      <c r="G59" s="9">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="H59" s="9">
+        <f t="shared" si="39"/>
+        <v>1009.31</v>
+      </c>
+      <c r="I59" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="15">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="9">
+        <f t="shared" ref="B60:B67" si="42">$B$69</f>
+        <v>1112019</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1410</v>
+      </c>
+      <c r="D60" s="9">
+        <v>532.53</v>
+      </c>
+      <c r="E60" s="9">
+        <v>420</v>
+      </c>
+      <c r="F60" s="9">
+        <v>532.1</v>
+      </c>
+      <c r="G60" s="9">
+        <f t="shared" ref="G60:G67" si="43">$G$69</f>
+        <v>16</v>
+      </c>
+      <c r="H60" s="9">
+        <f t="shared" ref="H60:H67" si="44">$H$69</f>
+        <v>1004.12</v>
+      </c>
+      <c r="I60" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M60" s="15">
+        <f>(1-L60)-((E60/100)*'Water column'!$B$26)</f>
+        <v>0.65699999999999992</v>
+      </c>
+      <c r="N60" s="15">
+        <f t="shared" ref="N60:N61" si="45">H60-(M60-L60)*98</f>
+        <v>946.59400000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="9">
+        <f t="shared" si="42"/>
+        <v>1112019</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1410</v>
+      </c>
+      <c r="D61" s="9">
+        <v>537.01</v>
+      </c>
+      <c r="E61" s="9">
+        <v>275</v>
+      </c>
+      <c r="F61" s="9">
+        <v>536.73</v>
+      </c>
+      <c r="G61" s="9">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="H61" s="9">
+        <f t="shared" si="44"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I61" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J61" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K61" s="9"/>
+      <c r="L61" s="15">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M61" s="15">
+        <f>(1-L61)-((E61/100)*'Water column'!$B$26)</f>
+        <v>0.75124999999999997</v>
+      </c>
+      <c r="N61" s="15">
+        <f t="shared" si="45"/>
+        <v>937.35750000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="9">
+        <f t="shared" si="42"/>
+        <v>1112019</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1410</v>
+      </c>
+      <c r="D62" s="9">
+        <v>532.30999999999995</v>
+      </c>
+      <c r="E62" s="9">
+        <v>440</v>
+      </c>
+      <c r="F62" s="9">
+        <v>531.87</v>
+      </c>
+      <c r="G62" s="9">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="H62" s="9">
+        <f t="shared" si="44"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I62" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J62" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="15">
+        <f t="shared" ref="L62:L70" si="46">$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M62" s="15">
+        <f>(1-L62)-((E62/100)*'Water column'!$B$26)</f>
+        <v>0.64399999999999991</v>
+      </c>
+      <c r="N62" s="15">
+        <f>H62-(M62-L62)*98</f>
+        <v>947.86800000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="9">
+        <f t="shared" si="42"/>
+        <v>1112019</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1355</v>
+      </c>
+      <c r="D63" s="9">
+        <v>526.75</v>
+      </c>
+      <c r="E63" s="9">
+        <v>200</v>
+      </c>
+      <c r="F63" s="9">
+        <v>526.54</v>
+      </c>
+      <c r="G63" s="9">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="H63" s="9">
+        <f t="shared" si="44"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I63" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J63" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="15">
+        <f t="shared" si="46"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M63" s="15">
+        <f>(1-L63)-((E63/100)*'Water column'!$B$26)</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="N63" s="15">
+        <f t="shared" ref="N63:N68" si="47">H63-(M63-L63)*98</f>
+        <v>932.58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="9">
+        <f t="shared" si="42"/>
+        <v>1112019</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1355</v>
+      </c>
+      <c r="D64" s="9">
+        <v>524.12</v>
+      </c>
+      <c r="E64" s="9">
+        <v>85</v>
+      </c>
+      <c r="F64" s="9">
+        <v>524.04</v>
+      </c>
+      <c r="G64" s="9">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="H64" s="9">
+        <f t="shared" si="44"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I64" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J64" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="15">
+        <f t="shared" si="46"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M64" s="15">
+        <f>(1-L64)-((E64/100)*'Water column'!$B$26)</f>
+        <v>0.87474999999999992</v>
+      </c>
+      <c r="N64" s="15">
+        <f t="shared" si="47"/>
+        <v>925.25450000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="9">
+        <f t="shared" si="42"/>
+        <v>1112019</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1355</v>
+      </c>
+      <c r="D65" s="9">
+        <v>529.79999999999995</v>
+      </c>
+      <c r="E65" s="9">
+        <v>210</v>
+      </c>
+      <c r="F65" s="9">
+        <v>529.58000000000004</v>
+      </c>
+      <c r="G65" s="9">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="H65" s="9">
+        <f t="shared" si="44"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I65" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J65" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="15">
+        <f t="shared" si="46"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M65" s="15">
+        <f>(1-L65)-((E65/100)*'Water column'!$B$26)</f>
+        <v>0.79349999999999987</v>
+      </c>
+      <c r="N65" s="15">
+        <f t="shared" si="47"/>
+        <v>933.21699999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="9">
+        <f t="shared" si="42"/>
+        <v>1112019</v>
+      </c>
+      <c r="C66" s="9">
+        <v>1401</v>
+      </c>
+      <c r="D66" s="9">
+        <v>525.59</v>
+      </c>
+      <c r="E66" s="9">
+        <v>165</v>
+      </c>
+      <c r="F66" s="9">
+        <v>525.41999999999996</v>
+      </c>
+      <c r="G66" s="9">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="H66" s="9">
+        <f t="shared" si="44"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I66" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J66" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K66" s="9"/>
+      <c r="L66" s="15">
+        <f t="shared" si="46"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M66" s="15">
+        <f>(1-L66)-((E66/100)*'Water column'!$B$26)</f>
+        <v>0.82274999999999998</v>
+      </c>
+      <c r="N66" s="15">
+        <f t="shared" si="47"/>
+        <v>930.35050000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="9">
+        <f t="shared" si="42"/>
+        <v>1112019</v>
+      </c>
+      <c r="C67" s="9">
+        <v>1401</v>
+      </c>
+      <c r="D67" s="9">
+        <v>528.5</v>
+      </c>
+      <c r="E67" s="9">
+        <v>180</v>
+      </c>
+      <c r="F67" s="9">
+        <v>528.29999999999995</v>
+      </c>
+      <c r="G67" s="9">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="H67" s="9">
+        <f t="shared" si="44"/>
+        <v>1004.12</v>
+      </c>
+      <c r="I67" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J67" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K67" s="9"/>
+      <c r="L67" s="15">
+        <f t="shared" si="46"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M67" s="15">
+        <f>(1-L67)-((E67/100)*'Water column'!$B$26)</f>
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="N67" s="15">
+        <f t="shared" si="47"/>
+        <v>931.30600000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="9">
+        <f>$B$69</f>
+        <v>1112019</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1401</v>
+      </c>
+      <c r="D68" s="9">
+        <v>526.97</v>
+      </c>
+      <c r="E68" s="9">
+        <v>165</v>
+      </c>
+      <c r="F68" s="9">
+        <v>526.79999999999995</v>
+      </c>
+      <c r="G68" s="9">
+        <f>$G$69</f>
+        <v>16</v>
+      </c>
+      <c r="H68" s="9">
+        <f>$H$69</f>
+        <v>1004.12</v>
+      </c>
+      <c r="I68" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J68" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K68" s="9"/>
+      <c r="L68" s="15">
+        <f t="shared" si="46"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M68" s="15">
+        <f>(1-L68)-((E68/100)*'Water column'!$B$26)</f>
+        <v>0.82274999999999998</v>
+      </c>
+      <c r="N68" s="15">
+        <f t="shared" si="47"/>
+        <v>930.35050000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="9">
+        <v>1112019</v>
+      </c>
+      <c r="C69" s="19">
+        <v>1350</v>
+      </c>
+      <c r="D69" s="19">
+        <v>527.17999999999995</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="19">
+        <v>527.19000000000005</v>
+      </c>
+      <c r="G69" s="9">
+        <v>16</v>
+      </c>
+      <c r="H69" s="9">
+        <v>1004.12</v>
+      </c>
+      <c r="I69" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J69" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15">
+        <f t="shared" si="46"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="9">
+        <v>1112019</v>
+      </c>
+      <c r="C70" s="19">
+        <v>1350</v>
+      </c>
+      <c r="D70" s="19">
+        <v>528.08000000000004</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="19">
+        <v>528.08000000000004</v>
+      </c>
+      <c r="G70" s="9">
+        <v>16</v>
+      </c>
+      <c r="H70" s="9">
+        <v>1004.12</v>
+      </c>
+      <c r="I70" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J70" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15">
+        <f t="shared" si="46"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M70" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="9">
+        <v>6112019</v>
+      </c>
+      <c r="C71" s="9">
+        <v>1056</v>
+      </c>
+      <c r="D71" s="9">
+        <v>532.04</v>
+      </c>
+      <c r="E71" s="9">
+        <v>270</v>
+      </c>
+      <c r="F71" s="9">
+        <v>531.74</v>
+      </c>
+      <c r="G71" s="9">
+        <v>14</v>
+      </c>
+      <c r="H71" s="9">
+        <v>994.21</v>
+      </c>
+      <c r="I71" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J71" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M71" s="15">
+        <f>(1-L71)-((E71/100)*'Water column'!$B$26)</f>
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="N71" s="15">
+        <f t="shared" ref="N71:N72" si="48">H71-(M71-L71)*98</f>
+        <v>927.12900000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="9">
+        <f>$B$71</f>
+        <v>6112019</v>
+      </c>
+      <c r="C72" s="9">
+        <v>1056</v>
+      </c>
+      <c r="D72" s="9">
+        <v>536.54999999999995</v>
+      </c>
+      <c r="E72" s="9">
+        <v>130</v>
+      </c>
+      <c r="F72" s="9">
+        <v>536.39</v>
+      </c>
+      <c r="G72" s="9">
+        <f>$G$71</f>
+        <v>14</v>
+      </c>
+      <c r="H72" s="9">
+        <f>$H$71</f>
+        <v>994.21</v>
+      </c>
+      <c r="I72" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J72" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="15">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M72" s="15">
+        <f>(1-L72)-((E72/100)*'Water column'!$B$26)</f>
+        <v>0.84549999999999992</v>
+      </c>
+      <c r="N72" s="15">
+        <f t="shared" si="48"/>
+        <v>918.21100000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="9">
+        <f t="shared" ref="B73:B81" si="49">$B$71</f>
+        <v>6112019</v>
+      </c>
+      <c r="C73" s="9">
+        <v>1056</v>
+      </c>
+      <c r="D73" s="9">
+        <v>531.82000000000005</v>
+      </c>
+      <c r="E73" s="9">
+        <v>290</v>
+      </c>
+      <c r="F73" s="9">
+        <v>531.5</v>
+      </c>
+      <c r="G73" s="9">
+        <f t="shared" ref="G73:G81" si="50">$G$71</f>
+        <v>14</v>
+      </c>
+      <c r="H73" s="9">
+        <f t="shared" ref="H73:H81" si="51">$H$71</f>
+        <v>994.21</v>
+      </c>
+      <c r="I73" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J73" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K73" s="9"/>
+      <c r="L73" s="15">
+        <f t="shared" ref="L73:L81" si="52">$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M73" s="15">
+        <f>(1-L73)-((E73/100)*'Water column'!$B$26)</f>
+        <v>0.74149999999999994</v>
+      </c>
+      <c r="N73" s="15">
+        <f>H73-(M73-L73)*98</f>
+        <v>928.40300000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="9">
+        <f t="shared" si="49"/>
+        <v>6112019</v>
+      </c>
+      <c r="C74" s="9">
+        <v>1107</v>
+      </c>
+      <c r="D74" s="9">
+        <v>526.5</v>
+      </c>
+      <c r="E74" s="9">
+        <v>180</v>
+      </c>
+      <c r="F74" s="9">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="G74" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H74" s="9">
+        <f t="shared" si="51"/>
+        <v>994.21</v>
+      </c>
+      <c r="I74" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J74" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K74" s="9"/>
+      <c r="L74" s="15">
+        <f t="shared" si="52"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M74" s="15">
+        <f>(1-L74)-((E74/100)*'Water column'!$B$26)</f>
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="N74" s="15">
+        <f t="shared" ref="N74:N79" si="53">H74-(M74-L74)*98</f>
+        <v>921.39600000000007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="9">
+        <f t="shared" si="49"/>
+        <v>6112019</v>
+      </c>
+      <c r="C75" s="9">
+        <v>1107</v>
+      </c>
+      <c r="D75" s="9">
+        <v>523.86</v>
+      </c>
+      <c r="E75" s="9">
+        <v>60</v>
+      </c>
+      <c r="F75" s="9">
+        <v>523.79999999999995</v>
+      </c>
+      <c r="G75" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H75" s="9">
+        <f t="shared" si="51"/>
+        <v>994.21</v>
+      </c>
+      <c r="I75" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J75" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K75" s="9"/>
+      <c r="L75" s="15">
+        <f t="shared" si="52"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M75" s="15">
+        <f>(1-L75)-((E75/100)*'Water column'!$B$26)</f>
+        <v>0.8909999999999999</v>
+      </c>
+      <c r="N75" s="15">
+        <f t="shared" si="53"/>
+        <v>913.75200000000007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="9">
+        <f t="shared" si="49"/>
+        <v>6112019</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1107</v>
+      </c>
+      <c r="D76" s="9">
+        <v>529.57000000000005</v>
+      </c>
+      <c r="E76" s="9">
+        <v>210</v>
+      </c>
+      <c r="F76" s="9">
+        <v>529.33000000000004</v>
+      </c>
+      <c r="G76" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H76" s="9">
+        <f t="shared" si="51"/>
+        <v>994.21</v>
+      </c>
+      <c r="I76" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J76" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="15">
+        <f t="shared" si="52"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M76" s="15">
+        <f>(1-L76)-((E76/100)*'Water column'!$B$26)</f>
+        <v>0.79349999999999987</v>
+      </c>
+      <c r="N76" s="15">
+        <f t="shared" si="53"/>
+        <v>923.30700000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="9">
+        <f t="shared" si="49"/>
+        <v>6112019</v>
+      </c>
+      <c r="C77" s="9">
+        <v>1102</v>
+      </c>
+      <c r="D77" s="9">
+        <v>525.35</v>
+      </c>
+      <c r="E77" s="9">
+        <v>130</v>
+      </c>
+      <c r="F77" s="9">
+        <v>525.22</v>
+      </c>
+      <c r="G77" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H77" s="9">
+        <f t="shared" si="51"/>
+        <v>994.21</v>
+      </c>
+      <c r="I77" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J77" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="15">
+        <f t="shared" si="52"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M77" s="15">
+        <f>(1-L77)-((E77/100)*'Water column'!$B$26)</f>
+        <v>0.84549999999999992</v>
+      </c>
+      <c r="N77" s="15">
+        <f t="shared" si="53"/>
+        <v>918.21100000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="9">
+        <f t="shared" si="49"/>
+        <v>6112019</v>
+      </c>
+      <c r="C78" s="9">
+        <v>1102</v>
+      </c>
+      <c r="D78" s="9">
+        <v>528.16999999999996</v>
+      </c>
+      <c r="E78" s="9">
+        <v>90</v>
+      </c>
+      <c r="F78" s="9">
+        <v>528.1</v>
+      </c>
+      <c r="G78" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H78" s="9">
+        <f t="shared" si="51"/>
+        <v>994.21</v>
+      </c>
+      <c r="I78" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J78" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K78" s="9"/>
+      <c r="L78" s="15">
+        <f t="shared" si="52"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M78" s="15">
+        <f>(1-L78)-((E78/100)*'Water column'!$B$26)</f>
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="N78" s="15">
+        <f t="shared" si="53"/>
+        <v>915.66300000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="9">
+        <f t="shared" si="49"/>
+        <v>6112019</v>
+      </c>
+      <c r="C79" s="9">
+        <v>1102</v>
+      </c>
+      <c r="D79" s="9">
+        <v>526.75</v>
+      </c>
+      <c r="E79" s="9">
+        <v>150</v>
+      </c>
+      <c r="F79" s="9">
+        <v>526.6</v>
+      </c>
+      <c r="G79" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H79" s="9">
+        <f t="shared" si="51"/>
+        <v>994.21</v>
+      </c>
+      <c r="I79" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J79" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K79" s="9"/>
+      <c r="L79" s="15">
+        <f t="shared" si="52"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M79" s="15">
+        <f>(1-L79)-((E79/100)*'Water column'!$B$26)</f>
+        <v>0.83249999999999991</v>
+      </c>
+      <c r="N79" s="15">
+        <f t="shared" si="53"/>
+        <v>919.48500000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="9">
+        <f t="shared" si="49"/>
+        <v>6112019</v>
+      </c>
+      <c r="C80" s="19">
+        <v>1033</v>
+      </c>
+      <c r="D80" s="19">
+        <v>527.17999999999995</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="19">
+        <v>527.17999999999995</v>
+      </c>
+      <c r="G80" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H80" s="9">
+        <f t="shared" si="51"/>
+        <v>994.21</v>
+      </c>
+      <c r="I80" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J80" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15">
+        <f t="shared" si="52"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="9">
+        <f t="shared" si="49"/>
+        <v>6112019</v>
+      </c>
+      <c r="C81" s="19">
+        <v>1033</v>
+      </c>
+      <c r="D81" s="19">
+        <v>528.07000000000005</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="19">
+        <v>528.09</v>
+      </c>
+      <c r="G81" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H81" s="9">
+        <f t="shared" si="51"/>
+        <v>994.21</v>
+      </c>
+      <c r="I81" s="9">
+        <f t="shared" si="16"/>
+        <v>52.5</v>
+      </c>
+      <c r="J81" s="9">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15">
+        <f t="shared" si="52"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N81" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -14800,10 +20175,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14862,7 +20237,7 @@
         <v>0.21920999999999999</v>
       </c>
       <c r="E4" s="20">
-        <f t="shared" ref="E4:E14" si="0">C4/(C4+D4)</f>
+        <f t="shared" ref="E4:E17" si="0">C4/(C4+D4)</f>
         <v>0.38896167247386759</v>
       </c>
     </row>
@@ -15047,6 +20422,168 @@
       <c r="E14" s="20">
         <f t="shared" si="0"/>
         <v>0.53259115669096069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="19">
+        <v>28102019</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.42851</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.34397</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.55471986329743161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="19">
+        <v>28102019</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.52720999999999996</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.31185000000000002</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>0.62833408814625891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="19">
+        <v>28102019</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.50963999999999998</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.42382999999999998</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.54596291257351603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1112019</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.61404000000000003</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.24781</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" ref="E18:E20" si="2">C18/(C18+D18)</f>
+        <v>0.71246736671114463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1112019</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.51588000000000001</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="2"/>
+        <v>0.59578694507322028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1112019</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.45179999999999998</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.37584000000000001</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="2"/>
+        <v>0.54588951718138323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="19">
+        <v>6112019</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0.60524</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.29137999999999997</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" ref="E21:E23" si="3">C21/(C21+D21)</f>
+        <v>0.67502397894314203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="19">
+        <v>6112019</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.50983000000000001</v>
+      </c>
+      <c r="D22" s="35">
+        <v>0.39866000000000001</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="3"/>
+        <v>0.56118394258604942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="19">
+        <v>6112019</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0.45962999999999998</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="3"/>
+        <v>0.52401582433618732</v>
       </c>
     </row>
   </sheetData>

--- a/BMP/data_BMP/BMP_batch_JMOR.xlsx
+++ b/BMP/data_BMP/BMP_batch_JMOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="setup FG5" sheetId="5" r:id="rId5"/>
     <sheet name="biogas FG5" sheetId="6" r:id="rId6"/>
     <sheet name="gc FG5" sheetId="7" r:id="rId7"/>
+    <sheet name="up" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="91">
   <si>
     <t>Date:</t>
   </si>
@@ -180,9 +181,6 @@
     <t>Cattle manure</t>
   </si>
   <si>
-    <t>Household waste</t>
-  </si>
-  <si>
     <t>Clover grass pulp</t>
   </si>
   <si>
@@ -321,6 +319,12 @@
   <si>
     <t>Water</t>
   </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>OFMSW</t>
+  </si>
 </sst>
 </file>
 
@@ -406,7 +410,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -543,8 +547,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="217">
+  <cellStyleXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -762,8 +786,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -864,8 +938,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="217">
+  <cellStyles count="267">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
@@ -974,6 +1082,31 @@
     <cellStyle name="Besøgt link" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1082,6 +1215,31 @@
     <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1414,7 +1572,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1530,7 +1688,7 @@
         <v>46</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>38</v>
@@ -1559,7 +1717,7 @@
         <v>1200</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="9">
         <f>315.27+7.65</f>
@@ -1622,7 +1780,7 @@
         <v>1200</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="9">
         <v>318.67</v>
@@ -1686,7 +1844,7 @@
         <v>1200</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="9">
         <v>323.35000000000002</v>
@@ -1750,7 +1908,7 @@
         <v>1200</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E8" s="9">
         <v>324.41000000000003</v>
@@ -1814,7 +1972,7 @@
         <v>1200</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E9" s="9">
         <v>321.19</v>
@@ -1878,7 +2036,7 @@
         <v>1200</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E10" s="9">
         <v>323.69</v>
@@ -2524,7 +2682,7 @@
         <v>1200</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="9">
         <v>322.66000000000003</v>
@@ -2587,7 +2745,7 @@
         <v>1200</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="9">
         <v>322.38</v>
@@ -2650,7 +2808,7 @@
         <v>1200</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="9">
         <v>323.57</v>
@@ -2702,7 +2860,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="19">
         <v>7102019</v>
@@ -2711,7 +2869,7 @@
         <v>1200</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="19">
         <v>326.99</v>
@@ -2757,7 +2915,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="19">
         <v>7102019</v>
@@ -2766,7 +2924,7 @@
         <v>1200</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="19">
         <v>326.41000000000003</v>
@@ -2823,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N224"/>
+  <dimension ref="A1:N272"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203:N204"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2938,13 +3096,13 @@
         <v>17</v>
       </c>
       <c r="L4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="N4" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3842,7 +4000,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="19">
         <v>8102019</v>
@@ -3889,7 +4047,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="19">
         <v>8102019</v>
@@ -4831,7 +4989,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="9">
         <f t="shared" si="8"/>
@@ -4879,7 +5037,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="9">
         <f t="shared" si="8"/>
@@ -5770,7 +5928,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="9">
         <f t="shared" si="13"/>
@@ -5815,7 +5973,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64" s="9">
         <f t="shared" si="13"/>
@@ -6669,7 +6827,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B83" s="9">
         <f t="shared" si="17"/>
@@ -6712,7 +6870,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B84" s="9">
         <f t="shared" si="17"/>
@@ -7564,7 +7722,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B103" s="9">
         <f t="shared" si="20"/>
@@ -7607,7 +7765,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B104" s="9">
         <f t="shared" si="20"/>
@@ -8544,7 +8702,7 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B123" s="9">
         <f t="shared" si="22"/>
@@ -8592,7 +8750,7 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B124" s="9">
         <f t="shared" si="22"/>
@@ -9534,7 +9692,7 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B143" s="9">
         <f t="shared" si="30"/>
@@ -9582,7 +9740,7 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B144" s="9">
         <f t="shared" si="30"/>
@@ -10524,7 +10682,7 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B163" s="9">
         <f t="shared" si="38"/>
@@ -10572,7 +10730,7 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B164" s="9">
         <f t="shared" si="38"/>
@@ -11514,7 +11672,7 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B183" s="9">
         <f t="shared" si="46"/>
@@ -11562,7 +11720,7 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B184" s="9">
         <f t="shared" si="46"/>
@@ -12503,7 +12661,7 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B203" s="9">
         <f t="shared" si="59"/>
@@ -12551,7 +12709,7 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B204" s="9">
         <f>$B$186</f>
@@ -12598,992 +12756,3343 @@
       </c>
     </row>
     <row r="205" spans="1:14">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B205" s="9">
+      <c r="B205" s="50">
         <v>6112019</v>
       </c>
-      <c r="C205" s="9">
+      <c r="C205" s="50">
         <v>1119</v>
       </c>
-      <c r="D205" s="9">
+      <c r="D205" s="50">
         <v>524.02</v>
       </c>
-      <c r="E205" s="9">
+      <c r="E205" s="50">
         <v>70</v>
       </c>
-      <c r="F205" s="9">
+      <c r="F205" s="50">
         <v>523.94000000000005</v>
       </c>
-      <c r="G205" s="9">
+      <c r="G205" s="50">
         <v>14</v>
       </c>
-      <c r="H205" s="9">
+      <c r="H205" s="50">
         <v>994.21</v>
       </c>
-      <c r="I205" s="9">
-        <v>52.5</v>
-      </c>
-      <c r="J205" s="9">
-        <v>52.5</v>
-      </c>
-      <c r="K205" s="9"/>
-      <c r="L205" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M205" s="15">
+      <c r="I205" s="50">
+        <v>52.5</v>
+      </c>
+      <c r="J205" s="50">
+        <v>52.5</v>
+      </c>
+      <c r="K205" s="50"/>
+      <c r="L205" s="51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M205" s="51">
         <f>(1-L205)-((E205/100)*'Water column'!$B$26)</f>
         <v>0.88449999999999995</v>
       </c>
-      <c r="N205" s="15">
+      <c r="N205" s="51">
         <f t="shared" ref="N205:N206" si="61">H205-(M205-L205)*98</f>
         <v>914.38900000000001</v>
       </c>
     </row>
     <row r="206" spans="1:14">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B206" s="9">
+      <c r="B206" s="50">
         <f>$B$205</f>
         <v>6112019</v>
       </c>
-      <c r="C206" s="9">
+      <c r="C206" s="50">
         <v>1119</v>
       </c>
-      <c r="D206" s="9">
+      <c r="D206" s="50">
         <v>523.17999999999995</v>
       </c>
-      <c r="E206" s="9">
+      <c r="E206" s="50">
         <v>70</v>
       </c>
-      <c r="F206" s="9">
+      <c r="F206" s="50">
         <v>523.11</v>
       </c>
-      <c r="G206" s="9">
+      <c r="G206" s="50">
         <f>$G$205</f>
         <v>14</v>
       </c>
-      <c r="H206" s="9">
+      <c r="H206" s="50">
         <f>$H$205</f>
         <v>994.21</v>
       </c>
-      <c r="I206" s="9">
+      <c r="I206" s="50">
         <f>$I$5</f>
         <v>52.5</v>
       </c>
-      <c r="J206" s="9">
+      <c r="J206" s="50">
         <f>$J$5</f>
         <v>52.5</v>
       </c>
-      <c r="K206" s="9"/>
-      <c r="L206" s="15">
+      <c r="K206" s="50"/>
+      <c r="L206" s="51">
         <f>$L$5</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M206" s="15">
+      <c r="M206" s="51">
         <f>(1-L206)-((E206/100)*'Water column'!$B$26)</f>
         <v>0.88449999999999995</v>
       </c>
-      <c r="N206" s="15">
+      <c r="N206" s="51">
         <f t="shared" si="61"/>
         <v>914.38900000000001</v>
       </c>
     </row>
     <row r="207" spans="1:14">
-      <c r="A207" s="8" t="s">
+      <c r="A207" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B207" s="9">
+      <c r="B207" s="50">
         <f t="shared" ref="B207:B224" si="62">$B$205</f>
         <v>6112019</v>
       </c>
-      <c r="C207" s="9">
+      <c r="C207" s="50">
         <v>1119</v>
       </c>
-      <c r="D207" s="9">
+      <c r="D207" s="50">
         <v>524.39</v>
       </c>
-      <c r="E207" s="9">
+      <c r="E207" s="50">
         <v>80</v>
       </c>
-      <c r="F207" s="9">
+      <c r="F207" s="50">
         <v>524.30999999999995</v>
       </c>
-      <c r="G207" s="9">
+      <c r="G207" s="50">
         <f t="shared" ref="G207:G224" si="63">$G$205</f>
         <v>14</v>
       </c>
-      <c r="H207" s="9">
+      <c r="H207" s="50">
         <f t="shared" ref="H207:H224" si="64">$H$205</f>
         <v>994.21</v>
       </c>
-      <c r="I207" s="9">
+      <c r="I207" s="50">
         <f t="shared" ref="I207:I224" si="65">$I$5</f>
         <v>52.5</v>
       </c>
-      <c r="J207" s="9">
+      <c r="J207" s="50">
         <f t="shared" ref="J207:J224" si="66">$J$5</f>
         <v>52.5</v>
       </c>
-      <c r="K207" s="9"/>
-      <c r="L207" s="15">
-        <f t="shared" ref="L207:L224" si="67">$L$5</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M207" s="15">
+      <c r="K207" s="50"/>
+      <c r="L207" s="51">
+        <f t="shared" ref="L207:L232" si="67">$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M207" s="51">
         <f>(1-L207)-((E207/100)*'Water column'!$B$26)</f>
         <v>0.87799999999999989</v>
       </c>
-      <c r="N207" s="15">
+      <c r="N207" s="51">
         <f>H207-(M207-L207)*98</f>
         <v>915.02600000000007</v>
       </c>
     </row>
     <row r="208" spans="1:14">
-      <c r="A208" s="8" t="s">
+      <c r="A208" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B208" s="9">
+      <c r="B208" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C208" s="9">
+      <c r="C208" s="50">
         <v>1115</v>
       </c>
-      <c r="D208" s="9">
+      <c r="D208" s="50">
         <v>525.79</v>
       </c>
-      <c r="E208" s="9">
+      <c r="E208" s="50">
         <v>70</v>
       </c>
-      <c r="F208" s="9">
+      <c r="F208" s="50">
         <v>525.76</v>
       </c>
-      <c r="G208" s="9">
+      <c r="G208" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H208" s="9">
+      <c r="H208" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I208" s="9">
+      <c r="I208" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J208" s="9">
+      <c r="J208" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K208" s="9"/>
-      <c r="L208" s="15">
+      <c r="K208" s="50"/>
+      <c r="L208" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M208" s="15">
+      <c r="M208" s="51">
         <f>(1-L208)-((E208/100)*'Water column'!$B$26)</f>
         <v>0.88449999999999995</v>
       </c>
-      <c r="N208" s="15">
+      <c r="N208" s="51">
         <f t="shared" ref="N208:N222" si="68">H208-(M208-L208)*98</f>
         <v>914.38900000000001</v>
       </c>
     </row>
     <row r="209" spans="1:14">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B209" s="9">
+      <c r="B209" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C209" s="9">
+      <c r="C209" s="50">
         <v>1115</v>
       </c>
-      <c r="D209" s="9">
+      <c r="D209" s="50">
         <v>521.54999999999995</v>
       </c>
-      <c r="E209" s="9">
+      <c r="E209" s="50">
         <v>65</v>
       </c>
-      <c r="F209" s="9">
+      <c r="F209" s="50">
         <v>521.49</v>
       </c>
-      <c r="G209" s="9">
+      <c r="G209" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H209" s="9">
+      <c r="H209" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I209" s="9">
+      <c r="I209" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J209" s="9">
+      <c r="J209" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K209" s="9"/>
-      <c r="L209" s="15">
+      <c r="K209" s="50"/>
+      <c r="L209" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M209" s="15">
+      <c r="M209" s="51">
         <f>(1-L209)-((E209/100)*'Water column'!$B$26)</f>
         <v>0.88774999999999993</v>
       </c>
-      <c r="N209" s="15">
+      <c r="N209" s="51">
         <f t="shared" si="68"/>
         <v>914.07050000000004</v>
       </c>
     </row>
     <row r="210" spans="1:14">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B210" s="9">
+      <c r="B210" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C210" s="9">
+      <c r="C210" s="50">
         <v>1115</v>
       </c>
-      <c r="D210" s="9">
+      <c r="D210" s="50">
         <v>523.23</v>
       </c>
-      <c r="E210" s="9">
+      <c r="E210" s="50">
         <v>70</v>
       </c>
-      <c r="F210" s="9">
+      <c r="F210" s="50">
         <v>523.16999999999996</v>
       </c>
-      <c r="G210" s="9">
+      <c r="G210" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H210" s="9">
+      <c r="H210" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I210" s="9">
+      <c r="I210" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J210" s="9">
+      <c r="J210" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K210" s="9"/>
-      <c r="L210" s="15">
+      <c r="K210" s="50"/>
+      <c r="L210" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M210" s="15">
+      <c r="M210" s="51">
         <f>(1-L210)-((E210/100)*'Water column'!$B$26)</f>
         <v>0.88449999999999995</v>
       </c>
-      <c r="N210" s="15">
+      <c r="N210" s="51">
         <f t="shared" si="68"/>
         <v>914.38900000000001</v>
       </c>
     </row>
     <row r="211" spans="1:14">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B211" s="9">
+      <c r="B211" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C211" s="9">
+      <c r="C211" s="50">
         <v>1047</v>
       </c>
-      <c r="D211" s="9">
+      <c r="D211" s="50">
         <v>529.41999999999996</v>
       </c>
-      <c r="E211" s="9">
+      <c r="E211" s="50">
         <v>70</v>
       </c>
-      <c r="F211" s="9">
+      <c r="F211" s="50">
         <v>529.35</v>
       </c>
-      <c r="G211" s="9">
+      <c r="G211" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H211" s="9">
+      <c r="H211" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I211" s="9">
+      <c r="I211" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J211" s="9">
+      <c r="J211" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K211" s="9"/>
-      <c r="L211" s="15">
+      <c r="K211" s="50"/>
+      <c r="L211" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M211" s="15">
+      <c r="M211" s="51">
         <f>(1-L211)-((E211/100)*'Water column'!$B$26)</f>
         <v>0.88449999999999995</v>
       </c>
-      <c r="N211" s="15">
+      <c r="N211" s="51">
         <f t="shared" si="68"/>
         <v>914.38900000000001</v>
       </c>
     </row>
     <row r="212" spans="1:14">
-      <c r="A212" s="8" t="s">
+      <c r="A212" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B212" s="9">
+      <c r="B212" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C212" s="9">
+      <c r="C212" s="50">
         <v>1047</v>
       </c>
-      <c r="D212" s="9">
+      <c r="D212" s="50">
         <v>526.26</v>
       </c>
-      <c r="E212" s="9">
+      <c r="E212" s="50">
         <v>70</v>
       </c>
-      <c r="F212" s="9">
+      <c r="F212" s="50">
         <v>526.20000000000005</v>
       </c>
-      <c r="G212" s="9">
+      <c r="G212" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H212" s="9">
+      <c r="H212" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I212" s="9">
+      <c r="I212" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J212" s="9">
+      <c r="J212" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K212" s="9"/>
-      <c r="L212" s="15">
+      <c r="K212" s="50"/>
+      <c r="L212" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M212" s="15">
+      <c r="M212" s="51">
         <f>(1-L212)-((E212/100)*'Water column'!$B$26)</f>
         <v>0.88449999999999995</v>
       </c>
-      <c r="N212" s="15">
+      <c r="N212" s="51">
         <f t="shared" si="68"/>
         <v>914.38900000000001</v>
       </c>
     </row>
     <row r="213" spans="1:14">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B213" s="9">
+      <c r="B213" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C213" s="9">
+      <c r="C213" s="50">
         <v>1047</v>
       </c>
-      <c r="D213" s="9">
+      <c r="D213" s="50">
         <v>524.94000000000005</v>
       </c>
-      <c r="E213" s="9">
+      <c r="E213" s="50">
         <v>70</v>
       </c>
-      <c r="F213" s="9">
+      <c r="F213" s="50">
         <v>524.87</v>
       </c>
-      <c r="G213" s="9">
+      <c r="G213" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H213" s="9">
+      <c r="H213" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I213" s="9">
+      <c r="I213" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J213" s="9">
+      <c r="J213" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K213" s="9"/>
-      <c r="L213" s="15">
+      <c r="K213" s="50"/>
+      <c r="L213" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M213" s="15">
+      <c r="M213" s="51">
         <f>(1-L213)-((E213/100)*'Water column'!$B$26)</f>
         <v>0.88449999999999995</v>
       </c>
-      <c r="N213" s="15">
+      <c r="N213" s="51">
         <f t="shared" si="68"/>
         <v>914.38900000000001</v>
       </c>
     </row>
     <row r="214" spans="1:14">
-      <c r="A214" s="8" t="s">
+      <c r="A214" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B214" s="9">
+      <c r="B214" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C214" s="9">
+      <c r="C214" s="50">
         <v>1035</v>
       </c>
-      <c r="D214" s="9">
+      <c r="D214" s="50">
         <v>535.84</v>
       </c>
-      <c r="E214" s="9">
+      <c r="E214" s="50">
         <v>250</v>
       </c>
-      <c r="F214" s="9">
+      <c r="F214" s="50">
         <v>535.62</v>
       </c>
-      <c r="G214" s="9">
+      <c r="G214" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H214" s="9">
+      <c r="H214" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I214" s="9">
+      <c r="I214" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J214" s="9">
+      <c r="J214" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K214" s="9"/>
-      <c r="L214" s="15">
+      <c r="K214" s="50"/>
+      <c r="L214" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M214" s="15">
+      <c r="M214" s="51">
         <f>(1-L214)-((E214/100)*'Water column'!$B$26)</f>
         <v>0.76749999999999996</v>
       </c>
-      <c r="N214" s="15">
+      <c r="N214" s="51">
         <f t="shared" si="68"/>
         <v>925.85500000000002</v>
       </c>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="8" t="s">
+      <c r="A215" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B215" s="9">
+      <c r="B215" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C215" s="9">
+      <c r="C215" s="50">
         <v>1035</v>
       </c>
-      <c r="D215" s="9">
+      <c r="D215" s="50">
         <v>530.15</v>
       </c>
-      <c r="E215" s="9">
+      <c r="E215" s="50">
         <v>85</v>
       </c>
-      <c r="F215" s="9">
+      <c r="F215" s="50">
         <v>530.05999999999995</v>
       </c>
-      <c r="G215" s="9">
+      <c r="G215" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H215" s="9">
+      <c r="H215" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I215" s="9">
+      <c r="I215" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J215" s="9">
+      <c r="J215" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K215" s="9"/>
-      <c r="L215" s="15">
+      <c r="K215" s="50"/>
+      <c r="L215" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M215" s="15">
+      <c r="M215" s="51">
         <f>(1-L215)-((E215/100)*'Water column'!$B$26)</f>
         <v>0.87474999999999992</v>
       </c>
-      <c r="N215" s="15">
+      <c r="N215" s="51">
         <f t="shared" si="68"/>
         <v>915.34450000000004</v>
       </c>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B216" s="9">
+      <c r="B216" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C216" s="9">
+      <c r="C216" s="50">
         <v>1035</v>
       </c>
-      <c r="D216" s="9">
+      <c r="D216" s="50">
         <v>523.84</v>
       </c>
-      <c r="E216" s="9">
+      <c r="E216" s="50">
         <v>105</v>
       </c>
-      <c r="F216" s="9">
+      <c r="F216" s="50">
         <v>523.75</v>
       </c>
-      <c r="G216" s="9">
+      <c r="G216" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H216" s="9">
+      <c r="H216" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I216" s="9">
+      <c r="I216" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J216" s="9">
+      <c r="J216" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K216" s="9"/>
-      <c r="L216" s="15">
+      <c r="K216" s="50"/>
+      <c r="L216" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M216" s="15">
+      <c r="M216" s="51">
         <f>(1-L216)-((E216/100)*'Water column'!$B$26)</f>
         <v>0.8617499999999999</v>
       </c>
-      <c r="N216" s="15">
+      <c r="N216" s="51">
         <f t="shared" si="68"/>
         <v>916.61850000000004</v>
       </c>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="8" t="s">
+      <c r="A217" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B217" s="9">
+      <c r="B217" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C217" s="9">
+      <c r="C217" s="50">
         <v>1041</v>
       </c>
-      <c r="D217" s="9">
+      <c r="D217" s="50">
         <v>519.38</v>
       </c>
-      <c r="E217" s="9">
+      <c r="E217" s="50">
         <v>40</v>
       </c>
-      <c r="F217" s="9">
+      <c r="F217" s="50">
         <v>519.34</v>
       </c>
-      <c r="G217" s="9">
+      <c r="G217" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H217" s="9">
+      <c r="H217" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I217" s="9">
+      <c r="I217" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J217" s="9">
+      <c r="J217" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K217" s="9"/>
-      <c r="L217" s="15">
+      <c r="K217" s="50"/>
+      <c r="L217" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M217" s="15">
+      <c r="M217" s="51">
         <f>(1-L217)-((E217/100)*'Water column'!$B$26)</f>
         <v>0.90399999999999991</v>
       </c>
-      <c r="N217" s="15">
+      <c r="N217" s="51">
         <f t="shared" si="68"/>
         <v>912.47800000000007</v>
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="8" t="s">
+      <c r="A218" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B218" s="9">
+      <c r="B218" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C218" s="9">
+      <c r="C218" s="50">
         <v>1041</v>
       </c>
-      <c r="D218" s="9">
+      <c r="D218" s="50">
         <v>524.74</v>
       </c>
-      <c r="E218" s="9">
+      <c r="E218" s="50">
         <v>35</v>
       </c>
-      <c r="F218" s="9">
+      <c r="F218" s="50">
         <v>524.66999999999996</v>
       </c>
-      <c r="G218" s="9">
+      <c r="G218" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H218" s="9">
+      <c r="H218" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I218" s="9">
+      <c r="I218" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J218" s="9">
+      <c r="J218" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K218" s="9"/>
-      <c r="L218" s="15">
+      <c r="K218" s="50"/>
+      <c r="L218" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M218" s="15">
+      <c r="M218" s="51">
         <f>(1-L218)-((E218/100)*'Water column'!$B$26)</f>
         <v>0.90724999999999989</v>
       </c>
-      <c r="N218" s="15">
+      <c r="N218" s="51">
         <f t="shared" si="68"/>
         <v>912.15950000000009</v>
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="8" t="s">
+      <c r="A219" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B219" s="9">
+      <c r="B219" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C219" s="9">
+      <c r="C219" s="50">
         <v>1041</v>
       </c>
-      <c r="D219" s="9">
+      <c r="D219" s="50">
         <v>523.07000000000005</v>
       </c>
-      <c r="E219" s="9">
+      <c r="E219" s="50">
         <v>40</v>
       </c>
-      <c r="F219" s="9">
+      <c r="F219" s="50">
         <v>523.04</v>
       </c>
-      <c r="G219" s="9">
+      <c r="G219" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H219" s="9">
+      <c r="H219" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I219" s="9">
+      <c r="I219" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J219" s="9">
+      <c r="J219" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K219" s="9"/>
-      <c r="L219" s="15">
+      <c r="K219" s="50"/>
+      <c r="L219" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M219" s="15">
+      <c r="M219" s="51">
         <f>(1-L219)-((E219/100)*'Water column'!$B$26)</f>
         <v>0.90399999999999991</v>
       </c>
-      <c r="N219" s="15">
+      <c r="N219" s="51">
         <f t="shared" si="68"/>
         <v>912.47800000000007</v>
       </c>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="8" t="s">
+      <c r="A220" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B220" s="9">
+      <c r="B220" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C220" s="9">
+      <c r="C220" s="50">
         <v>1051</v>
       </c>
-      <c r="D220" s="9">
+      <c r="D220" s="50">
         <v>522.46</v>
       </c>
-      <c r="E220" s="9">
+      <c r="E220" s="50">
         <v>40</v>
       </c>
-      <c r="F220" s="9">
+      <c r="F220" s="50">
         <v>522.41</v>
       </c>
-      <c r="G220" s="9">
+      <c r="G220" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H220" s="9">
+      <c r="H220" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I220" s="9">
+      <c r="I220" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J220" s="9">
+      <c r="J220" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K220" s="9"/>
-      <c r="L220" s="15">
+      <c r="K220" s="50"/>
+      <c r="L220" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M220" s="15">
+      <c r="M220" s="51">
         <f>(1-L220)-((E220/100)*'Water column'!$B$26)</f>
         <v>0.90399999999999991</v>
       </c>
-      <c r="N220" s="15">
+      <c r="N220" s="51">
         <f t="shared" si="68"/>
         <v>912.47800000000007</v>
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B221" s="9">
+      <c r="B221" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C221" s="9">
+      <c r="C221" s="50">
         <v>1051</v>
       </c>
-      <c r="D221" s="9">
+      <c r="D221" s="50">
         <v>522.01</v>
       </c>
-      <c r="E221" s="9">
+      <c r="E221" s="50">
         <v>35</v>
       </c>
-      <c r="F221" s="9">
+      <c r="F221" s="50">
         <v>521.96</v>
       </c>
-      <c r="G221" s="9">
+      <c r="G221" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H221" s="9">
+      <c r="H221" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I221" s="9">
+      <c r="I221" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J221" s="9">
+      <c r="J221" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K221" s="9"/>
-      <c r="L221" s="15">
+      <c r="K221" s="50"/>
+      <c r="L221" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M221" s="15">
+      <c r="M221" s="51">
         <f>(1-L221)-((E221/100)*'Water column'!$B$26)</f>
         <v>0.90724999999999989</v>
       </c>
-      <c r="N221" s="15">
+      <c r="N221" s="51">
         <f t="shared" si="68"/>
         <v>912.15950000000009</v>
       </c>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="8" t="s">
+      <c r="A222" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B222" s="9">
+      <c r="B222" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C222" s="9">
+      <c r="C222" s="50">
         <v>1051</v>
       </c>
-      <c r="D222" s="9">
+      <c r="D222" s="50">
         <v>522.66</v>
       </c>
-      <c r="E222" s="9">
+      <c r="E222" s="50">
         <v>35</v>
       </c>
-      <c r="F222" s="9">
+      <c r="F222" s="50">
         <v>522.61</v>
       </c>
-      <c r="G222" s="9">
+      <c r="G222" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H222" s="9">
+      <c r="H222" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I222" s="9">
+      <c r="I222" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J222" s="9">
+      <c r="J222" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K222" s="9"/>
-      <c r="L222" s="15">
+      <c r="K222" s="50"/>
+      <c r="L222" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M222" s="15">
+      <c r="M222" s="51">
         <f>(1-L222)-((E222/100)*'Water column'!$B$26)</f>
         <v>0.90724999999999989</v>
       </c>
-      <c r="N222" s="15">
+      <c r="N222" s="51">
         <f t="shared" si="68"/>
         <v>912.15950000000009</v>
       </c>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B223" s="9">
+        <v>54</v>
+      </c>
+      <c r="B223" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C223" s="19">
+      <c r="C223" s="25">
         <v>1033</v>
       </c>
-      <c r="D223" s="19">
+      <c r="D223" s="25">
         <v>527.17999999999995</v>
       </c>
-      <c r="E223" s="19" t="s">
+      <c r="E223" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F223" s="19">
+      <c r="F223" s="25">
         <v>527.17999999999995</v>
       </c>
-      <c r="G223" s="9">
+      <c r="G223" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H223" s="9">
+      <c r="H223" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I223" s="9">
+      <c r="I223" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J223" s="9">
+      <c r="J223" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K223" s="15"/>
-      <c r="L223" s="15">
+      <c r="K223" s="51"/>
+      <c r="L223" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M223" s="15" t="s">
+      <c r="M223" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="N223" s="15" t="s">
+      <c r="N223" s="51" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B224" s="9">
+        <v>55</v>
+      </c>
+      <c r="B224" s="50">
         <f t="shared" si="62"/>
         <v>6112019</v>
       </c>
-      <c r="C224" s="19">
+      <c r="C224" s="25">
         <v>1033</v>
       </c>
-      <c r="D224" s="19">
+      <c r="D224" s="25">
         <v>528.07000000000005</v>
       </c>
-      <c r="E224" s="19" t="s">
+      <c r="E224" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F224" s="19">
+      <c r="F224" s="25">
         <v>528.09</v>
       </c>
-      <c r="G224" s="9">
+      <c r="G224" s="50">
         <f t="shared" si="63"/>
         <v>14</v>
       </c>
-      <c r="H224" s="9">
+      <c r="H224" s="50">
         <f t="shared" si="64"/>
         <v>994.21</v>
       </c>
-      <c r="I224" s="9">
+      <c r="I224" s="50">
         <f t="shared" si="65"/>
         <v>52.5</v>
       </c>
-      <c r="J224" s="9">
+      <c r="J224" s="50">
         <f t="shared" si="66"/>
         <v>52.5</v>
       </c>
-      <c r="K224" s="15"/>
-      <c r="L224" s="15">
+      <c r="K224" s="51"/>
+      <c r="L224" s="51">
         <f t="shared" si="67"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M224" s="15" t="s">
+      <c r="M224" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="N224" s="15" t="s">
+      <c r="N224" s="51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B225" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C225" s="9">
+        <v>1154</v>
+      </c>
+      <c r="D225" s="9">
+        <v>535.58000000000004</v>
+      </c>
+      <c r="E225" s="9">
+        <v>150</v>
+      </c>
+      <c r="F225" s="9">
+        <v>535.44000000000005</v>
+      </c>
+      <c r="G225" s="9">
+        <f>G224</f>
+        <v>14</v>
+      </c>
+      <c r="H225" s="9">
+        <v>1001.13</v>
+      </c>
+      <c r="I225" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J225" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K225" s="9"/>
+      <c r="L225" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M225" s="15">
+        <f>(1-L225)-((E225/100)*'Water column'!$B$26)</f>
+        <v>0.83249999999999991</v>
+      </c>
+      <c r="N225" s="15">
+        <f t="shared" ref="N225:N230" si="69">H225-(M225-L225)*98</f>
+        <v>926.40499999999997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B226" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C226" s="9">
+        <v>1154</v>
+      </c>
+      <c r="D226" s="9">
+        <v>530.04</v>
+      </c>
+      <c r="E226" s="9">
+        <v>140</v>
+      </c>
+      <c r="F226" s="9">
+        <v>529.91999999999996</v>
+      </c>
+      <c r="G226" s="9">
+        <f t="shared" ref="G226:G232" si="70">G225</f>
+        <v>14</v>
+      </c>
+      <c r="H226" s="9">
+        <f>$H$225</f>
+        <v>1001.13</v>
+      </c>
+      <c r="I226" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J226" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K226" s="9"/>
+      <c r="L226" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M226" s="15">
+        <f>(1-L226)-((E226/100)*'Water column'!$B$26)</f>
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="N226" s="15">
+        <f t="shared" si="69"/>
+        <v>925.76800000000003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="A227" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B227" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C227" s="9">
+        <v>1154</v>
+      </c>
+      <c r="D227" s="9">
+        <v>523.72</v>
+      </c>
+      <c r="E227" s="9">
+        <v>115</v>
+      </c>
+      <c r="F227" s="9">
+        <v>523.63</v>
+      </c>
+      <c r="G227" s="9">
+        <f t="shared" si="70"/>
+        <v>14</v>
+      </c>
+      <c r="H227" s="9">
+        <f t="shared" ref="H227:H232" si="71">$H$225</f>
+        <v>1001.13</v>
+      </c>
+      <c r="I227" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J227" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K227" s="9"/>
+      <c r="L227" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M227" s="15">
+        <f>(1-L227)-((E227/100)*'Water column'!$B$26)</f>
+        <v>0.85524999999999995</v>
+      </c>
+      <c r="N227" s="15">
+        <f t="shared" si="69"/>
+        <v>924.17550000000006</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
+      <c r="A228" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B228" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C228" s="9">
+        <v>1145</v>
+      </c>
+      <c r="D228" s="9">
+        <v>522.4</v>
+      </c>
+      <c r="E228" s="9">
+        <v>50</v>
+      </c>
+      <c r="F228" s="9">
+        <v>522.37</v>
+      </c>
+      <c r="G228" s="9">
+        <f t="shared" si="70"/>
+        <v>14</v>
+      </c>
+      <c r="H228" s="9">
+        <f t="shared" si="71"/>
+        <v>1001.13</v>
+      </c>
+      <c r="I228" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J228" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K228" s="9"/>
+      <c r="L228" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M228" s="15">
+        <f>(1-L228)-((E228/100)*'Water column'!$B$26)</f>
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="N228" s="15">
+        <f t="shared" si="69"/>
+        <v>920.03499999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
+      <c r="A229" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B229" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C229" s="9">
+        <v>1145</v>
+      </c>
+      <c r="D229" s="9">
+        <v>521.98</v>
+      </c>
+      <c r="E229" s="9">
+        <v>40</v>
+      </c>
+      <c r="F229" s="9">
+        <v>521.91999999999996</v>
+      </c>
+      <c r="G229" s="9">
+        <f t="shared" si="70"/>
+        <v>14</v>
+      </c>
+      <c r="H229" s="9">
+        <f t="shared" si="71"/>
+        <v>1001.13</v>
+      </c>
+      <c r="I229" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J229" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K229" s="9"/>
+      <c r="L229" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M229" s="15">
+        <f>(1-L229)-((E229/100)*'Water column'!$B$26)</f>
+        <v>0.90399999999999991</v>
+      </c>
+      <c r="N229" s="15">
+        <f t="shared" si="69"/>
+        <v>919.39800000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B230" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C230" s="9">
+        <v>1145</v>
+      </c>
+      <c r="D230" s="9">
+        <v>522.61</v>
+      </c>
+      <c r="E230" s="9">
+        <v>45</v>
+      </c>
+      <c r="F230" s="9">
+        <v>522.57000000000005</v>
+      </c>
+      <c r="G230" s="9">
+        <f t="shared" si="70"/>
+        <v>14</v>
+      </c>
+      <c r="H230" s="9">
+        <f t="shared" si="71"/>
+        <v>1001.13</v>
+      </c>
+      <c r="I230" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J230" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K230" s="9"/>
+      <c r="L230" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M230" s="15">
+        <f>(1-L230)-((E230/100)*'Water column'!$B$26)</f>
+        <v>0.90074999999999994</v>
+      </c>
+      <c r="N230" s="15">
+        <f t="shared" si="69"/>
+        <v>919.7165</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B231" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C231" s="19">
+        <v>1143</v>
+      </c>
+      <c r="D231" s="19">
+        <v>527.20000000000005</v>
+      </c>
+      <c r="E231" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F231" s="19">
+        <v>527.20000000000005</v>
+      </c>
+      <c r="G231" s="9">
+        <f t="shared" si="70"/>
+        <v>14</v>
+      </c>
+      <c r="H231" s="9">
+        <f t="shared" si="71"/>
+        <v>1001.13</v>
+      </c>
+      <c r="I231" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J231" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K231" s="15"/>
+      <c r="L231" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M231" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N231" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B232" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C232" s="19">
+        <v>1143</v>
+      </c>
+      <c r="D232" s="19">
+        <v>528.07000000000005</v>
+      </c>
+      <c r="E232" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F232" s="19">
+        <v>528.09</v>
+      </c>
+      <c r="G232" s="9">
+        <f t="shared" si="70"/>
+        <v>14</v>
+      </c>
+      <c r="H232" s="9">
+        <f t="shared" si="71"/>
+        <v>1001.13</v>
+      </c>
+      <c r="I232" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J232" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K232" s="15"/>
+      <c r="L232" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M232" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N232" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" s="50">
+        <v>22112019</v>
+      </c>
+      <c r="C233" s="50">
+        <v>1140</v>
+      </c>
+      <c r="D233" s="50">
+        <v>523.91</v>
+      </c>
+      <c r="E233" s="50">
+        <v>150</v>
+      </c>
+      <c r="F233" s="50">
+        <v>523.73</v>
+      </c>
+      <c r="G233" s="50">
+        <v>15</v>
+      </c>
+      <c r="H233" s="50">
+        <v>999.23</v>
+      </c>
+      <c r="I233" s="50">
+        <v>52.5</v>
+      </c>
+      <c r="J233" s="50">
+        <v>52.5</v>
+      </c>
+      <c r="K233" s="50"/>
+      <c r="L233" s="51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M233" s="51">
+        <f>(1-L233)-((E233/100)*'Water column'!$B$26)</f>
+        <v>0.83249999999999991</v>
+      </c>
+      <c r="N233" s="51">
+        <f t="shared" ref="N233:N234" si="72">H233-(M233-L233)*98</f>
+        <v>924.505</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="A234" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B234" s="50">
+        <f>$B$233</f>
+        <v>22112019</v>
+      </c>
+      <c r="C234" s="50">
+        <v>1140</v>
+      </c>
+      <c r="D234" s="50">
+        <v>523.07000000000005</v>
+      </c>
+      <c r="E234" s="50">
+        <v>150</v>
+      </c>
+      <c r="F234" s="50">
+        <v>522.89</v>
+      </c>
+      <c r="G234" s="50">
+        <f>$G$233</f>
+        <v>15</v>
+      </c>
+      <c r="H234" s="50">
+        <f>$H$233</f>
+        <v>999.23</v>
+      </c>
+      <c r="I234" s="50">
+        <f>$I$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="J234" s="50">
+        <f>$J$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="K234" s="50"/>
+      <c r="L234" s="51">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M234" s="51">
+        <f>(1-L234)-((E234/100)*'Water column'!$B$26)</f>
+        <v>0.83249999999999991</v>
+      </c>
+      <c r="N234" s="51">
+        <f t="shared" si="72"/>
+        <v>924.505</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="A235" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="50">
+        <f t="shared" ref="B235:B252" si="73">$B$233</f>
+        <v>22112019</v>
+      </c>
+      <c r="C235" s="50">
+        <v>1140</v>
+      </c>
+      <c r="D235" s="50">
+        <v>524.27</v>
+      </c>
+      <c r="E235" s="50">
+        <v>150</v>
+      </c>
+      <c r="F235" s="50">
+        <v>524.09</v>
+      </c>
+      <c r="G235" s="50">
+        <f t="shared" ref="G235:G252" si="74">$G$233</f>
+        <v>15</v>
+      </c>
+      <c r="H235" s="50">
+        <f t="shared" ref="H235:H252" si="75">$H$233</f>
+        <v>999.23</v>
+      </c>
+      <c r="I235" s="50">
+        <f t="shared" ref="I235:I252" si="76">$I$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="J235" s="50">
+        <f t="shared" ref="J235:J252" si="77">$J$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="K235" s="50"/>
+      <c r="L235" s="51">
+        <f t="shared" ref="L235:L252" si="78">$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M235" s="51">
+        <f>(1-L235)-((E235/100)*'Water column'!$B$26)</f>
+        <v>0.83249999999999991</v>
+      </c>
+      <c r="N235" s="51">
+        <f>H235-(M235-L235)*98</f>
+        <v>924.505</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C236" s="50">
+        <v>1145</v>
+      </c>
+      <c r="D236" s="50">
+        <v>525.75</v>
+      </c>
+      <c r="E236" s="50">
+        <v>140</v>
+      </c>
+      <c r="F236" s="50">
+        <v>525.59</v>
+      </c>
+      <c r="G236" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H236" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I236" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J236" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K236" s="50"/>
+      <c r="L236" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M236" s="51">
+        <f>(1-L236)-((E236/100)*'Water column'!$B$26)</f>
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="N236" s="51">
+        <f t="shared" ref="N236:N250" si="79">H236-(M236-L236)*98</f>
+        <v>923.86800000000005</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="A237" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B237" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C237" s="50">
+        <v>1145</v>
+      </c>
+      <c r="D237" s="50">
+        <v>521.45000000000005</v>
+      </c>
+      <c r="E237" s="50">
+        <v>135</v>
+      </c>
+      <c r="F237" s="50">
+        <v>521.29999999999995</v>
+      </c>
+      <c r="G237" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H237" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I237" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J237" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K237" s="50"/>
+      <c r="L237" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M237" s="51">
+        <f>(1-L237)-((E237/100)*'Water column'!$B$26)</f>
+        <v>0.84224999999999994</v>
+      </c>
+      <c r="N237" s="51">
+        <f t="shared" si="79"/>
+        <v>923.54950000000008</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="A238" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B238" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C238" s="50">
+        <v>1145</v>
+      </c>
+      <c r="D238" s="50">
+        <v>523.13</v>
+      </c>
+      <c r="E238" s="50">
+        <v>135</v>
+      </c>
+      <c r="F238" s="50">
+        <v>522.97</v>
+      </c>
+      <c r="G238" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H238" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I238" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J238" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K238" s="50"/>
+      <c r="L238" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M238" s="51">
+        <f>(1-L238)-((E238/100)*'Water column'!$B$26)</f>
+        <v>0.84224999999999994</v>
+      </c>
+      <c r="N238" s="51">
+        <f t="shared" si="79"/>
+        <v>923.54950000000008</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
+      <c r="A239" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B239" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C239" s="50">
+        <v>1128</v>
+      </c>
+      <c r="D239" s="50">
+        <v>529.32000000000005</v>
+      </c>
+      <c r="E239" s="50">
+        <v>160</v>
+      </c>
+      <c r="F239" s="50">
+        <v>529.16999999999996</v>
+      </c>
+      <c r="G239" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H239" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I239" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J239" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K239" s="50"/>
+      <c r="L239" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M239" s="51">
+        <f>(1-L239)-((E239/100)*'Water column'!$B$26)</f>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="N239" s="51">
+        <f t="shared" si="79"/>
+        <v>925.14200000000005</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="A240" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B240" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C240" s="50">
+        <v>1128</v>
+      </c>
+      <c r="D240" s="50">
+        <v>526.17999999999995</v>
+      </c>
+      <c r="E240" s="50">
+        <v>160</v>
+      </c>
+      <c r="F240" s="50">
+        <v>525.99</v>
+      </c>
+      <c r="G240" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H240" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I240" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J240" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K240" s="50"/>
+      <c r="L240" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M240" s="51">
+        <f>(1-L240)-((E240/100)*'Water column'!$B$26)</f>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="N240" s="51">
+        <f t="shared" si="79"/>
+        <v>925.14200000000005</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
+      <c r="A241" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B241" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C241" s="50">
+        <v>1128</v>
+      </c>
+      <c r="D241" s="50">
+        <v>524.87</v>
+      </c>
+      <c r="E241" s="50">
+        <v>155</v>
+      </c>
+      <c r="F241" s="50">
+        <v>524.67999999999995</v>
+      </c>
+      <c r="G241" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H241" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I241" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J241" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K241" s="50"/>
+      <c r="L241" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M241" s="51">
+        <f>(1-L241)-((E241/100)*'Water column'!$B$26)</f>
+        <v>0.82924999999999993</v>
+      </c>
+      <c r="N241" s="51">
+        <f t="shared" si="79"/>
+        <v>924.82349999999997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
+      <c r="A242" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B242" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C242" s="50">
+        <v>1050</v>
+      </c>
+      <c r="D242" s="50">
+        <v>535.41999999999996</v>
+      </c>
+      <c r="E242" s="50">
+        <v>90</v>
+      </c>
+      <c r="F242" s="50">
+        <v>535.38</v>
+      </c>
+      <c r="G242" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H242" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I242" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J242" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K242" s="50"/>
+      <c r="L242" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M242" s="51">
+        <f>(1-L242)-((E242/100)*'Water column'!$B$26)</f>
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="N242" s="51">
+        <f t="shared" si="79"/>
+        <v>920.68299999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
+      <c r="A243" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B243" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C243" s="50">
+        <v>1050</v>
+      </c>
+      <c r="D243" s="50">
+        <v>529.87</v>
+      </c>
+      <c r="E243" s="50">
+        <v>185</v>
+      </c>
+      <c r="F243" s="50">
+        <v>529.73</v>
+      </c>
+      <c r="G243" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H243" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I243" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J243" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K243" s="50"/>
+      <c r="L243" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M243" s="51">
+        <f>(1-L243)-((E243/100)*'Water column'!$B$26)</f>
+        <v>0.80974999999999997</v>
+      </c>
+      <c r="N243" s="51">
+        <f t="shared" si="79"/>
+        <v>926.73450000000003</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
+      <c r="A244" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B244" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C244" s="50">
+        <v>1050</v>
+      </c>
+      <c r="D244" s="50">
+        <v>523.59</v>
+      </c>
+      <c r="E244" s="50">
+        <v>160</v>
+      </c>
+      <c r="F244" s="50">
+        <v>523.42999999999995</v>
+      </c>
+      <c r="G244" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H244" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I244" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J244" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K244" s="50"/>
+      <c r="L244" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M244" s="51">
+        <f>(1-L244)-((E244/100)*'Water column'!$B$26)</f>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="N244" s="51">
+        <f t="shared" si="79"/>
+        <v>925.14200000000005</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
+      <c r="A245" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B245" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C245" s="50">
+        <v>1133</v>
+      </c>
+      <c r="D245" s="50">
+        <v>519.29</v>
+      </c>
+      <c r="E245" s="50">
+        <v>95</v>
+      </c>
+      <c r="F245" s="50">
+        <v>519.19000000000005</v>
+      </c>
+      <c r="G245" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H245" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I245" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J245" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K245" s="50"/>
+      <c r="L245" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M245" s="51">
+        <f>(1-L245)-((E245/100)*'Water column'!$B$26)</f>
+        <v>0.86824999999999997</v>
+      </c>
+      <c r="N245" s="51">
+        <f t="shared" si="79"/>
+        <v>921.00150000000008</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
+      <c r="A246" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B246" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C246" s="50">
+        <v>1133</v>
+      </c>
+      <c r="D246" s="50">
+        <v>524.63</v>
+      </c>
+      <c r="E246" s="50">
+        <v>95</v>
+      </c>
+      <c r="F246" s="50">
+        <v>524.53</v>
+      </c>
+      <c r="G246" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H246" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I246" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J246" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K246" s="50"/>
+      <c r="L246" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M246" s="51">
+        <f>(1-L246)-((E246/100)*'Water column'!$B$26)</f>
+        <v>0.86824999999999997</v>
+      </c>
+      <c r="N246" s="51">
+        <f t="shared" si="79"/>
+        <v>921.00150000000008</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
+      <c r="A247" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B247" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C247" s="50">
+        <v>1133</v>
+      </c>
+      <c r="D247" s="50">
+        <v>523</v>
+      </c>
+      <c r="E247" s="50">
+        <v>90</v>
+      </c>
+      <c r="F247" s="50">
+        <v>522.92999999999995</v>
+      </c>
+      <c r="G247" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H247" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I247" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J247" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K247" s="50"/>
+      <c r="L247" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M247" s="51">
+        <f>(1-L247)-((E247/100)*'Water column'!$B$26)</f>
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="N247" s="51">
+        <f t="shared" si="79"/>
+        <v>920.68299999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
+      <c r="A248" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B248" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C248" s="50">
+        <v>1058</v>
+      </c>
+      <c r="D248" s="50">
+        <v>522.35</v>
+      </c>
+      <c r="E248" s="50">
+        <v>55</v>
+      </c>
+      <c r="F248" s="50">
+        <v>522.33000000000004</v>
+      </c>
+      <c r="G248" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H248" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I248" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J248" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K248" s="50"/>
+      <c r="L248" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M248" s="51">
+        <f>(1-L248)-((E248/100)*'Water column'!$B$26)</f>
+        <v>0.89424999999999999</v>
+      </c>
+      <c r="N248" s="51">
+        <f t="shared" si="79"/>
+        <v>918.45350000000008</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
+      <c r="A249" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B249" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C249" s="50">
+        <v>1058</v>
+      </c>
+      <c r="D249" s="50">
+        <v>521.91999999999996</v>
+      </c>
+      <c r="E249" s="50">
+        <v>45</v>
+      </c>
+      <c r="F249" s="50">
+        <v>521.89</v>
+      </c>
+      <c r="G249" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H249" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I249" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J249" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K249" s="50"/>
+      <c r="L249" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M249" s="51">
+        <f>(1-L249)-((E249/100)*'Water column'!$B$26)</f>
+        <v>0.90074999999999994</v>
+      </c>
+      <c r="N249" s="51">
+        <f t="shared" si="79"/>
+        <v>917.81650000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
+      <c r="A250" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B250" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C250" s="50">
+        <v>1058</v>
+      </c>
+      <c r="D250" s="50">
+        <v>522.54999999999995</v>
+      </c>
+      <c r="E250" s="50">
+        <v>50</v>
+      </c>
+      <c r="F250" s="50">
+        <v>522.54</v>
+      </c>
+      <c r="G250" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H250" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I250" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J250" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K250" s="50"/>
+      <c r="L250" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M250" s="51">
+        <f>(1-L250)-((E250/100)*'Water column'!$B$26)</f>
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="N250" s="51">
+        <f t="shared" si="79"/>
+        <v>918.13499999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
+      <c r="A251" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B251" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C251" s="25">
+        <v>1045</v>
+      </c>
+      <c r="D251" s="25">
+        <v>527.16</v>
+      </c>
+      <c r="E251" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F251" s="25">
+        <v>527.17999999999995</v>
+      </c>
+      <c r="G251" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H251" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I251" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J251" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K251" s="51"/>
+      <c r="L251" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M251" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="N251" s="51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
+      <c r="A252" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B252" s="50">
+        <f t="shared" si="73"/>
+        <v>22112019</v>
+      </c>
+      <c r="C252" s="25">
+        <v>1045</v>
+      </c>
+      <c r="D252" s="25">
+        <v>528.07000000000005</v>
+      </c>
+      <c r="E252" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F252" s="25">
+        <v>528.09</v>
+      </c>
+      <c r="G252" s="50">
+        <f t="shared" si="74"/>
+        <v>15</v>
+      </c>
+      <c r="H252" s="50">
+        <f t="shared" si="75"/>
+        <v>999.23</v>
+      </c>
+      <c r="I252" s="50">
+        <f t="shared" si="76"/>
+        <v>52.5</v>
+      </c>
+      <c r="J252" s="50">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="K252" s="51"/>
+      <c r="L252" s="51">
+        <f t="shared" si="78"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M252" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="N252" s="51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
+      <c r="A253" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B253" s="50">
+        <v>9122019</v>
+      </c>
+      <c r="C253" s="50">
+        <v>1354</v>
+      </c>
+      <c r="D253" s="50">
+        <v>523.71</v>
+      </c>
+      <c r="E253" s="50">
+        <v>160</v>
+      </c>
+      <c r="F253" s="50">
+        <v>523.55999999999995</v>
+      </c>
+      <c r="G253" s="50">
+        <f>$G$252</f>
+        <v>15</v>
+      </c>
+      <c r="H253" s="50">
+        <v>1003.15</v>
+      </c>
+      <c r="I253" s="50">
+        <v>52.5</v>
+      </c>
+      <c r="J253" s="50">
+        <v>52.5</v>
+      </c>
+      <c r="K253" s="50"/>
+      <c r="L253" s="51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M253" s="51">
+        <f>(1-L253)-((E253/100)*'Water column'!$B$26)</f>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="N253" s="51">
+        <f t="shared" ref="N253:N254" si="80">H253-(M253-L253)*98</f>
+        <v>929.06200000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
+      <c r="A254" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B254" s="50">
+        <v>9122019</v>
+      </c>
+      <c r="C254" s="50">
+        <v>1354</v>
+      </c>
+      <c r="D254" s="50">
+        <v>522.83000000000004</v>
+      </c>
+      <c r="E254" s="50">
+        <v>140</v>
+      </c>
+      <c r="F254" s="50">
+        <v>522.72</v>
+      </c>
+      <c r="G254" s="50">
+        <f t="shared" ref="G254:G272" si="81">$G$252</f>
+        <v>15</v>
+      </c>
+      <c r="H254" s="50">
+        <f>$H$253</f>
+        <v>1003.15</v>
+      </c>
+      <c r="I254" s="50">
+        <f>$I$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="J254" s="50">
+        <f>$J$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="K254" s="50"/>
+      <c r="L254" s="51">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M254" s="51">
+        <f>(1-L254)-((E254/100)*'Water column'!$B$26)</f>
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="N254" s="51">
+        <f t="shared" si="80"/>
+        <v>927.78800000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
+      <c r="A255" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B255" s="50">
+        <f>$B$254</f>
+        <v>9122019</v>
+      </c>
+      <c r="C255" s="50">
+        <v>1354</v>
+      </c>
+      <c r="D255" s="50">
+        <v>524.05999999999995</v>
+      </c>
+      <c r="E255" s="50">
+        <v>145</v>
+      </c>
+      <c r="F255" s="50">
+        <v>523.9</v>
+      </c>
+      <c r="G255" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H255" s="50">
+        <f t="shared" ref="H255:H272" si="82">$H$253</f>
+        <v>1003.15</v>
+      </c>
+      <c r="I255" s="50">
+        <f t="shared" ref="I255:I272" si="83">$I$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="J255" s="50">
+        <f t="shared" ref="J255:J272" si="84">$J$5</f>
+        <v>52.5</v>
+      </c>
+      <c r="K255" s="50"/>
+      <c r="L255" s="51">
+        <f t="shared" ref="L255:L272" si="85">$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M255" s="51">
+        <f>(1-L255)-((E255/100)*'Water column'!$B$26)</f>
+        <v>0.83574999999999999</v>
+      </c>
+      <c r="N255" s="51">
+        <f>H255-(M255-L255)*98</f>
+        <v>928.10649999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
+      <c r="A256" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" s="50">
+        <f t="shared" ref="B256:B272" si="86">$B$254</f>
+        <v>9122019</v>
+      </c>
+      <c r="C256" s="50">
+        <v>1347</v>
+      </c>
+      <c r="D256" s="50">
+        <v>525.55999999999995</v>
+      </c>
+      <c r="E256" s="50">
+        <v>140</v>
+      </c>
+      <c r="F256" s="50">
+        <v>525.45000000000005</v>
+      </c>
+      <c r="G256" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H256" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I256" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J256" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K256" s="50"/>
+      <c r="L256" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M256" s="51">
+        <f>(1-L256)-((E256/100)*'Water column'!$B$26)</f>
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="N256" s="51">
+        <f t="shared" ref="N256:N270" si="87">H256-(M256-L256)*98</f>
+        <v>927.78800000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
+      <c r="A257" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C257" s="50">
+        <v>1347</v>
+      </c>
+      <c r="D257" s="50">
+        <v>521.28</v>
+      </c>
+      <c r="E257" s="50">
+        <v>130</v>
+      </c>
+      <c r="F257" s="50">
+        <v>521.19000000000005</v>
+      </c>
+      <c r="G257" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H257" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I257" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J257" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K257" s="50"/>
+      <c r="L257" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M257" s="51">
+        <f>(1-L257)-((E257/100)*'Water column'!$B$26)</f>
+        <v>0.84549999999999992</v>
+      </c>
+      <c r="N257" s="51">
+        <f t="shared" si="87"/>
+        <v>927.15099999999995</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
+      <c r="A258" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B258" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C258" s="50">
+        <v>1347</v>
+      </c>
+      <c r="D258" s="50">
+        <v>522.98</v>
+      </c>
+      <c r="E258" s="50">
+        <v>130</v>
+      </c>
+      <c r="F258" s="50">
+        <v>522.83000000000004</v>
+      </c>
+      <c r="G258" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H258" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I258" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J258" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K258" s="50"/>
+      <c r="L258" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M258" s="51">
+        <f>(1-L258)-((E258/100)*'Water column'!$B$26)</f>
+        <v>0.84549999999999992</v>
+      </c>
+      <c r="N258" s="51">
+        <f t="shared" si="87"/>
+        <v>927.15099999999995</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
+      <c r="A259" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B259" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C259" s="50">
+        <v>1342</v>
+      </c>
+      <c r="D259" s="50">
+        <v>529.12</v>
+      </c>
+      <c r="E259" s="50">
+        <v>170</v>
+      </c>
+      <c r="F259" s="50">
+        <v>528.95000000000005</v>
+      </c>
+      <c r="G259" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H259" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I259" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J259" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K259" s="50"/>
+      <c r="L259" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M259" s="51">
+        <f>(1-L259)-((E259/100)*'Water column'!$B$26)</f>
+        <v>0.8194999999999999</v>
+      </c>
+      <c r="N259" s="51">
+        <f t="shared" si="87"/>
+        <v>929.69899999999996</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
+      <c r="A260" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B260" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C260" s="50">
+        <v>1342</v>
+      </c>
+      <c r="D260" s="50">
+        <v>525.94000000000005</v>
+      </c>
+      <c r="E260" s="50">
+        <v>155</v>
+      </c>
+      <c r="F260" s="50">
+        <v>525.79999999999995</v>
+      </c>
+      <c r="G260" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H260" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I260" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J260" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K260" s="50"/>
+      <c r="L260" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M260" s="51">
+        <f>(1-L260)-((E260/100)*'Water column'!$B$26)</f>
+        <v>0.82924999999999993</v>
+      </c>
+      <c r="N260" s="51">
+        <f t="shared" si="87"/>
+        <v>928.74350000000004</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
+      <c r="A261" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B261" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C261" s="50">
+        <v>1342</v>
+      </c>
+      <c r="D261" s="50">
+        <v>524.63</v>
+      </c>
+      <c r="E261" s="50">
+        <v>150</v>
+      </c>
+      <c r="F261" s="50">
+        <v>524.48</v>
+      </c>
+      <c r="G261" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H261" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I261" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J261" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K261" s="50"/>
+      <c r="L261" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M261" s="51">
+        <f>(1-L261)-((E261/100)*'Water column'!$B$26)</f>
+        <v>0.83249999999999991</v>
+      </c>
+      <c r="N261" s="51">
+        <f t="shared" si="87"/>
+        <v>928.42499999999995</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
+      <c r="A262" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B262" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C262" s="50">
+        <v>1313</v>
+      </c>
+      <c r="D262" s="50">
+        <v>535.35</v>
+      </c>
+      <c r="E262" s="50">
+        <v>160</v>
+      </c>
+      <c r="F262" s="50">
+        <v>535.19000000000005</v>
+      </c>
+      <c r="G262" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H262" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I262" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J262" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K262" s="50"/>
+      <c r="L262" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M262" s="51">
+        <f>(1-L262)-((E262/100)*'Water column'!$B$26)</f>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="N262" s="51">
+        <f t="shared" si="87"/>
+        <v>929.06200000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
+      <c r="A263" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B263" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C263" s="50">
+        <v>1313</v>
+      </c>
+      <c r="D263" s="50">
+        <v>529.71</v>
+      </c>
+      <c r="E263" s="50">
+        <v>160</v>
+      </c>
+      <c r="F263" s="50">
+        <v>529.54999999999995</v>
+      </c>
+      <c r="G263" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H263" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I263" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J263" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K263" s="50"/>
+      <c r="L263" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M263" s="51">
+        <f>(1-L263)-((E263/100)*'Water column'!$B$26)</f>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="N263" s="51">
+        <f t="shared" si="87"/>
+        <v>929.06200000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
+      <c r="A264" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B264" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C264" s="50">
+        <v>1313</v>
+      </c>
+      <c r="D264" s="50">
+        <v>523.4</v>
+      </c>
+      <c r="E264" s="50">
+        <v>170</v>
+      </c>
+      <c r="F264" s="50">
+        <v>523.19000000000005</v>
+      </c>
+      <c r="G264" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H264" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I264" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J264" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K264" s="50"/>
+      <c r="L264" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M264" s="51">
+        <f>(1-L264)-((E264/100)*'Water column'!$B$26)</f>
+        <v>0.8194999999999999</v>
+      </c>
+      <c r="N264" s="51">
+        <f t="shared" si="87"/>
+        <v>929.69899999999996</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
+      <c r="A265" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B265" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C265" s="50">
+        <v>1336</v>
+      </c>
+      <c r="D265" s="50">
+        <v>519.16</v>
+      </c>
+      <c r="E265" s="50">
+        <v>100</v>
+      </c>
+      <c r="F265" s="50">
+        <v>519.08000000000004</v>
+      </c>
+      <c r="G265" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H265" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I265" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J265" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K265" s="50"/>
+      <c r="L265" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M265" s="51">
+        <f>(1-L265)-((E265/100)*'Water column'!$B$26)</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="N265" s="51">
+        <f t="shared" si="87"/>
+        <v>925.24</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
+      <c r="A266" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B266" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C266" s="50">
+        <v>1336</v>
+      </c>
+      <c r="D266" s="50">
+        <v>524.51</v>
+      </c>
+      <c r="E266" s="50">
+        <v>90</v>
+      </c>
+      <c r="F266" s="50">
+        <v>524.41</v>
+      </c>
+      <c r="G266" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H266" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I266" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J266" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K266" s="50"/>
+      <c r="L266" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M266" s="51">
+        <f>(1-L266)-((E266/100)*'Water column'!$B$26)</f>
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="N266" s="51">
+        <f t="shared" si="87"/>
+        <v>924.60299999999995</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
+      <c r="A267" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B267" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C267" s="50">
+        <v>1336</v>
+      </c>
+      <c r="D267" s="50">
+        <v>522.91999999999996</v>
+      </c>
+      <c r="E267" s="50">
+        <v>95</v>
+      </c>
+      <c r="F267" s="50">
+        <v>522.82000000000005</v>
+      </c>
+      <c r="G267" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H267" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I267" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J267" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K267" s="50"/>
+      <c r="L267" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M267" s="51">
+        <f>(1-L267)-((E267/100)*'Water column'!$B$26)</f>
+        <v>0.86824999999999997</v>
+      </c>
+      <c r="N267" s="51">
+        <f t="shared" si="87"/>
+        <v>924.92149999999992</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
+      <c r="A268" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B268" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C268" s="50">
+        <v>1308</v>
+      </c>
+      <c r="D268" s="50">
+        <v>522.30999999999995</v>
+      </c>
+      <c r="E268" s="50">
+        <v>90</v>
+      </c>
+      <c r="F268" s="50">
+        <v>522.23</v>
+      </c>
+      <c r="G268" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H268" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I268" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J268" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K268" s="50"/>
+      <c r="L268" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M268" s="51">
+        <f>(1-L268)-((E268/100)*'Water column'!$B$26)</f>
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="N268" s="51">
+        <f t="shared" si="87"/>
+        <v>924.60299999999995</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
+      <c r="A269" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B269" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C269" s="50">
+        <v>1308</v>
+      </c>
+      <c r="D269" s="50">
+        <v>521.85</v>
+      </c>
+      <c r="E269" s="50">
+        <v>70</v>
+      </c>
+      <c r="F269" s="50">
+        <v>521.79</v>
+      </c>
+      <c r="G269" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H269" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I269" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J269" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K269" s="50"/>
+      <c r="L269" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M269" s="51">
+        <f>(1-L269)-((E269/100)*'Water column'!$B$26)</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="N269" s="51">
+        <f t="shared" si="87"/>
+        <v>923.32899999999995</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
+      <c r="A270" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B270" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C270" s="50">
+        <v>1308</v>
+      </c>
+      <c r="D270" s="50">
+        <v>522.52</v>
+      </c>
+      <c r="E270" s="50">
+        <v>70</v>
+      </c>
+      <c r="F270" s="50">
+        <v>522.47</v>
+      </c>
+      <c r="G270" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H270" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I270" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J270" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K270" s="50"/>
+      <c r="L270" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M270" s="51">
+        <f>(1-L270)-((E270/100)*'Water column'!$B$26)</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="N270" s="51">
+        <f t="shared" si="87"/>
+        <v>923.32899999999995</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
+      <c r="A271" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B271" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C271" s="25">
+        <v>1306</v>
+      </c>
+      <c r="D271" s="25">
+        <v>527.16999999999996</v>
+      </c>
+      <c r="E271" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F271" s="25">
+        <v>527.21</v>
+      </c>
+      <c r="G271" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H271" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I271" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J271" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K271" s="51"/>
+      <c r="L271" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M271" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="N271" s="51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
+      <c r="A272" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B272" s="50">
+        <f t="shared" si="86"/>
+        <v>9122019</v>
+      </c>
+      <c r="C272" s="25">
+        <v>1306</v>
+      </c>
+      <c r="D272" s="25">
+        <v>528.09</v>
+      </c>
+      <c r="E272" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F272" s="25">
+        <v>528.11</v>
+      </c>
+      <c r="G272" s="50">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
+      <c r="H272" s="50">
+        <f t="shared" si="82"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I272" s="50">
+        <f t="shared" si="83"/>
+        <v>52.5</v>
+      </c>
+      <c r="J272" s="50">
+        <f t="shared" si="84"/>
+        <v>52.5</v>
+      </c>
+      <c r="K272" s="51"/>
+      <c r="L272" s="51">
+        <f t="shared" si="85"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M272" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="N272" s="51" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13600,34 +16109,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14866,6 +17375,262 @@
       <c r="E68" s="20">
         <f t="shared" si="13"/>
         <v>0.59193647934077309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="19">
+        <v>13112019</v>
+      </c>
+      <c r="C69" s="26">
+        <v>0.60396000000000005</v>
+      </c>
+      <c r="D69" s="20">
+        <v>0.27787000000000001</v>
+      </c>
+      <c r="E69" s="20">
+        <f t="shared" ref="E69:E70" si="15">C69/(C69+D69)</f>
+        <v>0.68489391379290787</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="19">
+        <v>13112019</v>
+      </c>
+      <c r="C70" s="26">
+        <v>0.35314000000000001</v>
+      </c>
+      <c r="D70" s="35">
+        <v>0.22231000000000001</v>
+      </c>
+      <c r="E70" s="20">
+        <f t="shared" si="15"/>
+        <v>0.61367625336693021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="19">
+        <v>22112019</v>
+      </c>
+      <c r="C71" s="26">
+        <v>0.48987999999999998</v>
+      </c>
+      <c r="D71" s="35">
+        <v>0.34018999999999999</v>
+      </c>
+      <c r="E71" s="20">
+        <f t="shared" ref="E71:E76" si="16">C71/(C71+D71)</f>
+        <v>0.5901670943414411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="19">
+        <v>22112019</v>
+      </c>
+      <c r="C72" s="26">
+        <v>0.52268000000000003</v>
+      </c>
+      <c r="D72" s="20">
+        <v>0.33348</v>
+      </c>
+      <c r="E72" s="20">
+        <f t="shared" si="16"/>
+        <v>0.61049336572603252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="19">
+        <f t="shared" ref="B73:B76" si="17">B72</f>
+        <v>22112019</v>
+      </c>
+      <c r="C73" s="26">
+        <v>0.50936999999999999</v>
+      </c>
+      <c r="D73" s="20">
+        <v>0.34759000000000001</v>
+      </c>
+      <c r="E73" s="20">
+        <f t="shared" si="16"/>
+        <v>0.59439180358476473</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="19">
+        <f t="shared" si="17"/>
+        <v>22112019</v>
+      </c>
+      <c r="C74" s="26">
+        <v>0.55386000000000002</v>
+      </c>
+      <c r="D74" s="20">
+        <v>0.28231000000000001</v>
+      </c>
+      <c r="E74" s="20">
+        <f t="shared" si="16"/>
+        <v>0.66237726778047523</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="19">
+        <f t="shared" si="17"/>
+        <v>22112019</v>
+      </c>
+      <c r="C75" s="26">
+        <v>0.50292000000000003</v>
+      </c>
+      <c r="D75" s="26">
+        <v>0.34653</v>
+      </c>
+      <c r="E75" s="20">
+        <f t="shared" si="16"/>
+        <v>0.59205368179410212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="19">
+        <f t="shared" si="17"/>
+        <v>22112019</v>
+      </c>
+      <c r="C76" s="26">
+        <v>0.38279000000000002</v>
+      </c>
+      <c r="D76" s="35">
+        <v>0.23227</v>
+      </c>
+      <c r="E76" s="20">
+        <f t="shared" si="16"/>
+        <v>0.62236204597925404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="19">
+        <v>9122019</v>
+      </c>
+      <c r="C77" s="26">
+        <v>0.49308000000000002</v>
+      </c>
+      <c r="D77" s="35">
+        <v>0.39066000000000001</v>
+      </c>
+      <c r="E77" s="20">
+        <f t="shared" ref="E77:E82" si="18">C77/(C77+D77)</f>
+        <v>0.55794690746147058</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="19">
+        <v>9122019</v>
+      </c>
+      <c r="C78" s="26">
+        <v>0.51700999999999997</v>
+      </c>
+      <c r="D78" s="20">
+        <v>0.37667</v>
+      </c>
+      <c r="E78" s="20">
+        <f t="shared" si="18"/>
+        <v>0.57851803777638522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="19">
+        <v>9122019</v>
+      </c>
+      <c r="C79" s="26">
+        <v>0.49612000000000001</v>
+      </c>
+      <c r="D79" s="20">
+        <v>0.37708999999999998</v>
+      </c>
+      <c r="E79" s="20">
+        <f t="shared" si="18"/>
+        <v>0.56815657172959533</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="19">
+        <v>9122019</v>
+      </c>
+      <c r="C80" s="26">
+        <v>0.56101999999999996</v>
+      </c>
+      <c r="D80" s="20">
+        <v>0.31885999999999998</v>
+      </c>
+      <c r="E80" s="20">
+        <f t="shared" si="18"/>
+        <v>0.63760967404646085</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="19">
+        <v>9122019</v>
+      </c>
+      <c r="C81" s="26">
+        <v>0.49293999999999999</v>
+      </c>
+      <c r="D81" s="26">
+        <v>0.37230000000000002</v>
+      </c>
+      <c r="E81" s="20">
+        <f t="shared" si="18"/>
+        <v>0.56971476122231979</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="19">
+        <v>9122019</v>
+      </c>
+      <c r="C82" s="26">
+        <v>0.44031999999999999</v>
+      </c>
+      <c r="D82" s="35">
+        <v>0.28921999999999998</v>
+      </c>
+      <c r="E82" s="20">
+        <f t="shared" si="18"/>
+        <v>0.60355840666721494</v>
       </c>
     </row>
   </sheetData>
@@ -14891,40 +17656,40 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16">
       <c r="A1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>69</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>73</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>74</v>
       </c>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="12">
         <v>0.5</v>
@@ -14953,7 +17718,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -14982,7 +17747,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="12">
         <v>5</v>
@@ -15015,7 +17780,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="12">
         <v>10</v>
@@ -15044,7 +17809,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="12">
         <v>30</v>
@@ -15114,7 +17879,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -15129,40 +17894,40 @@
     </row>
     <row r="11" spans="1:11" ht="16">
       <c r="A11" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="C11" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="D11" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>69</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="H11" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="I11" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="J11" s="29" t="s">
         <v>73</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>74</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="30">
         <v>0.5</v>
@@ -15193,7 +17958,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="30">
         <v>1</v>
@@ -15222,7 +17987,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="30">
         <v>5</v>
@@ -15255,7 +18020,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="30">
         <v>10</v>
@@ -15284,7 +18049,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="30">
         <v>30</v>
@@ -15443,7 +18208,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="2">
         <v>819.2</v>
@@ -15460,7 +18225,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2">
         <v>871.37599999999998</v>
@@ -15490,13 +18255,13 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -15509,13 +18274,13 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -15548,7 +18313,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -15646,7 +18411,7 @@
         <v>46</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>38</v>
@@ -15666,7 +18431,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="9">
         <v>14102019</v>
@@ -15726,7 +18491,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="9">
         <f>$B$5</f>
@@ -15791,7 +18556,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="9">
         <f>$B$6</f>
@@ -15856,7 +18621,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="9">
         <f t="shared" ref="B8:B13" si="9">$B$6</f>
@@ -15921,7 +18686,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="9">
         <f t="shared" si="9"/>
@@ -15986,7 +18751,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="9">
         <f t="shared" si="9"/>
@@ -16062,7 +18827,7 @@
         <v>1315</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="9">
         <v>324.72000000000003</v>
@@ -16128,7 +18893,7 @@
         <v>1315</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="9">
         <v>321.07</v>
@@ -16194,7 +18959,7 @@
         <v>1315</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="9">
         <v>326.20999999999998</v>
@@ -16265,10 +19030,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="P72" sqref="P72"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16376,18 +19141,18 @@
         <v>17</v>
       </c>
       <c r="L4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="N4" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="9">
         <v>16102019</v>
@@ -16431,7 +19196,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="9">
         <f>$B$5</f>
@@ -16481,7 +19246,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="9">
         <f>$B$6</f>
@@ -16531,7 +19296,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="9">
         <f t="shared" ref="B8:B13" si="6">$B$6</f>
@@ -16581,7 +19346,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="9">
         <f t="shared" si="6"/>
@@ -16631,7 +19396,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="9">
         <f t="shared" si="6"/>
@@ -16831,7 +19596,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="9">
         <f>$B$6</f>
@@ -16879,7 +19644,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="9">
         <f>$B$6</f>
@@ -16927,7 +19692,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="9">
         <v>18102019</v>
@@ -16971,7 +19736,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="9">
         <f>$B$16</f>
@@ -17021,7 +19786,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="9">
         <f t="shared" ref="B18:B26" si="9">$B$16</f>
@@ -17071,7 +19836,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="9">
         <f t="shared" si="9"/>
@@ -17121,7 +19886,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="9">
         <f t="shared" si="9"/>
@@ -17171,7 +19936,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="9">
         <f t="shared" si="9"/>
@@ -17371,7 +20136,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="9">
         <f t="shared" si="9"/>
@@ -17419,7 +20184,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="9">
         <f t="shared" si="9"/>
@@ -17467,7 +20232,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="9">
         <v>21102019</v>
@@ -17513,7 +20278,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="9">
         <f>$B$27</f>
@@ -17563,7 +20328,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="9">
         <f t="shared" ref="B29:B37" si="19">$B$27</f>
@@ -17611,7 +20376,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="9">
         <f t="shared" si="19"/>
@@ -17661,7 +20426,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="9">
         <f t="shared" si="19"/>
@@ -17709,7 +20474,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="9">
         <f t="shared" si="19"/>
@@ -17905,7 +20670,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="9">
         <f t="shared" si="19"/>
@@ -17953,7 +20718,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="9">
         <f t="shared" si="19"/>
@@ -17999,7 +20764,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="9">
         <v>23102019</v>
@@ -18047,7 +20812,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="9">
         <f>$B$38</f>
@@ -18097,7 +20862,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="9">
         <f t="shared" ref="B40:B48" si="33">$B$38</f>
@@ -18147,7 +20912,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="9">
         <f t="shared" si="33"/>
@@ -18197,7 +20962,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="9">
         <f t="shared" si="33"/>
@@ -18247,7 +21012,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="9">
         <f t="shared" si="33"/>
@@ -18447,7 +21212,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="9">
         <f t="shared" si="33"/>
@@ -18493,7 +21258,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="9">
         <f t="shared" si="33"/>
@@ -18541,7 +21306,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B49" s="9">
         <v>28102019</v>
@@ -18587,7 +21352,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" s="9">
         <f>$B$49</f>
@@ -18637,7 +21402,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="9">
         <f t="shared" ref="B51:B59" si="37">$B$49</f>
@@ -18687,7 +21452,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" s="9">
         <f t="shared" si="37"/>
@@ -18737,7 +21502,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" s="9">
         <f t="shared" si="37"/>
@@ -18787,7 +21552,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="9">
         <f t="shared" si="37"/>
@@ -18987,7 +21752,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="9">
         <f t="shared" si="37"/>
@@ -19035,7 +21800,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="9">
         <f t="shared" si="37"/>
@@ -19083,7 +21848,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60" s="9">
         <f t="shared" ref="B60:B67" si="42">$B$69</f>
@@ -19132,7 +21897,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" s="9">
         <f t="shared" si="42"/>
@@ -19182,7 +21947,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62" s="9">
         <f t="shared" si="42"/>
@@ -19232,7 +21997,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="9">
         <f t="shared" si="42"/>
@@ -19282,7 +22047,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="9">
         <f t="shared" si="42"/>
@@ -19332,7 +22097,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="9">
         <f t="shared" si="42"/>
@@ -19532,7 +22297,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B69" s="9">
         <v>1112019</v>
@@ -19577,7 +22342,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B70" s="9">
         <v>1112019</v>
@@ -19622,7 +22387,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B71" s="9">
         <v>6112019</v>
@@ -19668,7 +22433,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" s="9">
         <f>$B$71</f>
@@ -19718,7 +22483,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73" s="9">
         <f t="shared" ref="B73:B81" si="49">$B$71</f>
@@ -19737,7 +22502,7 @@
         <v>531.5</v>
       </c>
       <c r="G73" s="9">
-        <f t="shared" ref="G73:G81" si="50">$G$71</f>
+        <f t="shared" ref="G73:G92" si="50">$G$71</f>
         <v>14</v>
       </c>
       <c r="H73" s="9">
@@ -19768,7 +22533,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B74" s="9">
         <f t="shared" si="49"/>
@@ -19818,7 +22583,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B75" s="9">
         <f t="shared" si="49"/>
@@ -19868,7 +22633,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B76" s="9">
         <f t="shared" si="49"/>
@@ -20068,7 +22833,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B80" s="9">
         <f t="shared" si="49"/>
@@ -20116,7 +22881,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B81" s="9">
         <f t="shared" si="49"/>
@@ -20159,6 +22924,1533 @@
         <v>18</v>
       </c>
       <c r="N81" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C82" s="9">
+        <v>1208</v>
+      </c>
+      <c r="D82" s="9">
+        <v>531.67999999999995</v>
+      </c>
+      <c r="E82" s="9">
+        <v>210</v>
+      </c>
+      <c r="F82" s="9">
+        <v>531.47</v>
+      </c>
+      <c r="G82" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H82" s="9">
+        <v>1001.13</v>
+      </c>
+      <c r="I82" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J82" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K82" s="9"/>
+      <c r="L82" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M82" s="15">
+        <f>(1-L82)-((E82/100)*'Water column'!$B$26)</f>
+        <v>0.79349999999999987</v>
+      </c>
+      <c r="N82" s="15">
+        <f t="shared" ref="N82:N83" si="54">H82-(M82-L82)*98</f>
+        <v>930.22699999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C83" s="9">
+        <v>1208</v>
+      </c>
+      <c r="D83" s="9">
+        <v>536.26</v>
+      </c>
+      <c r="E83" s="9">
+        <v>130</v>
+      </c>
+      <c r="F83" s="9">
+        <v>536.13</v>
+      </c>
+      <c r="G83" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H83" s="9">
+        <v>1001.13</v>
+      </c>
+      <c r="I83" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J83" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K83" s="9"/>
+      <c r="L83" s="15">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M83" s="15">
+        <f>(1-L83)-((E83/100)*'Water column'!$B$26)</f>
+        <v>0.84549999999999992</v>
+      </c>
+      <c r="N83" s="15">
+        <f t="shared" si="54"/>
+        <v>925.13099999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C84" s="9">
+        <v>1208</v>
+      </c>
+      <c r="D84" s="9">
+        <v>531.49</v>
+      </c>
+      <c r="E84" s="9">
+        <v>310</v>
+      </c>
+      <c r="F84" s="9">
+        <v>531.14</v>
+      </c>
+      <c r="G84" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H84" s="9">
+        <v>1001.13</v>
+      </c>
+      <c r="I84" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J84" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="15">
+        <f t="shared" ref="L84:L92" si="55">$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M84" s="15">
+        <f>(1-L84)-((E84/100)*'Water column'!$B$26)</f>
+        <v>0.72849999999999993</v>
+      </c>
+      <c r="N84" s="15">
+        <f>H84-(M84-L84)*98</f>
+        <v>936.59699999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C85" s="9">
+        <v>1145</v>
+      </c>
+      <c r="D85" s="9">
+        <v>526.29</v>
+      </c>
+      <c r="E85" s="9">
+        <v>170</v>
+      </c>
+      <c r="F85" s="9">
+        <v>526.12</v>
+      </c>
+      <c r="G85" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H85" s="9">
+        <v>1001.13</v>
+      </c>
+      <c r="I85" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J85" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K85" s="9"/>
+      <c r="L85" s="15">
+        <f t="shared" si="55"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M85" s="15">
+        <f>(1-L85)-((E85/100)*'Water column'!$B$26)</f>
+        <v>0.8194999999999999</v>
+      </c>
+      <c r="N85" s="15">
+        <f t="shared" ref="N85:N90" si="56">H85-(M85-L85)*98</f>
+        <v>927.67899999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C86" s="9">
+        <v>1145</v>
+      </c>
+      <c r="D86" s="9">
+        <v>523.63</v>
+      </c>
+      <c r="E86" s="9">
+        <v>60</v>
+      </c>
+      <c r="F86" s="9">
+        <v>523.55999999999995</v>
+      </c>
+      <c r="G86" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H86" s="9">
+        <v>1001.13</v>
+      </c>
+      <c r="I86" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J86" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K86" s="9"/>
+      <c r="L86" s="15">
+        <f t="shared" si="55"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M86" s="15">
+        <f>(1-L86)-((E86/100)*'Water column'!$B$26)</f>
+        <v>0.8909999999999999</v>
+      </c>
+      <c r="N86" s="15">
+        <f t="shared" si="56"/>
+        <v>920.67200000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C87" s="9">
+        <v>1145</v>
+      </c>
+      <c r="D87" s="9">
+        <v>529.35</v>
+      </c>
+      <c r="E87" s="9">
+        <v>210</v>
+      </c>
+      <c r="F87" s="9">
+        <v>529.12</v>
+      </c>
+      <c r="G87" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H87" s="9">
+        <v>1001.13</v>
+      </c>
+      <c r="I87" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J87" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K87" s="9"/>
+      <c r="L87" s="15">
+        <f t="shared" si="55"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M87" s="15">
+        <f>(1-L87)-((E87/100)*'Water column'!$B$26)</f>
+        <v>0.79349999999999987</v>
+      </c>
+      <c r="N87" s="15">
+        <f t="shared" si="56"/>
+        <v>930.22699999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C88" s="9">
+        <v>1203</v>
+      </c>
+      <c r="D88" s="9">
+        <v>525.20000000000005</v>
+      </c>
+      <c r="E88" s="9">
+        <v>120</v>
+      </c>
+      <c r="F88" s="9">
+        <v>525.07000000000005</v>
+      </c>
+      <c r="G88" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H88" s="9">
+        <v>1001.13</v>
+      </c>
+      <c r="I88" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J88" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K88" s="9"/>
+      <c r="L88" s="15">
+        <f t="shared" si="55"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M88" s="15">
+        <f>(1-L88)-((E88/100)*'Water column'!$B$26)</f>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="N88" s="15">
+        <f t="shared" si="56"/>
+        <v>924.49400000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C89" s="9">
+        <v>1203</v>
+      </c>
+      <c r="D89" s="9">
+        <v>527.99</v>
+      </c>
+      <c r="E89" s="9">
+        <v>80</v>
+      </c>
+      <c r="F89" s="9">
+        <v>527.91999999999996</v>
+      </c>
+      <c r="G89" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H89" s="9">
+        <v>1001.13</v>
+      </c>
+      <c r="I89" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J89" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K89" s="9"/>
+      <c r="L89" s="15">
+        <f t="shared" si="55"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f>(1-L89)-((E89/100)*'Water column'!$B$26)</f>
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="56"/>
+        <v>921.94600000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C90" s="9">
+        <v>1203</v>
+      </c>
+      <c r="D90" s="9">
+        <v>526.59</v>
+      </c>
+      <c r="E90" s="9">
+        <v>140</v>
+      </c>
+      <c r="F90" s="9">
+        <v>526.44000000000005</v>
+      </c>
+      <c r="G90" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H90" s="9">
+        <v>1001.13</v>
+      </c>
+      <c r="I90" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J90" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="15">
+        <f t="shared" si="55"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M90" s="15">
+        <f>(1-L90)-((E90/100)*'Water column'!$B$26)</f>
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="N90" s="15">
+        <f t="shared" si="56"/>
+        <v>925.76800000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C91" s="19">
+        <v>1145</v>
+      </c>
+      <c r="D91" s="19">
+        <v>527.17999999999995</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="19">
+        <v>527.17999999999995</v>
+      </c>
+      <c r="G91" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H91" s="9">
+        <v>1001.13</v>
+      </c>
+      <c r="I91" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J91" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15">
+        <f t="shared" si="55"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M91" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" s="9">
+        <v>13112019</v>
+      </c>
+      <c r="C92" s="19">
+        <v>1145</v>
+      </c>
+      <c r="D92" s="19">
+        <v>528.07000000000005</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="19">
+        <v>528.09</v>
+      </c>
+      <c r="G92" s="9">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="H92" s="9">
+        <v>1001.13</v>
+      </c>
+      <c r="I92" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J92" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15">
+        <f t="shared" si="55"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M92" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="9">
+        <v>22112019</v>
+      </c>
+      <c r="C93" s="9">
+        <v>1103</v>
+      </c>
+      <c r="D93" s="9">
+        <v>531.39</v>
+      </c>
+      <c r="E93" s="9">
+        <v>240</v>
+      </c>
+      <c r="F93" s="9">
+        <v>531.12</v>
+      </c>
+      <c r="G93" s="9">
+        <f t="shared" ref="G93:G97" si="57">$G$99</f>
+        <v>15</v>
+      </c>
+      <c r="H93" s="9">
+        <f t="shared" ref="H93:H97" si="58">$H$99</f>
+        <v>999.23</v>
+      </c>
+      <c r="I93" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J93" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M93" s="15">
+        <f>(1-L93)-((E93/100)*'Water column'!$B$26)</f>
+        <v>0.77399999999999991</v>
+      </c>
+      <c r="N93" s="15">
+        <f t="shared" ref="N93:N94" si="59">H93-(M93-L93)*98</f>
+        <v>930.23800000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="9">
+        <f>$B$93</f>
+        <v>22112019</v>
+      </c>
+      <c r="C94" s="9">
+        <v>1103</v>
+      </c>
+      <c r="D94" s="9">
+        <v>535.76</v>
+      </c>
+      <c r="E94" s="9">
+        <v>80</v>
+      </c>
+      <c r="F94" s="9">
+        <v>535.67999999999995</v>
+      </c>
+      <c r="G94" s="9">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+      <c r="H94" s="9">
+        <f t="shared" si="58"/>
+        <v>999.23</v>
+      </c>
+      <c r="I94" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J94" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K94" s="9"/>
+      <c r="L94" s="15">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M94" s="15">
+        <f>(1-L94)-((E94/100)*'Water column'!$B$26)</f>
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="N94" s="15">
+        <f t="shared" si="59"/>
+        <v>920.04600000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95" s="9">
+        <f t="shared" ref="B95:B103" si="60">$B$93</f>
+        <v>22112019</v>
+      </c>
+      <c r="C95" s="9">
+        <v>1103</v>
+      </c>
+      <c r="D95" s="9">
+        <v>531.12</v>
+      </c>
+      <c r="E95" s="9">
+        <v>280</v>
+      </c>
+      <c r="F95" s="9">
+        <v>530.80999999999995</v>
+      </c>
+      <c r="G95" s="9">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+      <c r="H95" s="9">
+        <f t="shared" si="58"/>
+        <v>999.23</v>
+      </c>
+      <c r="I95" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J95" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K95" s="9"/>
+      <c r="L95" s="15">
+        <f t="shared" ref="L95:L103" si="61">$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M95" s="15">
+        <f>(1-L95)-((E95/100)*'Water column'!$B$26)</f>
+        <v>0.748</v>
+      </c>
+      <c r="N95" s="15">
+        <f>H95-(M95-L95)*98</f>
+        <v>932.78600000000006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="9">
+        <f t="shared" si="60"/>
+        <v>22112019</v>
+      </c>
+      <c r="C96" s="40">
+        <v>1117</v>
+      </c>
+      <c r="D96" s="9">
+        <v>525.95000000000005</v>
+      </c>
+      <c r="E96" s="9">
+        <v>65</v>
+      </c>
+      <c r="F96" s="9">
+        <v>525.9</v>
+      </c>
+      <c r="G96" s="9">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+      <c r="H96" s="9">
+        <f t="shared" si="58"/>
+        <v>999.23</v>
+      </c>
+      <c r="I96" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J96" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K96" s="9"/>
+      <c r="L96" s="15">
+        <f t="shared" si="61"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M96" s="15">
+        <f>(1-L96)-((E96/100)*'Water column'!$B$26)</f>
+        <v>0.88774999999999993</v>
+      </c>
+      <c r="N96" s="15">
+        <f t="shared" ref="N96:N101" si="62">H96-(M96-L96)*98</f>
+        <v>919.09050000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" s="9">
+        <f t="shared" si="60"/>
+        <v>22112019</v>
+      </c>
+      <c r="C97" s="40">
+        <v>1117</v>
+      </c>
+      <c r="D97" s="9">
+        <v>523.4</v>
+      </c>
+      <c r="E97" s="9">
+        <v>45</v>
+      </c>
+      <c r="F97" s="9">
+        <v>523.34</v>
+      </c>
+      <c r="G97" s="9">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+      <c r="H97" s="9">
+        <f t="shared" si="58"/>
+        <v>999.23</v>
+      </c>
+      <c r="I97" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J97" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K97" s="9"/>
+      <c r="L97" s="15">
+        <f t="shared" si="61"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M97" s="15">
+        <f>(1-L97)-((E97/100)*'Water column'!$B$26)</f>
+        <v>0.90074999999999994</v>
+      </c>
+      <c r="N97" s="15">
+        <f t="shared" si="62"/>
+        <v>917.81650000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="9">
+        <f t="shared" si="60"/>
+        <v>22112019</v>
+      </c>
+      <c r="C98" s="40">
+        <v>1117</v>
+      </c>
+      <c r="D98" s="9">
+        <v>529.07000000000005</v>
+      </c>
+      <c r="E98" s="9">
+        <v>150</v>
+      </c>
+      <c r="F98" s="9">
+        <v>528.91</v>
+      </c>
+      <c r="G98" s="9">
+        <f>$G$99</f>
+        <v>15</v>
+      </c>
+      <c r="H98" s="9">
+        <f>$H$99</f>
+        <v>999.23</v>
+      </c>
+      <c r="I98" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J98" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="15">
+        <f t="shared" si="61"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M98" s="15">
+        <f>(1-L98)-((E98/100)*'Water column'!$B$26)</f>
+        <v>0.83249999999999991</v>
+      </c>
+      <c r="N98" s="15">
+        <f t="shared" si="62"/>
+        <v>924.505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="9">
+        <f t="shared" si="60"/>
+        <v>22112019</v>
+      </c>
+      <c r="C99" s="9">
+        <v>1112</v>
+      </c>
+      <c r="D99" s="9">
+        <v>524.95000000000005</v>
+      </c>
+      <c r="E99" s="9">
+        <v>60</v>
+      </c>
+      <c r="F99" s="9">
+        <v>524.89</v>
+      </c>
+      <c r="G99" s="9">
+        <v>15</v>
+      </c>
+      <c r="H99" s="9">
+        <v>999.23</v>
+      </c>
+      <c r="I99" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J99" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="15">
+        <f t="shared" si="61"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M99" s="15">
+        <f>(1-L99)-((E99/100)*'Water column'!$B$26)</f>
+        <v>0.8909999999999999</v>
+      </c>
+      <c r="N99" s="15">
+        <f t="shared" si="62"/>
+        <v>918.77200000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" s="9">
+        <f t="shared" si="60"/>
+        <v>22112019</v>
+      </c>
+      <c r="C100" s="9">
+        <v>1112</v>
+      </c>
+      <c r="D100" s="9">
+        <v>527.87</v>
+      </c>
+      <c r="E100" s="9">
+        <v>100</v>
+      </c>
+      <c r="F100" s="9">
+        <v>527.76</v>
+      </c>
+      <c r="G100" s="9">
+        <v>15</v>
+      </c>
+      <c r="H100" s="9">
+        <f>$H$99</f>
+        <v>999.23</v>
+      </c>
+      <c r="I100" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J100" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="15">
+        <f t="shared" si="61"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M100" s="15">
+        <f>(1-L100)-((E100/100)*'Water column'!$B$26)</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="N100" s="15">
+        <f t="shared" si="62"/>
+        <v>921.32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="9">
+        <f t="shared" si="60"/>
+        <v>22112019</v>
+      </c>
+      <c r="C101" s="9">
+        <v>1112</v>
+      </c>
+      <c r="D101" s="9">
+        <v>526.39</v>
+      </c>
+      <c r="E101" s="9">
+        <v>110</v>
+      </c>
+      <c r="F101" s="9">
+        <v>526.26</v>
+      </c>
+      <c r="G101" s="9">
+        <v>15</v>
+      </c>
+      <c r="H101" s="9">
+        <f t="shared" ref="H101:H103" si="63">$H$99</f>
+        <v>999.23</v>
+      </c>
+      <c r="I101" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J101" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K101" s="9"/>
+      <c r="L101" s="15">
+        <f t="shared" si="61"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M101" s="15">
+        <f>(1-L101)-((E101/100)*'Water column'!$B$26)</f>
+        <v>0.85849999999999993</v>
+      </c>
+      <c r="N101" s="15">
+        <f t="shared" si="62"/>
+        <v>921.95699999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="9">
+        <f t="shared" si="60"/>
+        <v>22112019</v>
+      </c>
+      <c r="C102" s="19">
+        <v>1045</v>
+      </c>
+      <c r="D102" s="19">
+        <v>527.16</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="19">
+        <v>527.17999999999995</v>
+      </c>
+      <c r="G102" s="9">
+        <v>15</v>
+      </c>
+      <c r="H102" s="9">
+        <f t="shared" si="63"/>
+        <v>999.23</v>
+      </c>
+      <c r="I102" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J102" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15">
+        <f t="shared" si="61"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M102" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N102" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" s="9">
+        <f t="shared" si="60"/>
+        <v>22112019</v>
+      </c>
+      <c r="C103" s="19">
+        <v>1045</v>
+      </c>
+      <c r="D103" s="19">
+        <v>528.07000000000005</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="19">
+        <v>528.09</v>
+      </c>
+      <c r="G103" s="9">
+        <v>15</v>
+      </c>
+      <c r="H103" s="9">
+        <f t="shared" si="63"/>
+        <v>999.23</v>
+      </c>
+      <c r="I103" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J103" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15">
+        <f t="shared" si="61"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M103" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" s="9">
+        <v>9122019</v>
+      </c>
+      <c r="C104" s="9">
+        <v>1330</v>
+      </c>
+      <c r="D104" s="9">
+        <v>531.04999999999995</v>
+      </c>
+      <c r="E104" s="9">
+        <v>225</v>
+      </c>
+      <c r="F104" s="9">
+        <v>530.82000000000005</v>
+      </c>
+      <c r="G104" s="9">
+        <v>15</v>
+      </c>
+      <c r="H104" s="9">
+        <v>1003.15</v>
+      </c>
+      <c r="I104" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J104" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K104" s="9"/>
+      <c r="L104" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M104" s="15">
+        <f>(1-L104)-((E104/100)*'Water column'!$B$26)</f>
+        <v>0.78374999999999995</v>
+      </c>
+      <c r="N104" s="15">
+        <f t="shared" ref="N104:N105" si="64">H104-(M104-L104)*98</f>
+        <v>933.20249999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" s="9">
+        <f>$B$104</f>
+        <v>9122019</v>
+      </c>
+      <c r="C105" s="9">
+        <v>1330</v>
+      </c>
+      <c r="D105" s="9">
+        <v>535.37</v>
+      </c>
+      <c r="E105" s="9">
+        <v>60</v>
+      </c>
+      <c r="F105" s="9">
+        <v>535.30999999999995</v>
+      </c>
+      <c r="G105" s="9">
+        <v>15</v>
+      </c>
+      <c r="H105" s="9">
+        <f>$H$104</f>
+        <v>1003.15</v>
+      </c>
+      <c r="I105" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J105" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K105" s="9"/>
+      <c r="L105" s="15">
+        <f>$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M105" s="15">
+        <f>(1-L105)-((E105/100)*'Water column'!$B$26)</f>
+        <v>0.8909999999999999</v>
+      </c>
+      <c r="N105" s="15">
+        <f t="shared" si="64"/>
+        <v>922.69200000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="9">
+        <f t="shared" ref="B106:B114" si="65">$B$104</f>
+        <v>9122019</v>
+      </c>
+      <c r="C106" s="9">
+        <v>1330</v>
+      </c>
+      <c r="D106" s="9">
+        <v>530.82000000000005</v>
+      </c>
+      <c r="E106" s="9">
+        <v>310</v>
+      </c>
+      <c r="F106" s="9">
+        <v>530.47</v>
+      </c>
+      <c r="G106" s="9">
+        <v>15</v>
+      </c>
+      <c r="H106" s="9">
+        <f t="shared" ref="H106:H114" si="66">$H$104</f>
+        <v>1003.15</v>
+      </c>
+      <c r="I106" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J106" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K106" s="9"/>
+      <c r="L106" s="15">
+        <f t="shared" ref="L106:L114" si="67">$L$5</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(1-L106)-((E106/100)*'Water column'!$B$26)</f>
+        <v>0.72849999999999993</v>
+      </c>
+      <c r="N106" s="15">
+        <f>H106-(M106-L106)*98</f>
+        <v>938.61699999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" s="9">
+        <f t="shared" si="65"/>
+        <v>9122019</v>
+      </c>
+      <c r="C107" s="40">
+        <v>1318</v>
+      </c>
+      <c r="D107" s="9">
+        <v>525.76</v>
+      </c>
+      <c r="E107" s="9">
+        <v>120</v>
+      </c>
+      <c r="F107" s="9">
+        <v>525.65</v>
+      </c>
+      <c r="G107" s="9">
+        <v>15</v>
+      </c>
+      <c r="H107" s="9">
+        <f t="shared" si="66"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I107" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J107" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K107" s="9"/>
+      <c r="L107" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M107" s="15">
+        <f>(1-L107)-((E107/100)*'Water column'!$B$26)</f>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="N107" s="15">
+        <f t="shared" ref="N107:N112" si="68">H107-(M107-L107)*98</f>
+        <v>926.51400000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" s="9">
+        <f t="shared" si="65"/>
+        <v>9122019</v>
+      </c>
+      <c r="C108" s="40">
+        <v>1318</v>
+      </c>
+      <c r="D108" s="9">
+        <v>523.16999999999996</v>
+      </c>
+      <c r="E108" s="9">
+        <v>80</v>
+      </c>
+      <c r="F108" s="9">
+        <v>523.09</v>
+      </c>
+      <c r="G108" s="9">
+        <v>15</v>
+      </c>
+      <c r="H108" s="9">
+        <f t="shared" si="66"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I108" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J108" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K108" s="9"/>
+      <c r="L108" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M108" s="15">
+        <f>(1-L108)-((E108/100)*'Water column'!$B$26)</f>
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="N108" s="15">
+        <f t="shared" si="68"/>
+        <v>923.96600000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="9">
+        <f t="shared" si="65"/>
+        <v>9122019</v>
+      </c>
+      <c r="C109" s="40">
+        <v>1318</v>
+      </c>
+      <c r="D109" s="9">
+        <v>528.94000000000005</v>
+      </c>
+      <c r="E109" s="9">
+        <v>230</v>
+      </c>
+      <c r="F109" s="9">
+        <v>528.66</v>
+      </c>
+      <c r="G109" s="9">
+        <v>15</v>
+      </c>
+      <c r="H109" s="9">
+        <f t="shared" si="66"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I109" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J109" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K109" s="9"/>
+      <c r="L109" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M109" s="15">
+        <f>(1-L109)-((E109/100)*'Water column'!$B$26)</f>
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="N109" s="15">
+        <f t="shared" si="68"/>
+        <v>933.52099999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" s="9">
+        <f t="shared" si="65"/>
+        <v>9122019</v>
+      </c>
+      <c r="C110" s="9">
+        <v>1325</v>
+      </c>
+      <c r="D110" s="9">
+        <v>524.70000000000005</v>
+      </c>
+      <c r="E110" s="9">
+        <v>80</v>
+      </c>
+      <c r="F110" s="9">
+        <v>524.64</v>
+      </c>
+      <c r="G110" s="9">
+        <v>15</v>
+      </c>
+      <c r="H110" s="9">
+        <f t="shared" si="66"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I110" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J110" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K110" s="9"/>
+      <c r="L110" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M110" s="15">
+        <f>(1-L110)-((E110/100)*'Water column'!$B$26)</f>
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="N110" s="15">
+        <f t="shared" si="68"/>
+        <v>923.96600000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B111" s="9">
+        <f t="shared" si="65"/>
+        <v>9122019</v>
+      </c>
+      <c r="C111" s="9">
+        <v>1325</v>
+      </c>
+      <c r="D111" s="9">
+        <v>527.64</v>
+      </c>
+      <c r="E111" s="9">
+        <v>140</v>
+      </c>
+      <c r="F111" s="9">
+        <v>527.5</v>
+      </c>
+      <c r="G111" s="9">
+        <v>15</v>
+      </c>
+      <c r="H111" s="9">
+        <f t="shared" si="66"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I111" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J111" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K111" s="9"/>
+      <c r="L111" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M111" s="15">
+        <f>(1-L111)-((E111/100)*'Water column'!$B$26)</f>
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="N111" s="15">
+        <f t="shared" si="68"/>
+        <v>927.78800000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="9">
+        <f t="shared" si="65"/>
+        <v>9122019</v>
+      </c>
+      <c r="C112" s="9">
+        <v>1325</v>
+      </c>
+      <c r="D112" s="9">
+        <v>526.19000000000005</v>
+      </c>
+      <c r="E112" s="9">
+        <v>160</v>
+      </c>
+      <c r="F112" s="9">
+        <v>526.04</v>
+      </c>
+      <c r="G112" s="9">
+        <v>15</v>
+      </c>
+      <c r="H112" s="9">
+        <f t="shared" si="66"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I112" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J112" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K112" s="9"/>
+      <c r="L112" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M112" s="15">
+        <f>(1-L112)-((E112/100)*'Water column'!$B$26)</f>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="N112" s="15">
+        <f t="shared" si="68"/>
+        <v>929.06200000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="9">
+        <f t="shared" si="65"/>
+        <v>9122019</v>
+      </c>
+      <c r="C113" s="19">
+        <v>1307</v>
+      </c>
+      <c r="D113" s="25">
+        <v>527.16999999999996</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="25">
+        <v>527.21</v>
+      </c>
+      <c r="G113" s="9">
+        <v>15</v>
+      </c>
+      <c r="H113" s="9">
+        <f t="shared" si="66"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I113" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J113" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M113" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N113" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" s="9">
+        <f t="shared" si="65"/>
+        <v>9122019</v>
+      </c>
+      <c r="C114" s="19">
+        <v>1307</v>
+      </c>
+      <c r="D114" s="25">
+        <v>528.09</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="25">
+        <v>528.11</v>
+      </c>
+      <c r="G114" s="9">
+        <v>15</v>
+      </c>
+      <c r="H114" s="9">
+        <f t="shared" si="66"/>
+        <v>1003.15</v>
+      </c>
+      <c r="I114" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J114" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M114" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N114" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -20175,415 +24467,638 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="19">
+        <v>16102019</v>
+      </c>
+      <c r="C3" s="26">
+        <v>7.1432999999999996E-2</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.27759</v>
+      </c>
+      <c r="E3" s="20">
+        <f>C3/(C3+D3)</f>
+        <v>0.20466559510404758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="19">
+        <v>16102019</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.13954</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.21920999999999999</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" ref="E4:E17" si="0">C4/(C4+D4)</f>
+        <v>0.38896167247386759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="19">
+        <f t="shared" ref="B5" si="1">$B$3</f>
+        <v>16102019</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.27167999999999998</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.20219000000000001</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.57332179711735276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="19">
+        <v>18102019</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.16614999999999999</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.41010999999999997</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.28832471453857633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="19">
+        <v>18102019</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.36430000000000001</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.31274000000000002</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.53807751388396541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="19">
+        <v>18102019</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.48024</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.26723999999999998</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>0.6424787285278537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="19">
+        <v>21102019</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.25185999999999997</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.46131</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>0.3531556290926427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="19">
+        <f>$B$9</f>
+        <v>21102019</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0.53517000000000003</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.29727999999999999</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>0.64288545858610124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="19">
+        <f>$B$10</f>
+        <v>21102019</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.50041999999999998</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.34181</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>0.59416073994039631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="19">
+        <v>23102019</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.28062999999999999</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.50114999999999998</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>0.35896287958249129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="19">
+        <v>23102019</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.55225000000000002</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.36875999999999998</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>0.59961346782336788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="19">
+        <v>23102019</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0.49180000000000001</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.43160999999999999</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>0.53259115669096069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="19">
+        <v>28102019</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.42851</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.34397</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.55471986329743161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="19">
+        <v>28102019</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.52720999999999996</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.31185000000000002</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>0.62833408814625891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="19">
+        <v>28102019</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.50963999999999998</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.42382999999999998</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.54596291257351603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1112019</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.61404000000000003</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.24781</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" ref="E18:E20" si="2">C18/(C18+D18)</f>
+        <v>0.71246736671114463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1112019</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.51588000000000001</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="2"/>
+        <v>0.59578694507322028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1112019</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.45179999999999998</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.37584000000000001</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="2"/>
+        <v>0.54588951718138323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="19">
+        <v>6112019</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0.60524</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.29137999999999997</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" ref="E21:E23" si="3">C21/(C21+D21)</f>
+        <v>0.67502397894314203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="19">
+        <v>6112019</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.50983000000000001</v>
+      </c>
+      <c r="D22" s="35">
+        <v>0.39866000000000001</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="3"/>
+        <v>0.56118394258604942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="19">
+        <v>6112019</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0.45962999999999998</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="3"/>
+        <v>0.52401582433618732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="19">
+        <v>13112019</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.56681000000000004</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.32029999999999997</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" ref="E24:E26" si="4">C24/(C24+D24)</f>
+        <v>0.63893992853197457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="19">
+        <v>13112019</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0.50873000000000002</v>
+      </c>
+      <c r="D25" s="35">
+        <v>0.39895000000000003</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="4"/>
+        <v>0.56047285386920498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="19">
+        <v>13112019</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0.46504000000000001</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.42385</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="4"/>
+        <v>0.52316934603831744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="19">
+        <v>22112019</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0.53119000000000005</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.30680000000000002</v>
+      </c>
+      <c r="E27" s="20">
+        <f t="shared" ref="E27:E29" si="5">C27/(C27+D27)</f>
+        <v>0.63388584589314911</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="19">
+        <v>22112019</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0.45630999999999999</v>
+      </c>
+      <c r="D28" s="35">
+        <v>0.36547000000000002</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" si="5"/>
+        <v>0.55527026698143056</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="19">
+        <v>22112019</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0.43179000000000001</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0.37423000000000001</v>
+      </c>
+      <c r="E29" s="20">
+        <f t="shared" si="5"/>
+        <v>0.53570631001712121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="19">
+        <v>9112019</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0.52254999999999996</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.35110999999999998</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" ref="E30:E32" si="6">C30/(C30+D30)</f>
+        <v>0.59811597188837762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="19">
+        <v>9112019</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="D31" s="35">
+        <v>0.40028000000000002</v>
+      </c>
+      <c r="E31" s="20">
+        <f t="shared" si="6"/>
+        <v>0.54902093332432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="19">
+        <v>9112019</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.44367000000000001</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0.40911999999999998</v>
+      </c>
+      <c r="E32" s="20">
+        <f t="shared" si="6"/>
+        <v>0.52025703866133521</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G6:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="19">
-        <v>16102019</v>
-      </c>
-      <c r="C3" s="26">
-        <v>7.1432999999999996E-2</v>
-      </c>
-      <c r="D3" s="20">
-        <v>0.27759</v>
-      </c>
-      <c r="E3" s="20">
-        <f>C3/(C3+D3)</f>
-        <v>0.20466559510404758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="19">
-        <v>16102019</v>
-      </c>
-      <c r="C4" s="26">
-        <v>0.13954</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0.21920999999999999</v>
-      </c>
-      <c r="E4" s="20">
-        <f t="shared" ref="E4:E17" si="0">C4/(C4+D4)</f>
-        <v>0.38896167247386759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="19" t="s">
+    <row r="6" spans="7:12">
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="42">
+        <v>13112019</v>
+      </c>
+      <c r="J6" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="44">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L6" s="45">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7" spans="7:12">
+      <c r="H7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="19">
-        <f t="shared" ref="B5" si="1">$B$3</f>
-        <v>16102019</v>
-      </c>
-      <c r="C5" s="26">
-        <v>0.27167999999999998</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0.20219000000000001</v>
-      </c>
-      <c r="E5" s="20">
-        <f t="shared" si="0"/>
-        <v>0.57332179711735276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="19">
-        <v>18102019</v>
-      </c>
-      <c r="C6" s="26">
-        <v>0.16614999999999999</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0.41010999999999997</v>
-      </c>
-      <c r="E6" s="20">
-        <f t="shared" si="0"/>
-        <v>0.28832471453857633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="19">
-        <v>18102019</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0.36430000000000001</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0.31274000000000002</v>
-      </c>
-      <c r="E7" s="20">
-        <f t="shared" si="0"/>
-        <v>0.53807751388396541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="19">
-        <v>18102019</v>
-      </c>
-      <c r="C8" s="26">
-        <v>0.48024</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0.26723999999999998</v>
-      </c>
-      <c r="E8" s="20">
-        <f t="shared" si="0"/>
-        <v>0.6424787285278537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="19">
-        <v>21102019</v>
-      </c>
-      <c r="C9" s="26">
-        <v>0.25185999999999997</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0.46131</v>
-      </c>
-      <c r="E9" s="20">
-        <f t="shared" si="0"/>
-        <v>0.3531556290926427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="19">
-        <f>$B$9</f>
-        <v>21102019</v>
-      </c>
-      <c r="C10" s="26">
-        <v>0.53517000000000003</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0.29727999999999999</v>
-      </c>
-      <c r="E10" s="20">
-        <f t="shared" si="0"/>
-        <v>0.64288545858610124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="19">
-        <f>$B$10</f>
-        <v>21102019</v>
-      </c>
-      <c r="C11" s="26">
-        <v>0.50041999999999998</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0.34181</v>
-      </c>
-      <c r="E11" s="20">
-        <f t="shared" si="0"/>
-        <v>0.59416073994039631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="19">
-        <v>23102019</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0.28062999999999999</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0.50114999999999998</v>
-      </c>
-      <c r="E12" s="20">
-        <f t="shared" si="0"/>
-        <v>0.35896287958249129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="19">
-        <v>23102019</v>
-      </c>
-      <c r="C13" s="26">
-        <v>0.55225000000000002</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.36875999999999998</v>
-      </c>
-      <c r="E13" s="20">
-        <f t="shared" si="0"/>
-        <v>0.59961346782336788</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="19">
-        <v>23102019</v>
-      </c>
-      <c r="C14" s="26">
-        <v>0.49180000000000001</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0.43160999999999999</v>
-      </c>
-      <c r="E14" s="20">
-        <f t="shared" si="0"/>
-        <v>0.53259115669096069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="19">
-        <v>28102019</v>
-      </c>
-      <c r="C15" s="26">
-        <v>0.42851</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0.34397</v>
-      </c>
-      <c r="E15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.55471986329743161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="19">
-        <v>28102019</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0.52720999999999996</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0.31185000000000002</v>
-      </c>
-      <c r="E16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.62833408814625891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="19">
-        <v>28102019</v>
-      </c>
-      <c r="C17" s="26">
-        <v>0.50963999999999998</v>
-      </c>
-      <c r="D17" s="20">
-        <v>0.42382999999999998</v>
-      </c>
-      <c r="E17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.54596291257351603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="19">
-        <v>1112019</v>
-      </c>
-      <c r="C18" s="26">
-        <v>0.61404000000000003</v>
-      </c>
-      <c r="D18" s="20">
-        <v>0.24781</v>
-      </c>
-      <c r="E18" s="20">
-        <f t="shared" ref="E18:E20" si="2">C18/(C18+D18)</f>
-        <v>0.71246736671114463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="19">
-        <v>1112019</v>
-      </c>
-      <c r="C19" s="26">
-        <v>0.51588000000000001</v>
-      </c>
-      <c r="D19" s="35">
+      <c r="I7" s="27">
+        <v>13112019</v>
+      </c>
+      <c r="J7" s="47">
         <v>0.35</v>
       </c>
-      <c r="E19" s="20">
-        <f t="shared" si="2"/>
-        <v>0.59578694507322028</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="19">
-        <v>1112019</v>
-      </c>
-      <c r="C20" s="26">
-        <v>0.45179999999999998</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0.37584000000000001</v>
-      </c>
-      <c r="E20" s="20">
-        <f t="shared" si="2"/>
-        <v>0.54588951718138323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="19">
-        <v>6112019</v>
-      </c>
-      <c r="C21" s="26">
-        <v>0.60524</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0.29137999999999997</v>
-      </c>
-      <c r="E21" s="20">
-        <f t="shared" ref="E21:E23" si="3">C21/(C21+D21)</f>
-        <v>0.67502397894314203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="19">
-        <v>6112019</v>
-      </c>
-      <c r="C22" s="26">
-        <v>0.50983000000000001</v>
-      </c>
-      <c r="D22" s="35">
-        <v>0.39866000000000001</v>
-      </c>
-      <c r="E22" s="20">
-        <f t="shared" si="3"/>
-        <v>0.56118394258604942</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="19">
-        <v>6112019</v>
-      </c>
-      <c r="C23" s="26">
-        <v>0.45962999999999998</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0.41749999999999998</v>
-      </c>
-      <c r="E23" s="20">
-        <f t="shared" si="3"/>
-        <v>0.52401582433618732</v>
+      <c r="K7" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="L7" s="49">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
